--- a/escenarios_montecarlo/escenario_006.xlsx
+++ b/escenarios_montecarlo/escenario_006.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>20.06925278378606</v>
+        <v>35.51111117069431</v>
       </c>
       <c r="D2" t="n">
-        <v>16.46415599442454</v>
+        <v>22.04525078321906</v>
       </c>
       <c r="E2" t="n">
-        <v>14.35615897030069</v>
+        <v>17.74566482177322</v>
       </c>
       <c r="F2" t="n">
-        <v>12.43513384396051</v>
+        <v>60.1535278878815</v>
       </c>
       <c r="G2" t="n">
-        <v>24.65331763520983</v>
+        <v>60.62852258541977</v>
       </c>
       <c r="H2" t="n">
-        <v>17.44096374992959</v>
+        <v>18.64906443369748</v>
       </c>
       <c r="I2" t="n">
-        <v>45.27464560161094</v>
+        <v>22.35191771289616</v>
       </c>
       <c r="J2" t="n">
-        <v>30.23207823175906</v>
+        <v>55.23414453274547</v>
       </c>
       <c r="K2" t="n">
-        <v>294.9017999754328</v>
+        <v>379.7432320153469</v>
       </c>
       <c r="L2" t="n">
-        <v>60.19254225694797</v>
+        <v>52.34439833280268</v>
       </c>
       <c r="M2" t="n">
-        <v>238.1445921309601</v>
+        <v>80.57775378096203</v>
       </c>
       <c r="N2" t="n">
-        <v>16.46622527140103</v>
+        <v>49.57474473208839</v>
       </c>
       <c r="O2" t="n">
-        <v>64.80967960468745</v>
+        <v>55.69612895886488</v>
       </c>
       <c r="P2" t="n">
-        <v>87.41640247502485</v>
+        <v>111.2938674900587</v>
       </c>
       <c r="Q2" t="n">
-        <v>152.6596505433158</v>
+        <v>59.88072790827965</v>
       </c>
       <c r="R2" t="n">
-        <v>51.92072408446266</v>
+        <v>105.2196506654299</v>
       </c>
       <c r="S2" t="n">
-        <v>22.99135547561376</v>
+        <v>25.97181649395165</v>
       </c>
       <c r="T2" t="n">
-        <v>86.00994935314486</v>
+        <v>71.55051704238578</v>
       </c>
       <c r="U2" t="n">
-        <v>42.37556994078461</v>
+        <v>119.9309208955855</v>
       </c>
       <c r="V2" t="n">
-        <v>30.40298251891205</v>
+        <v>56.19967696591213</v>
       </c>
       <c r="W2" t="n">
-        <v>50.91204573517409</v>
+        <v>32.39684425526393</v>
       </c>
       <c r="X2" t="n">
-        <v>33.30035292706251</v>
+        <v>219.2270572584331</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.0563034503031</v>
+        <v>46.5409512497268</v>
       </c>
       <c r="Z2" t="n">
-        <v>58.84780042146426</v>
+        <v>86.8108964338297</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.44001231396456</v>
+        <v>87.28806448583552</v>
       </c>
       <c r="AB2" t="n">
-        <v>48.45293620440559</v>
+        <v>135.5492882923419</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.50385426621972</v>
+        <v>91.98184993475851</v>
       </c>
       <c r="AD2" t="n">
-        <v>144.3531025162992</v>
+        <v>76.04949024911157</v>
       </c>
       <c r="AE2" t="n">
-        <v>110.2219955590292</v>
+        <v>184.575440122042</v>
       </c>
       <c r="AF2" t="n">
-        <v>28.05175658481666</v>
+        <v>154.863180946223</v>
       </c>
       <c r="AG2" t="n">
-        <v>119.1809077866916</v>
+        <v>157.0870560574734</v>
       </c>
       <c r="AH2" t="n">
-        <v>174.3024343359243</v>
+        <v>96.97620685033316</v>
       </c>
       <c r="AI2" t="n">
-        <v>184.3554089628425</v>
+        <v>180.2679825970715</v>
       </c>
       <c r="AJ2" t="n">
-        <v>60.04207966149897</v>
+        <v>52.62809094052234</v>
       </c>
       <c r="AK2" t="n">
-        <v>38.60046148136438</v>
+        <v>42.37061394131444</v>
       </c>
       <c r="AL2" t="n">
-        <v>54.08512490235171</v>
+        <v>25.99794009983846</v>
       </c>
       <c r="AM2" t="n">
-        <v>26.52609968723878</v>
+        <v>42.42748652376801</v>
       </c>
       <c r="AN2" t="n">
-        <v>19.46691001462832</v>
+        <v>42.4929173823437</v>
       </c>
       <c r="AO2" t="n">
-        <v>24.21480533383664</v>
+        <v>27.11844265218133</v>
       </c>
       <c r="AP2" t="n">
-        <v>25.32314219842482</v>
+        <v>33.1449254321516</v>
       </c>
       <c r="AQ2" t="n">
-        <v>38.07758585435474</v>
+        <v>28.35544710124648</v>
       </c>
       <c r="AR2" t="n">
-        <v>16.01429234013394</v>
+        <v>26.59262179684207</v>
       </c>
       <c r="AS2" t="n">
-        <v>27.42143842139626</v>
+        <v>16.03656985707937</v>
       </c>
       <c r="AT2" t="n">
-        <v>13.82831844563605</v>
+        <v>19.33815972153609</v>
       </c>
       <c r="AU2" t="n">
-        <v>29.90470910311335</v>
+        <v>44.46168778384181</v>
       </c>
       <c r="AV2" t="n">
-        <v>17.14363868494138</v>
+        <v>13.55008555949555</v>
       </c>
       <c r="AW2" t="n">
-        <v>11.8143693284839</v>
+        <v>20.16482343221852</v>
       </c>
       <c r="AX2" t="n">
-        <v>17.3172529620304</v>
+        <v>25.48076873562132</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>2.453414080242241</v>
+        <v>2.747481961098924</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001</v>
+        <v>0.3506289705648531</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2507522115833555</v>
+        <v>0.7893590666006555</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0585630589405667</v>
+        <v>2.112230103452339</v>
       </c>
       <c r="G3" t="n">
-        <v>2.414762017400076</v>
+        <v>0.9633172757129327</v>
       </c>
       <c r="H3" t="n">
-        <v>4.121996009941364</v>
+        <v>0.8434925882051107</v>
       </c>
       <c r="I3" t="n">
-        <v>2.211081459900466</v>
+        <v>3.197627584855013</v>
       </c>
       <c r="J3" t="n">
-        <v>3.519482514240273</v>
+        <v>123.9363494743687</v>
       </c>
       <c r="K3" t="n">
-        <v>1.524253545543404</v>
+        <v>3.122346391649186</v>
       </c>
       <c r="L3" t="n">
-        <v>3.80574976439571</v>
+        <v>5.985491642035867</v>
       </c>
       <c r="M3" t="n">
-        <v>6.04676261254911</v>
+        <v>1.751942740533097</v>
       </c>
       <c r="N3" t="n">
-        <v>4.260166590412836</v>
+        <v>6.611968562084797</v>
       </c>
       <c r="O3" t="n">
-        <v>6.068442518801635</v>
+        <v>20.27984140646831</v>
       </c>
       <c r="P3" t="n">
-        <v>5.131590565817056</v>
+        <v>3.393238783711544</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.052151548125432</v>
+        <v>0.8691743474406156</v>
       </c>
       <c r="R3" t="n">
-        <v>6.478587517256412</v>
+        <v>2.33538513559229</v>
       </c>
       <c r="S3" t="n">
-        <v>3.757167375514043</v>
+        <v>3.609976916235931</v>
       </c>
       <c r="T3" t="n">
-        <v>2.878345272546136</v>
+        <v>6.952440717483258</v>
       </c>
       <c r="U3" t="n">
-        <v>2.921302989108843</v>
+        <v>3.95277936416211</v>
       </c>
       <c r="V3" t="n">
-        <v>4.150064268955134</v>
+        <v>3.576200418757377</v>
       </c>
       <c r="W3" t="n">
-        <v>1.749107033503357</v>
+        <v>6.994455677920719</v>
       </c>
       <c r="X3" t="n">
-        <v>6.337196569623922</v>
+        <v>5.118471039090059</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.510720921677987</v>
+        <v>3.193452107470629</v>
       </c>
       <c r="Z3" t="n">
-        <v>10.21590809329923</v>
+        <v>4.653214365604892</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.258722346590679</v>
+        <v>3.443880914956478</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.096094780777822</v>
+        <v>4.84260937817495</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.751465296576927</v>
+        <v>5.762397754485691</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.790540800000001</v>
+        <v>4.340077064920611</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.185643649153258</v>
+        <v>3.319664826113669</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.585547897724993</v>
+        <v>3.971501940908709</v>
       </c>
       <c r="AG3" t="n">
-        <v>5.164937771328516</v>
+        <v>6.453469717722819</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.876597659383901</v>
+        <v>2.920003516483506</v>
       </c>
       <c r="AI3" t="n">
-        <v>5.935671556519542</v>
+        <v>8.935873819969924</v>
       </c>
       <c r="AJ3" t="n">
-        <v>4.772208464044565</v>
+        <v>5.050597317167735</v>
       </c>
       <c r="AK3" t="n">
-        <v>4.702809221215204</v>
+        <v>2.765732151804136</v>
       </c>
       <c r="AL3" t="n">
-        <v>2.085256563245041</v>
+        <v>3.706199530738454</v>
       </c>
       <c r="AM3" t="n">
-        <v>3.827808896642319</v>
+        <v>10.8513491777309</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.1208553591478816</v>
+        <v>6.192656473488306</v>
       </c>
       <c r="AO3" t="n">
-        <v>4.952285347377625</v>
+        <v>2.181662441304711</v>
       </c>
       <c r="AP3" t="n">
-        <v>5.86237337183211</v>
+        <v>5.615158279282867</v>
       </c>
       <c r="AQ3" t="n">
-        <v>6.459207377591412</v>
+        <v>2.661361091838184</v>
       </c>
       <c r="AR3" t="n">
-        <v>4.452107631167143</v>
+        <v>3.239282153494989</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.619321639854697</v>
+        <v>8.007778912233785</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.358044961650402</v>
+        <v>1.36041140623776</v>
       </c>
       <c r="AU3" t="n">
-        <v>4.459451107417748</v>
+        <v>0.6835413860733603</v>
       </c>
       <c r="AV3" t="n">
-        <v>4.15754854625258</v>
+        <v>4.090788582767093</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.734036262875348</v>
+        <v>1.022875571768341</v>
       </c>
       <c r="AX3" t="n">
-        <v>3.164527204856165</v>
+        <v>0.5396266530326187</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>10.78820105861223</v>
+        <v>8.790536431517351</v>
       </c>
       <c r="D4" t="n">
-        <v>8.478405358860652</v>
+        <v>5.197925911256685</v>
       </c>
       <c r="E4" t="n">
-        <v>11.24829170993694</v>
+        <v>4.04066482724676</v>
       </c>
       <c r="F4" t="n">
-        <v>15.68798932351503</v>
+        <v>18.99285295774033</v>
       </c>
       <c r="G4" t="n">
-        <v>11.04060466838988</v>
+        <v>6.855465995420175</v>
       </c>
       <c r="H4" t="n">
-        <v>10.77708096273701</v>
+        <v>5.925978726810571</v>
       </c>
       <c r="I4" t="n">
-        <v>130.1599846600333</v>
+        <v>19.67165381708391</v>
       </c>
       <c r="J4" t="n">
-        <v>193.9440870129426</v>
+        <v>66.21074877978839</v>
       </c>
       <c r="K4" t="n">
-        <v>80.04780651750461</v>
+        <v>124.5404508942538</v>
       </c>
       <c r="L4" t="n">
-        <v>26.43871512008815</v>
+        <v>10.82120955866665</v>
       </c>
       <c r="M4" t="n">
-        <v>63.78634176161681</v>
+        <v>48.72019235665581</v>
       </c>
       <c r="N4" t="n">
-        <v>53.24629979696877</v>
+        <v>81.9156643780897</v>
       </c>
       <c r="O4" t="n">
-        <v>80.50907107915208</v>
+        <v>46.73133640422117</v>
       </c>
       <c r="P4" t="n">
-        <v>28.06306795785002</v>
+        <v>48.50784159060994</v>
       </c>
       <c r="Q4" t="n">
-        <v>23.29811568256133</v>
+        <v>132.1860135885158</v>
       </c>
       <c r="R4" t="n">
-        <v>57.14189809640087</v>
+        <v>29.66974823685317</v>
       </c>
       <c r="S4" t="n">
-        <v>17.85742600598603</v>
+        <v>64.70209604074796</v>
       </c>
       <c r="T4" t="n">
-        <v>24.88434716679264</v>
+        <v>62.31284221739723</v>
       </c>
       <c r="U4" t="n">
-        <v>36.98527153810092</v>
+        <v>51.74273569177509</v>
       </c>
       <c r="V4" t="n">
-        <v>44.59593784502148</v>
+        <v>144.6033849071036</v>
       </c>
       <c r="W4" t="n">
-        <v>53.25546438087166</v>
+        <v>110.7491053498327</v>
       </c>
       <c r="X4" t="n">
-        <v>80.69636123328519</v>
+        <v>61.61657417143345</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.10695364238411</v>
+        <v>87.13362916234402</v>
       </c>
       <c r="Z4" t="n">
-        <v>46.83486264085327</v>
+        <v>52.38224147189456</v>
       </c>
       <c r="AA4" t="n">
-        <v>101.9208280276697</v>
+        <v>45.99346530964402</v>
       </c>
       <c r="AB4" t="n">
-        <v>89.51502040168722</v>
+        <v>47.91794036019609</v>
       </c>
       <c r="AC4" t="n">
-        <v>58.34857016964088</v>
+        <v>59.40314125387152</v>
       </c>
       <c r="AD4" t="n">
-        <v>65.57837715611821</v>
+        <v>47.53677886713324</v>
       </c>
       <c r="AE4" t="n">
-        <v>50.66853943546524</v>
+        <v>54.17894368786547</v>
       </c>
       <c r="AF4" t="n">
-        <v>75.95025596858044</v>
+        <v>48.79707357572345</v>
       </c>
       <c r="AG4" t="n">
-        <v>91.64803845978757</v>
+        <v>105.4880717318299</v>
       </c>
       <c r="AH4" t="n">
-        <v>34.19887357254991</v>
+        <v>26.34243287953415</v>
       </c>
       <c r="AI4" t="n">
-        <v>51.97288056101783</v>
+        <v>44.94728370033508</v>
       </c>
       <c r="AJ4" t="n">
-        <v>108.2969916016011</v>
+        <v>30.31681327605819</v>
       </c>
       <c r="AK4" t="n">
-        <v>41.70072783325514</v>
+        <v>16.81401869015809</v>
       </c>
       <c r="AL4" t="n">
-        <v>36.65582740766311</v>
+        <v>5.959322828998252</v>
       </c>
       <c r="AM4" t="n">
-        <v>31.57768020762567</v>
+        <v>43.33164203467163</v>
       </c>
       <c r="AN4" t="n">
-        <v>19.20239956358125</v>
+        <v>22.40882460786949</v>
       </c>
       <c r="AO4" t="n">
-        <v>15.28614987103412</v>
+        <v>22.87873865049212</v>
       </c>
       <c r="AP4" t="n">
-        <v>31.32308241287775</v>
+        <v>16.88192381422623</v>
       </c>
       <c r="AQ4" t="n">
-        <v>28.99041350047831</v>
+        <v>24.79349990055082</v>
       </c>
       <c r="AR4" t="n">
-        <v>9.275508070930327</v>
+        <v>23.03030472805489</v>
       </c>
       <c r="AS4" t="n">
-        <v>12.05245816821552</v>
+        <v>22.75167298425576</v>
       </c>
       <c r="AT4" t="n">
-        <v>8.873395242345616</v>
+        <v>14.50195839190035</v>
       </c>
       <c r="AU4" t="n">
-        <v>13.1786458956808</v>
+        <v>7.190223092006381</v>
       </c>
       <c r="AV4" t="n">
-        <v>10.29269524737259</v>
+        <v>16.71854696134879</v>
       </c>
       <c r="AW4" t="n">
-        <v>30.14638383462225</v>
+        <v>9.562604872573122</v>
       </c>
       <c r="AX4" t="n">
-        <v>19.01467018574089</v>
+        <v>9.241267561935771</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>13.9297348307241</v>
+        <v>11.46802666318031</v>
       </c>
       <c r="D5" t="n">
-        <v>20.18695644082396</v>
+        <v>9.747609002976999</v>
       </c>
       <c r="E5" t="n">
-        <v>25.50517309457621</v>
+        <v>8.204703495849678</v>
       </c>
       <c r="F5" t="n">
-        <v>62.50155420217972</v>
+        <v>9.877753817636099</v>
       </c>
       <c r="G5" t="n">
-        <v>7.288072429706419</v>
+        <v>7.631500210247411</v>
       </c>
       <c r="H5" t="n">
-        <v>5.856260640729696</v>
+        <v>12.67522635849396</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>110.3329784775845</v>
       </c>
       <c r="J5" t="n">
-        <v>22.90447036280384</v>
+        <v>20.26818274078008</v>
       </c>
       <c r="K5" t="n">
-        <v>9.925935982566665</v>
+        <v>8.366586651502216</v>
       </c>
       <c r="L5" t="n">
-        <v>19.60858632804672</v>
+        <v>27.04291600399018</v>
       </c>
       <c r="M5" t="n">
-        <v>13.47866890279074</v>
+        <v>16.0973563440674</v>
       </c>
       <c r="N5" t="n">
-        <v>46.24258779572712</v>
+        <v>21.65599345949459</v>
       </c>
       <c r="O5" t="n">
-        <v>40.70346582187867</v>
+        <v>39.8901156746383</v>
       </c>
       <c r="P5" t="n">
-        <v>37.18779620272034</v>
+        <v>160.0245538401343</v>
       </c>
       <c r="Q5" t="n">
-        <v>19.66956703549058</v>
+        <v>133.9159019287263</v>
       </c>
       <c r="R5" t="n">
-        <v>85.20089968095361</v>
+        <v>8.44353377825982</v>
       </c>
       <c r="S5" t="n">
-        <v>65.14845801366351</v>
+        <v>26.54170257850117</v>
       </c>
       <c r="T5" t="n">
-        <v>36.68356893681404</v>
+        <v>100.2072956596703</v>
       </c>
       <c r="U5" t="n">
-        <v>110.6086537735601</v>
+        <v>51.13178147458213</v>
       </c>
       <c r="V5" t="n">
-        <v>30.36621177465314</v>
+        <v>56.84109305899479</v>
       </c>
       <c r="W5" t="n">
-        <v>50.82387127407164</v>
+        <v>27.08372567713516</v>
       </c>
       <c r="X5" t="n">
-        <v>102.5328914544788</v>
+        <v>15.29638900146683</v>
       </c>
       <c r="Y5" t="n">
-        <v>24.15368192826104</v>
+        <v>35.23195847940799</v>
       </c>
       <c r="Z5" t="n">
-        <v>59.81047789662959</v>
+        <v>34.32454161092536</v>
       </c>
       <c r="AA5" t="n">
-        <v>23.10483971428569</v>
+        <v>95.37270803636224</v>
       </c>
       <c r="AB5" t="n">
-        <v>12.65093414414043</v>
+        <v>12.78206588035986</v>
       </c>
       <c r="AC5" t="n">
-        <v>42.48846823346293</v>
+        <v>22.3368667389085</v>
       </c>
       <c r="AD5" t="n">
-        <v>31.55831726427789</v>
+        <v>12.7598640024936</v>
       </c>
       <c r="AE5" t="n">
-        <v>22.54916197203418</v>
+        <v>15.06940945710402</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>76.73377699604792</v>
       </c>
       <c r="AG5" t="n">
-        <v>29.11270629514017</v>
+        <v>11.55279777586075</v>
       </c>
       <c r="AH5" t="n">
-        <v>28.2074879263478</v>
+        <v>21.99912941927525</v>
       </c>
       <c r="AI5" t="n">
-        <v>22.08593904350622</v>
+        <v>2.74151455107619</v>
       </c>
       <c r="AJ5" t="n">
-        <v>37.30211403056942</v>
+        <v>20.38895859170484</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.4268198008914617</v>
+        <v>29.78204250687643</v>
       </c>
       <c r="AL5" t="n">
-        <v>22.40310278309316</v>
+        <v>27.95270211382325</v>
       </c>
       <c r="AM5" t="n">
-        <v>23.99897616379987</v>
+        <v>1.961642651623698</v>
       </c>
       <c r="AN5" t="n">
-        <v>31.09731637980212</v>
+        <v>23.17276112066447</v>
       </c>
       <c r="AO5" t="n">
-        <v>33.46643802809323</v>
+        <v>19.42316046912122</v>
       </c>
       <c r="AP5" t="n">
-        <v>20.18952118206264</v>
+        <v>24.35791174847962</v>
       </c>
       <c r="AQ5" t="n">
-        <v>17.649277749962</v>
+        <v>8.507880706223</v>
       </c>
       <c r="AR5" t="n">
-        <v>29.53874908522069</v>
+        <v>17.54112435202544</v>
       </c>
       <c r="AS5" t="n">
-        <v>29.1983623731726</v>
+        <v>23.16374031988864</v>
       </c>
       <c r="AT5" t="n">
-        <v>29.56313704162145</v>
+        <v>21.52890139884156</v>
       </c>
       <c r="AU5" t="n">
-        <v>21.03506744208153</v>
+        <v>30.17932462661705</v>
       </c>
       <c r="AV5" t="n">
-        <v>20.9127106358658</v>
+        <v>80.90337077199187</v>
       </c>
       <c r="AW5" t="n">
-        <v>26.76880022403817</v>
+        <v>11.31193568146681</v>
       </c>
       <c r="AX5" t="n">
-        <v>22.43283314525872</v>
+        <v>9.451792214910437</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>4.228428854547253</v>
+        <v>2.070128693606777</v>
       </c>
       <c r="D6" t="n">
-        <v>1.185241012680291</v>
+        <v>7.473192023046536</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8668610885458983</v>
+        <v>14.25010132175613</v>
       </c>
       <c r="F6" t="n">
-        <v>4.743831437556786</v>
+        <v>2.371658950139845</v>
       </c>
       <c r="G6" t="n">
-        <v>3.404495145683027</v>
+        <v>2.175067204145357</v>
       </c>
       <c r="H6" t="n">
-        <v>10.01263146510971</v>
+        <v>4.868787519435404</v>
       </c>
       <c r="I6" t="n">
-        <v>3.35179900667423</v>
+        <v>4.597908231488065</v>
       </c>
       <c r="J6" t="n">
-        <v>3.664664072153749</v>
+        <v>16.85648230331092</v>
       </c>
       <c r="K6" t="n">
-        <v>1.544057323249529</v>
+        <v>37.29921741417276</v>
       </c>
       <c r="L6" t="n">
-        <v>81.78074565617494</v>
+        <v>18.90335621471576</v>
       </c>
       <c r="M6" t="n">
-        <v>37.09466312025686</v>
+        <v>34.27743022598528</v>
       </c>
       <c r="N6" t="n">
-        <v>20.31706255546118</v>
+        <v>39.13197828484387</v>
       </c>
       <c r="O6" t="n">
-        <v>78.52708665561889</v>
+        <v>31.06736725901942</v>
       </c>
       <c r="P6" t="n">
-        <v>23.90269580508305</v>
+        <v>6.31651327972248</v>
       </c>
       <c r="Q6" t="n">
-        <v>50.60249999999999</v>
+        <v>12.8332369912026</v>
       </c>
       <c r="R6" t="n">
-        <v>44.92910804523369</v>
+        <v>30.38337478892013</v>
       </c>
       <c r="S6" t="n">
-        <v>14.24013392332119</v>
+        <v>27.38108171204513</v>
       </c>
       <c r="T6" t="n">
-        <v>74.27600333904427</v>
+        <v>36.80850738919165</v>
       </c>
       <c r="U6" t="n">
-        <v>15.07488173156166</v>
+        <v>9.283674638097903</v>
       </c>
       <c r="V6" t="n">
-        <v>14.20910136623403</v>
+        <v>9.421998974242271</v>
       </c>
       <c r="W6" t="n">
-        <v>21.48874295778223</v>
+        <v>11.67116614957502</v>
       </c>
       <c r="X6" t="n">
-        <v>46.77990260770776</v>
+        <v>32.57497335914397</v>
       </c>
       <c r="Y6" t="n">
-        <v>30.31694231075816</v>
+        <v>17.7449073790192</v>
       </c>
       <c r="Z6" t="n">
-        <v>26.87437543763428</v>
+        <v>30.53663900211541</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.826995793387681</v>
+        <v>27.89731683965452</v>
       </c>
       <c r="AB6" t="n">
-        <v>12.89467939920969</v>
+        <v>18.41089300135764</v>
       </c>
       <c r="AC6" t="n">
-        <v>14.69464542835947</v>
+        <v>25.00429550688339</v>
       </c>
       <c r="AD6" t="n">
-        <v>13.10884667745242</v>
+        <v>22.19136542959067</v>
       </c>
       <c r="AE6" t="n">
-        <v>24.27336690466147</v>
+        <v>3.121235735411905</v>
       </c>
       <c r="AF6" t="n">
-        <v>16.50785716996587</v>
+        <v>8.23842843006749</v>
       </c>
       <c r="AG6" t="n">
-        <v>5.903678657356993</v>
+        <v>11.14740821117425</v>
       </c>
       <c r="AH6" t="n">
-        <v>11.35141072608382</v>
+        <v>17.9744194665795</v>
       </c>
       <c r="AI6" t="n">
-        <v>3.519315952369895</v>
+        <v>15.87528425153538</v>
       </c>
       <c r="AJ6" t="n">
-        <v>7.187427614145729</v>
+        <v>8.293499511081945</v>
       </c>
       <c r="AK6" t="n">
-        <v>6.4416648743849</v>
+        <v>13.11696092386635</v>
       </c>
       <c r="AL6" t="n">
-        <v>17.52875</v>
+        <v>12.79410793786067</v>
       </c>
       <c r="AM6" t="n">
-        <v>9.687901185439463</v>
+        <v>2.738920820519742</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.1419797</v>
+        <v>0.6888764962221852</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.488644734478833</v>
+        <v>3.935822455180871</v>
       </c>
       <c r="AP6" t="n">
-        <v>7.039388074886456</v>
+        <v>3.300889321718449</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.531428571428571</v>
+        <v>2.397657980190075</v>
       </c>
       <c r="AR6" t="n">
-        <v>3.431428571428571</v>
+        <v>2.411051243769621</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.12086075976727</v>
+        <v>6.376681809430148</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.792433655672197</v>
+        <v>3.778429929901296</v>
       </c>
       <c r="AU6" t="n">
-        <v>1.279537662540513</v>
+        <v>1.093871770156863</v>
       </c>
       <c r="AV6" t="n">
-        <v>2.579088035678029</v>
+        <v>8.508433153862832</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.8083466218028429</v>
+        <v>11.24034816890414</v>
       </c>
       <c r="AX6" t="n">
-        <v>2.809379846812713</v>
+        <v>4.269904456533645</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>11.35</v>
+        <v>57.99203169953702</v>
       </c>
       <c r="D7" t="n">
-        <v>7.87</v>
+        <v>3.766237171480917</v>
       </c>
       <c r="E7" t="n">
-        <v>27.42</v>
+        <v>16.45449152735328</v>
       </c>
       <c r="F7" t="n">
-        <v>4.230545000069125</v>
+        <v>2.588240503140062</v>
       </c>
       <c r="G7" t="n">
-        <v>13.73378283976608</v>
+        <v>17.89740489893393</v>
       </c>
       <c r="H7" t="n">
-        <v>26.35</v>
+        <v>7.446063167804198</v>
       </c>
       <c r="I7" t="n">
-        <v>6.282781396285666</v>
+        <v>12.15463061552994</v>
       </c>
       <c r="J7" t="n">
-        <v>3.84</v>
+        <v>5.248727387220218</v>
       </c>
       <c r="K7" t="n">
-        <v>50.3</v>
+        <v>41.80285702182159</v>
       </c>
       <c r="L7" t="n">
-        <v>2.2</v>
+        <v>72.58071908077808</v>
       </c>
       <c r="M7" t="n">
-        <v>30.63</v>
+        <v>39.15009817496465</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>10.17473618472796</v>
       </c>
       <c r="O7" t="n">
-        <v>55.58</v>
+        <v>26.76612181130599</v>
       </c>
       <c r="P7" t="n">
-        <v>22.01</v>
+        <v>18.72917672613217</v>
       </c>
       <c r="Q7" t="n">
-        <v>31.9</v>
+        <v>7.886857496216559</v>
       </c>
       <c r="R7" t="n">
-        <v>43.94</v>
+        <v>138.7328402595369</v>
       </c>
       <c r="S7" t="n">
-        <v>1.58</v>
+        <v>84.49077618615379</v>
       </c>
       <c r="T7" t="n">
-        <v>1.58</v>
+        <v>39.09126929204007</v>
       </c>
       <c r="U7" t="n">
-        <v>27.61</v>
+        <v>9.883586601453105</v>
       </c>
       <c r="V7" t="n">
-        <v>11.03854</v>
+        <v>3.952319093610023</v>
       </c>
       <c r="W7" t="n">
-        <v>12.67</v>
+        <v>23.55043866217278</v>
       </c>
       <c r="X7" t="n">
-        <v>38.96</v>
+        <v>12.24630647016508</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.4</v>
+        <v>3.522619716529827</v>
       </c>
       <c r="Z7" t="n">
-        <v>17.57</v>
+        <v>6.739128904718656</v>
       </c>
       <c r="AA7" t="n">
-        <v>72.67</v>
+        <v>7.708765258768524</v>
       </c>
       <c r="AB7" t="n">
-        <v>34.29</v>
+        <v>16.79157540071494</v>
       </c>
       <c r="AC7" t="n">
-        <v>14.77</v>
+        <v>4.5596987458864</v>
       </c>
       <c r="AD7" t="n">
-        <v>19.03</v>
+        <v>4.453903791222825</v>
       </c>
       <c r="AE7" t="n">
-        <v>6.7</v>
+        <v>7.90867702941578</v>
       </c>
       <c r="AF7" t="n">
-        <v>16.16</v>
+        <v>4.527970091100753</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.17</v>
+        <v>5.085297625489224</v>
       </c>
       <c r="AH7" t="n">
-        <v>10.23</v>
+        <v>1.351127678511229</v>
       </c>
       <c r="AI7" t="n">
-        <v>10.08</v>
+        <v>5.269631874792919</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15.68</v>
+        <v>11.6667264896952</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.2500343965146704</v>
+        <v>2.499493505974639</v>
       </c>
       <c r="AL7" t="n">
-        <v>38.05</v>
+        <v>11.68599108351335</v>
       </c>
       <c r="AM7" t="n">
-        <v>20.96</v>
+        <v>9.945519439300909</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.32</v>
+        <v>3.937157257783756</v>
       </c>
       <c r="AO7" t="n">
-        <v>19.66</v>
+        <v>23.67114266184548</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.249876390605686</v>
+        <v>23.44662430493053</v>
       </c>
       <c r="AQ7" t="n">
-        <v>7.11</v>
+        <v>4.913063774453005</v>
       </c>
       <c r="AR7" t="n">
-        <v>3.77</v>
+        <v>4.783987911468095</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.131927339901477</v>
+        <v>2.287923411853922</v>
       </c>
       <c r="AT7" t="n">
-        <v>7.71</v>
+        <v>4.928327851994438</v>
       </c>
       <c r="AU7" t="n">
-        <v>1.93</v>
+        <v>9.443561536758402</v>
       </c>
       <c r="AV7" t="n">
-        <v>1.93</v>
+        <v>6.380840929881318</v>
       </c>
       <c r="AW7" t="n">
-        <v>1.54</v>
+        <v>15.1183743361274</v>
       </c>
       <c r="AX7" t="n">
-        <v>1.93</v>
+        <v>24.71491447434961</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>20.4737841474999</v>
+        <v>11.72575812595607</v>
       </c>
       <c r="D8" t="n">
-        <v>18.28140376256809</v>
+        <v>12.68154725848136</v>
       </c>
       <c r="E8" t="n">
-        <v>17.24947501329079</v>
+        <v>12.31668186783548</v>
       </c>
       <c r="F8" t="n">
-        <v>18.97656772432044</v>
+        <v>34.74040252547601</v>
       </c>
       <c r="G8" t="n">
-        <v>15.01624472173113</v>
+        <v>28.66671414535433</v>
       </c>
       <c r="H8" t="n">
-        <v>23.80896896176482</v>
+        <v>41.47926044941563</v>
       </c>
       <c r="I8" t="n">
-        <v>13.80934003187372</v>
+        <v>168.8268524057911</v>
       </c>
       <c r="J8" t="n">
-        <v>21.17420026512602</v>
+        <v>74.88365767460367</v>
       </c>
       <c r="K8" t="n">
-        <v>92.49027871855192</v>
+        <v>34.26090637027765</v>
       </c>
       <c r="L8" t="n">
-        <v>25.92903048742279</v>
+        <v>81.12419876974172</v>
       </c>
       <c r="M8" t="n">
-        <v>71.01249108955894</v>
+        <v>30.73337347443675</v>
       </c>
       <c r="N8" t="n">
-        <v>126.5693724264645</v>
+        <v>31.00090583846081</v>
       </c>
       <c r="O8" t="n">
-        <v>78.53765331546087</v>
+        <v>97.75494352693121</v>
       </c>
       <c r="P8" t="n">
-        <v>43.25531350545457</v>
+        <v>29.35300284250149</v>
       </c>
       <c r="Q8" t="n">
-        <v>213.6282516021896</v>
+        <v>34.76966589408477</v>
       </c>
       <c r="R8" t="n">
-        <v>86.35630923615531</v>
+        <v>30.66577776535843</v>
       </c>
       <c r="S8" t="n">
-        <v>54.9921767727198</v>
+        <v>51.91026112827837</v>
       </c>
       <c r="T8" t="n">
-        <v>101.2686187328924</v>
+        <v>118.0111578942944</v>
       </c>
       <c r="U8" t="n">
-        <v>61.97508578701382</v>
+        <v>83.45237695869061</v>
       </c>
       <c r="V8" t="n">
-        <v>128.3756260450691</v>
+        <v>60.20081268087587</v>
       </c>
       <c r="W8" t="n">
-        <v>54.58195957645169</v>
+        <v>66.08447866361256</v>
       </c>
       <c r="X8" t="n">
-        <v>123.049569093454</v>
+        <v>36.23378487392731</v>
       </c>
       <c r="Y8" t="n">
-        <v>61.86192263654618</v>
+        <v>58.46026930040751</v>
       </c>
       <c r="Z8" t="n">
-        <v>65.2269250119905</v>
+        <v>79.03075363504284</v>
       </c>
       <c r="AA8" t="n">
-        <v>103.5980966393603</v>
+        <v>85.39936518102466</v>
       </c>
       <c r="AB8" t="n">
-        <v>117.4568662059627</v>
+        <v>150.2110033818508</v>
       </c>
       <c r="AC8" t="n">
-        <v>91.0724715863045</v>
+        <v>113.6159974189989</v>
       </c>
       <c r="AD8" t="n">
-        <v>129.8259350572564</v>
+        <v>155.7989419809774</v>
       </c>
       <c r="AE8" t="n">
-        <v>27.50152006834177</v>
+        <v>102.0836611787251</v>
       </c>
       <c r="AF8" t="n">
-        <v>106.1803044321981</v>
+        <v>80.49962255335596</v>
       </c>
       <c r="AG8" t="n">
-        <v>109.7290123344443</v>
+        <v>56.49324889261622</v>
       </c>
       <c r="AH8" t="n">
-        <v>114.70875</v>
+        <v>160.8600727757367</v>
       </c>
       <c r="AI8" t="n">
-        <v>115.473578337382</v>
+        <v>56.55131244651405</v>
       </c>
       <c r="AJ8" t="n">
-        <v>102.5401855835063</v>
+        <v>34.06178721045015</v>
       </c>
       <c r="AK8" t="n">
-        <v>67.13647941438322</v>
+        <v>97.48223645391813</v>
       </c>
       <c r="AL8" t="n">
-        <v>42.84087785421855</v>
+        <v>71.82335522759846</v>
       </c>
       <c r="AM8" t="n">
-        <v>26.92934961120212</v>
+        <v>62.23365157017379</v>
       </c>
       <c r="AN8" t="n">
-        <v>26.16508471573135</v>
+        <v>30.08817300712534</v>
       </c>
       <c r="AO8" t="n">
-        <v>24.21480533383664</v>
+        <v>26.87922904072293</v>
       </c>
       <c r="AP8" t="n">
-        <v>35.12193881028885</v>
+        <v>28.4232405550373</v>
       </c>
       <c r="AQ8" t="n">
-        <v>21.6843817618251</v>
+        <v>24.54816562605512</v>
       </c>
       <c r="AR8" t="n">
-        <v>23.96155714285714</v>
+        <v>22.89579966768944</v>
       </c>
       <c r="AS8" t="n">
-        <v>31.9198463534938</v>
+        <v>14.15173974504754</v>
       </c>
       <c r="AT8" t="n">
-        <v>24.61100104505323</v>
+        <v>9.04706567940519</v>
       </c>
       <c r="AU8" t="n">
-        <v>17.07073969393307</v>
+        <v>13.74988793043338</v>
       </c>
       <c r="AV8" t="n">
-        <v>15.36682396459591</v>
+        <v>20.75864486634185</v>
       </c>
       <c r="AW8" t="n">
-        <v>25.76723716791179</v>
+        <v>16.13260249802055</v>
       </c>
       <c r="AX8" t="n">
-        <v>35.59913276861855</v>
+        <v>28.11776221554826</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8234748301442433</v>
+        <v>4.353817005953446</v>
       </c>
       <c r="D9" t="n">
-        <v>1.600786006863722</v>
+        <v>2.485556109037461</v>
       </c>
       <c r="E9" t="n">
-        <v>2.387050991788599</v>
+        <v>1.090347199696101</v>
       </c>
       <c r="F9" t="n">
-        <v>2.910063356110427</v>
+        <v>0.7696130509585695</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8570659088587375</v>
+        <v>0.1320245845635014</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05501309635181562</v>
+        <v>6.6184991149119</v>
       </c>
       <c r="I9" t="n">
-        <v>2.726334943200301</v>
+        <v>0.3626566719249973</v>
       </c>
       <c r="J9" t="n">
-        <v>5.371002210434518</v>
+        <v>6.537480821210421</v>
       </c>
       <c r="K9" t="n">
-        <v>3.220144765752592</v>
+        <v>1.349716976776042</v>
       </c>
       <c r="L9" t="n">
-        <v>1.377140335392762</v>
+        <v>1.174796195659109</v>
       </c>
       <c r="M9" t="n">
-        <v>4.628926434499632</v>
+        <v>2.873463470151788</v>
       </c>
       <c r="N9" t="n">
-        <v>4.657914641854297</v>
+        <v>9.284019251731907</v>
       </c>
       <c r="O9" t="n">
-        <v>4.375383698405603</v>
+        <v>7.584420566748098</v>
       </c>
       <c r="P9" t="n">
-        <v>5.558205103998763</v>
+        <v>1.624734898406095</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.869722972159647</v>
+        <v>7.780813112032387</v>
       </c>
       <c r="R9" t="n">
-        <v>2.2568207531369</v>
+        <v>2.912952013452437</v>
       </c>
       <c r="S9" t="n">
-        <v>3.690202124738632</v>
+        <v>3.575811905086204</v>
       </c>
       <c r="T9" t="n">
-        <v>1.731520569651206</v>
+        <v>3.964855035205857</v>
       </c>
       <c r="U9" t="n">
-        <v>4.059377255709768</v>
+        <v>4.364428469931837</v>
       </c>
       <c r="V9" t="n">
-        <v>12.06848236147606</v>
+        <v>8.73036684953686</v>
       </c>
       <c r="W9" t="n">
-        <v>9.830274400000002</v>
+        <v>4.645180542661627</v>
       </c>
       <c r="X9" t="n">
-        <v>2.596395636914016</v>
+        <v>3.647416048659688</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.141531693661269</v>
+        <v>6.709835054106037</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.644595600000001</v>
+        <v>2.174411904980822</v>
       </c>
       <c r="AA9" t="n">
-        <v>4.045151455370433</v>
+        <v>3.096707804749506</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.853924638714255</v>
+        <v>6.193898398009844</v>
       </c>
       <c r="AC9" t="n">
-        <v>5.090475011128595</v>
+        <v>3.766974730913799</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.754518238010542</v>
+        <v>4.267739320767999</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.649144193594974</v>
+        <v>3.70312523796595</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.634370967658922</v>
+        <v>3.799924770789034</v>
       </c>
       <c r="AG9" t="n">
-        <v>2.765129775938104</v>
+        <v>5.397883740318977</v>
       </c>
       <c r="AH9" t="n">
-        <v>6.262521578623175</v>
+        <v>3.167530502305337</v>
       </c>
       <c r="AI9" t="n">
-        <v>5.189543853508227</v>
+        <v>4.536331654749651</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6.946084012367342</v>
+        <v>4.310034183507611</v>
       </c>
       <c r="AK9" t="n">
-        <v>5.087920249347619</v>
+        <v>4.497434908099291</v>
       </c>
       <c r="AL9" t="n">
-        <v>3.242205673779908</v>
+        <v>2.145997450733721</v>
       </c>
       <c r="AM9" t="n">
-        <v>5.856058529042379</v>
+        <v>9.609281137231106</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.994736424014893</v>
+        <v>3.123985187032865</v>
       </c>
       <c r="AO9" t="n">
-        <v>4.164020659113811</v>
+        <v>3.691692714497948</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.936845241440009</v>
+        <v>1.878192013365945</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.32772382484729</v>
+        <v>4.013226968305043</v>
       </c>
       <c r="AR9" t="n">
-        <v>5.248217486445384</v>
+        <v>2.323062373309308</v>
       </c>
       <c r="AS9" t="n">
-        <v>3.365187402811427</v>
+        <v>2.332021229344722</v>
       </c>
       <c r="AT9" t="n">
-        <v>6.331899874507347</v>
+        <v>6.060134843202791</v>
       </c>
       <c r="AU9" t="n">
-        <v>4.635324015247777</v>
+        <v>3.322515585182861</v>
       </c>
       <c r="AV9" t="n">
-        <v>3.565855755204018</v>
+        <v>3.721085676526533</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.339927033636692</v>
+        <v>0.4166546518981857</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.889727248014015</v>
+        <v>3.122754415129773</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>8.590806966804978</v>
+        <v>13.1032928185546</v>
       </c>
       <c r="D10" t="n">
-        <v>10.07462511342314</v>
+        <v>23.76565674851604</v>
       </c>
       <c r="E10" t="n">
-        <v>8.303526530930455</v>
+        <v>9.110643239342872</v>
       </c>
       <c r="F10" t="n">
-        <v>9.094691317643733</v>
+        <v>12.09976400049751</v>
       </c>
       <c r="G10" t="n">
-        <v>16.48929681007578</v>
+        <v>140.6690365024312</v>
       </c>
       <c r="H10" t="n">
-        <v>14.46779157316208</v>
+        <v>38.19226962185803</v>
       </c>
       <c r="I10" t="n">
-        <v>21.75345765736629</v>
+        <v>17.95540479028094</v>
       </c>
       <c r="J10" t="n">
-        <v>17.30334398814436</v>
+        <v>66.16880913369403</v>
       </c>
       <c r="K10" t="n">
-        <v>127.1453405033034</v>
+        <v>22.3049481065668</v>
       </c>
       <c r="L10" t="n">
-        <v>313.0045456286141</v>
+        <v>74.3444605544143</v>
       </c>
       <c r="M10" t="n">
-        <v>101.8643723348289</v>
+        <v>143.8450875387978</v>
       </c>
       <c r="N10" t="n">
-        <v>60.30807091255976</v>
+        <v>86.920805994313</v>
       </c>
       <c r="O10" t="n">
-        <v>84.42500694227643</v>
+        <v>81.96130540568788</v>
       </c>
       <c r="P10" t="n">
-        <v>15.88305296407845</v>
+        <v>131.7003115168432</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.1369052516981</v>
+        <v>63.60852713957499</v>
       </c>
       <c r="R10" t="n">
-        <v>35.74589921717254</v>
+        <v>36.18665339293594</v>
       </c>
       <c r="S10" t="n">
-        <v>63.71048150082233</v>
+        <v>39.65375950019344</v>
       </c>
       <c r="T10" t="n">
-        <v>34.64999029407687</v>
+        <v>160.4098785644632</v>
       </c>
       <c r="U10" t="n">
-        <v>32.81244665634863</v>
+        <v>64.36010255686715</v>
       </c>
       <c r="V10" t="n">
-        <v>38.07333644259009</v>
+        <v>142.9368414233685</v>
       </c>
       <c r="W10" t="n">
-        <v>41.5288001715433</v>
+        <v>68.02102302193786</v>
       </c>
       <c r="X10" t="n">
-        <v>125.5918746354126</v>
+        <v>90.17473909699473</v>
       </c>
       <c r="Y10" t="n">
-        <v>32.61492077359915</v>
+        <v>60.10966350009575</v>
       </c>
       <c r="Z10" t="n">
-        <v>25.06538466912486</v>
+        <v>100.7154614349588</v>
       </c>
       <c r="AA10" t="n">
-        <v>45.29423819330844</v>
+        <v>63.81859812476686</v>
       </c>
       <c r="AB10" t="n">
-        <v>42.32799019602248</v>
+        <v>34.94103060484598</v>
       </c>
       <c r="AC10" t="n">
-        <v>81.24976866699515</v>
+        <v>99.13142295770426</v>
       </c>
       <c r="AD10" t="n">
-        <v>121.0658803318999</v>
+        <v>140.8262894471896</v>
       </c>
       <c r="AE10" t="n">
-        <v>128.6900524273167</v>
+        <v>88.64418000013103</v>
       </c>
       <c r="AF10" t="n">
-        <v>62.50337298755293</v>
+        <v>66.05460781003954</v>
       </c>
       <c r="AG10" t="n">
-        <v>73.94041130245779</v>
+        <v>160.9869672771565</v>
       </c>
       <c r="AH10" t="n">
-        <v>121.0533867967359</v>
+        <v>57.88992287864288</v>
       </c>
       <c r="AI10" t="n">
-        <v>23.93021961396864</v>
+        <v>18.12245548700855</v>
       </c>
       <c r="AJ10" t="n">
-        <v>48.01449552845146</v>
+        <v>35.28735238416716</v>
       </c>
       <c r="AK10" t="n">
-        <v>41.75553421116972</v>
+        <v>44.75442826089397</v>
       </c>
       <c r="AL10" t="n">
-        <v>26.62264783748053</v>
+        <v>73.78442528248105</v>
       </c>
       <c r="AM10" t="n">
-        <v>22.74720229125172</v>
+        <v>29.28765398359038</v>
       </c>
       <c r="AN10" t="n">
-        <v>14.99034758352275</v>
+        <v>21.31100099189255</v>
       </c>
       <c r="AO10" t="n">
-        <v>17.15465139116203</v>
+        <v>31.92650328126472</v>
       </c>
       <c r="AP10" t="n">
-        <v>19.24678276383663</v>
+        <v>15.91060751886011</v>
       </c>
       <c r="AQ10" t="n">
-        <v>23.08542349759997</v>
+        <v>20.04634240134946</v>
       </c>
       <c r="AR10" t="n">
-        <v>15.53701625949774</v>
+        <v>4.326889420891093</v>
       </c>
       <c r="AS10" t="n">
-        <v>15.01676151669496</v>
+        <v>25.94728153814055</v>
       </c>
       <c r="AT10" t="n">
-        <v>14.81265830983143</v>
+        <v>6.919465398316563</v>
       </c>
       <c r="AU10" t="n">
-        <v>10.47225859824312</v>
+        <v>6.12543487101288</v>
       </c>
       <c r="AV10" t="n">
-        <v>11.38791102646079</v>
+        <v>17.66337341432293</v>
       </c>
       <c r="AW10" t="n">
-        <v>11.3743656113574</v>
+        <v>8.607747929607832</v>
       </c>
       <c r="AX10" t="n">
-        <v>4.3972920844669</v>
+        <v>4.998849945398029</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>7.153296029665448</v>
+        <v>23.84500190705711</v>
       </c>
       <c r="D11" t="n">
-        <v>21.4355673311774</v>
+        <v>10.44895523281459</v>
       </c>
       <c r="E11" t="n">
-        <v>25.57756136467584</v>
+        <v>20.24613920828093</v>
       </c>
       <c r="F11" t="n">
-        <v>20.38382260999553</v>
+        <v>18.16592545764325</v>
       </c>
       <c r="G11" t="n">
-        <v>11.28004804672172</v>
+        <v>17.3496899962233</v>
       </c>
       <c r="H11" t="n">
-        <v>14.31786684572485</v>
+        <v>11.49812526455212</v>
       </c>
       <c r="I11" t="n">
-        <v>5.749774098786691</v>
+        <v>30.38468288050893</v>
       </c>
       <c r="J11" t="n">
-        <v>362.1035599240331</v>
+        <v>11.45575931558758</v>
       </c>
       <c r="K11" t="n">
-        <v>17.30082642689594</v>
+        <v>9.804132306270063</v>
       </c>
       <c r="L11" t="n">
-        <v>33.30530644832229</v>
+        <v>137.6625983975812</v>
       </c>
       <c r="M11" t="n">
-        <v>202.0754265614383</v>
+        <v>77.87035367493932</v>
       </c>
       <c r="N11" t="n">
-        <v>84.94054023915092</v>
+        <v>60.55363217542013</v>
       </c>
       <c r="O11" t="n">
-        <v>33.24608227138971</v>
+        <v>14.87963685934554</v>
       </c>
       <c r="P11" t="n">
-        <v>40.83306614513021</v>
+        <v>50.86492778996762</v>
       </c>
       <c r="Q11" t="n">
-        <v>7.350128985354333</v>
+        <v>59.99387628420776</v>
       </c>
       <c r="R11" t="n">
-        <v>198.2431116109733</v>
+        <v>87.0675096161212</v>
       </c>
       <c r="S11" t="n">
-        <v>42.58231748952456</v>
+        <v>28.9178767440777</v>
       </c>
       <c r="T11" t="n">
-        <v>36.2804493052009</v>
+        <v>22.56089451644434</v>
       </c>
       <c r="U11" t="n">
-        <v>35.44733049723758</v>
+        <v>63.94937947685725</v>
       </c>
       <c r="V11" t="n">
-        <v>66.01382678106634</v>
+        <v>16.27366582815228</v>
       </c>
       <c r="W11" t="n">
-        <v>21.00064084414281</v>
+        <v>33.42511733808769</v>
       </c>
       <c r="X11" t="n">
-        <v>35.79079922375088</v>
+        <v>26.46396223214731</v>
       </c>
       <c r="Y11" t="n">
-        <v>76.22661933545341</v>
+        <v>48.58816827746008</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.71905323547402</v>
+        <v>33.88881579713644</v>
       </c>
       <c r="AA11" t="n">
-        <v>30.40740060211194</v>
+        <v>14.53907719381164</v>
       </c>
       <c r="AB11" t="n">
-        <v>51.23017990383966</v>
+        <v>16.52107152150316</v>
       </c>
       <c r="AC11" t="n">
-        <v>141.6370755611823</v>
+        <v>120.4280967562775</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.340576829760673</v>
+        <v>54.49794092250746</v>
       </c>
       <c r="AE11" t="n">
-        <v>21.48626709882363</v>
+        <v>15.81560030386401</v>
       </c>
       <c r="AF11" t="n">
-        <v>22.61389974022422</v>
+        <v>14.25949293732844</v>
       </c>
       <c r="AG11" t="n">
-        <v>27.22905025304686</v>
+        <v>68.82310127744617</v>
       </c>
       <c r="AH11" t="n">
-        <v>17.16492482972839</v>
+        <v>4.543977364906253</v>
       </c>
       <c r="AI11" t="n">
-        <v>23.35848144809343</v>
+        <v>9.826202706301846</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15.76398803848386</v>
+        <v>40.8939563681735</v>
       </c>
       <c r="AK11" t="n">
-        <v>18.78419925975525</v>
+        <v>18.28674641563519</v>
       </c>
       <c r="AL11" t="n">
-        <v>6.529557015816024</v>
+        <v>41.56427731211841</v>
       </c>
       <c r="AM11" t="n">
-        <v>32.59352319863803</v>
+        <v>23.78707700270096</v>
       </c>
       <c r="AN11" t="n">
-        <v>32.92662007258578</v>
+        <v>68.41216481817322</v>
       </c>
       <c r="AO11" t="n">
-        <v>9.54190787251304</v>
+        <v>32.2203110081181</v>
       </c>
       <c r="AP11" t="n">
-        <v>30.51332841169548</v>
+        <v>25.53363440819929</v>
       </c>
       <c r="AQ11" t="n">
-        <v>13.03625188817959</v>
+        <v>27.66163235340746</v>
       </c>
       <c r="AR11" t="n">
-        <v>46.20937239602796</v>
+        <v>14.55881644915959</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.6448081341783389</v>
+        <v>18.22195883782602</v>
       </c>
       <c r="AT11" t="n">
-        <v>16.0956448740639</v>
+        <v>17.83384781109162</v>
       </c>
       <c r="AU11" t="n">
-        <v>23.77016097502075</v>
+        <v>5.761611230510887</v>
       </c>
       <c r="AV11" t="n">
-        <v>20.05107681968755</v>
+        <v>22.2901446626601</v>
       </c>
       <c r="AW11" t="n">
-        <v>29.20925759247076</v>
+        <v>29.60272066331414</v>
       </c>
       <c r="AX11" t="n">
-        <v>35.6687444436244</v>
+        <v>17.29165899715129</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>5.153062407668843</v>
+        <v>1.343815257106464</v>
       </c>
       <c r="D12" t="n">
-        <v>21.42937980192541</v>
+        <v>12.33910886378622</v>
       </c>
       <c r="E12" t="n">
-        <v>2.153293421160365</v>
+        <v>0.9763026293822537</v>
       </c>
       <c r="F12" t="n">
-        <v>2.689291003684641</v>
+        <v>2.170745184696048</v>
       </c>
       <c r="G12" t="n">
-        <v>3.371558990901773</v>
+        <v>3.482109909777801</v>
       </c>
       <c r="H12" t="n">
-        <v>2.774703198556439</v>
+        <v>5.012780707311864</v>
       </c>
       <c r="I12" t="n">
-        <v>13.85126474566167</v>
+        <v>1.696620463411877</v>
       </c>
       <c r="J12" t="n">
-        <v>19.5199789828312</v>
+        <v>6.950629579048388</v>
       </c>
       <c r="K12" t="n">
-        <v>25.25489391858185</v>
+        <v>82.85292299003312</v>
       </c>
       <c r="L12" t="n">
-        <v>11.53240542814729</v>
+        <v>23.22488466442532</v>
       </c>
       <c r="M12" t="n">
-        <v>27.07434061155622</v>
+        <v>29.85073481653546</v>
       </c>
       <c r="N12" t="n">
-        <v>27.07972988853822</v>
+        <v>8.938137333959064</v>
       </c>
       <c r="O12" t="n">
-        <v>16.74646447791347</v>
+        <v>11.73691247392409</v>
       </c>
       <c r="P12" t="n">
-        <v>9.978475012844894</v>
+        <v>32.99022604031387</v>
       </c>
       <c r="Q12" t="n">
-        <v>15.55119982946914</v>
+        <v>44.60720497782208</v>
       </c>
       <c r="R12" t="n">
-        <v>61.79255837882785</v>
+        <v>29.47300038945216</v>
       </c>
       <c r="S12" t="n">
-        <v>33.36402792150217</v>
+        <v>22.03183470527991</v>
       </c>
       <c r="T12" t="n">
-        <v>14.73727758108682</v>
+        <v>10.66282130429867</v>
       </c>
       <c r="U12" t="n">
-        <v>19.95470033246469</v>
+        <v>25.35122256616925</v>
       </c>
       <c r="V12" t="n">
-        <v>19.4325687352389</v>
+        <v>11.97054578972685</v>
       </c>
       <c r="W12" t="n">
-        <v>26.72356748284912</v>
+        <v>40.0359238914272</v>
       </c>
       <c r="X12" t="n">
-        <v>8.844905018869254</v>
+        <v>13.8194316576361</v>
       </c>
       <c r="Y12" t="n">
-        <v>26.45572643301345</v>
+        <v>15.12537803961689</v>
       </c>
       <c r="Z12" t="n">
-        <v>11.1954425587592</v>
+        <v>14.99290104510406</v>
       </c>
       <c r="AA12" t="n">
-        <v>32.9747994257744</v>
+        <v>11.16599541533434</v>
       </c>
       <c r="AB12" t="n">
-        <v>17.22958708562419</v>
+        <v>9.813265845650061</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.647899899280497</v>
+        <v>19.74720306117469</v>
       </c>
       <c r="AD12" t="n">
-        <v>18.24783261334214</v>
+        <v>19.65597191461748</v>
       </c>
       <c r="AE12" t="n">
-        <v>21.9554242056898</v>
+        <v>12.27996452955158</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.880549223256384</v>
+        <v>21.53797115947268</v>
       </c>
       <c r="AG12" t="n">
-        <v>15.21293507155161</v>
+        <v>10.44422154247581</v>
       </c>
       <c r="AH12" t="n">
-        <v>10.0974560176096</v>
+        <v>3.52982560605516</v>
       </c>
       <c r="AI12" t="n">
-        <v>14.11898747762899</v>
+        <v>4.350998104689379</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10.36766403181264</v>
+        <v>11.25497813383555</v>
       </c>
       <c r="AK12" t="n">
-        <v>7.7496817728728</v>
+        <v>6.642362937779136</v>
       </c>
       <c r="AL12" t="n">
-        <v>3.649636897132955</v>
+        <v>12.73162430476076</v>
       </c>
       <c r="AM12" t="n">
-        <v>8.887958368782325</v>
+        <v>3.966285258238841</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.6218315794725635</v>
+        <v>20.88059658705323</v>
       </c>
       <c r="AO12" t="n">
-        <v>4.439884186562151</v>
+        <v>2.280124000153053</v>
       </c>
       <c r="AP12" t="n">
-        <v>3.665604455269175</v>
+        <v>1.414789225640701</v>
       </c>
       <c r="AQ12" t="n">
-        <v>4.859520302983938</v>
+        <v>6.183722278455823</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.558380058733309</v>
+        <v>3.035116161553014</v>
       </c>
       <c r="AS12" t="n">
-        <v>3.130118708464936</v>
+        <v>2.143687836981065</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.974523723740626</v>
+        <v>0.270547323564729</v>
       </c>
       <c r="AU12" t="n">
-        <v>4.150855626139633</v>
+        <v>1.071458163621176</v>
       </c>
       <c r="AV12" t="n">
-        <v>2.830415764588147</v>
+        <v>2.482419257208848</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.356577654098682</v>
+        <v>1.29738293911544</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.930539094111506</v>
+        <v>10.35680331300719</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.15</v>
+        <v>5.820182242447697</v>
       </c>
       <c r="D13" t="n">
-        <v>21.38</v>
+        <v>4.618203186188628</v>
       </c>
       <c r="E13" t="n">
-        <v>2.01</v>
+        <v>19.71215194797033</v>
       </c>
       <c r="F13" t="n">
-        <v>11.35</v>
+        <v>3.891593066194975</v>
       </c>
       <c r="G13" t="n">
-        <v>29.95</v>
+        <v>14.4928568703914</v>
       </c>
       <c r="H13" t="n">
-        <v>14.18</v>
+        <v>10.4992869921987</v>
       </c>
       <c r="I13" t="n">
-        <v>65.59</v>
+        <v>4.124509772375657</v>
       </c>
       <c r="J13" t="n">
-        <v>2.622417607482078</v>
+        <v>40.19481262430337</v>
       </c>
       <c r="K13" t="n">
-        <v>28.23</v>
+        <v>57.68042640360747</v>
       </c>
       <c r="L13" t="n">
-        <v>57.03</v>
+        <v>32.46232762616042</v>
       </c>
       <c r="M13" t="n">
-        <v>2.2</v>
+        <v>38.86977934513101</v>
       </c>
       <c r="N13" t="n">
-        <v>24.82</v>
+        <v>36.57689195750261</v>
       </c>
       <c r="O13" t="n">
-        <v>10.61</v>
+        <v>16.52347561454236</v>
       </c>
       <c r="P13" t="n">
-        <v>77.84</v>
+        <v>22.60217858800283</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.42</v>
+        <v>52.32824247824995</v>
       </c>
       <c r="R13" t="n">
-        <v>9.220393416407763</v>
+        <v>30.6992515014373</v>
       </c>
       <c r="S13" t="n">
-        <v>43.74</v>
+        <v>10.55540944937046</v>
       </c>
       <c r="T13" t="n">
-        <v>21.9</v>
+        <v>13.03358339191567</v>
       </c>
       <c r="U13" t="n">
-        <v>17.71</v>
+        <v>3.537298620650605</v>
       </c>
       <c r="V13" t="n">
-        <v>12.19</v>
+        <v>20.88510058036186</v>
       </c>
       <c r="W13" t="n">
-        <v>2.42</v>
+        <v>14.03328905588346</v>
       </c>
       <c r="X13" t="n">
-        <v>17.57</v>
+        <v>34.47478263363806</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.97</v>
+        <v>21.92082549410474</v>
       </c>
       <c r="Z13" t="n">
-        <v>3.689898882579574</v>
+        <v>15.66706427598428</v>
       </c>
       <c r="AA13" t="n">
-        <v>5.05</v>
+        <v>4.275421323511453</v>
       </c>
       <c r="AB13" t="n">
-        <v>2.74</v>
+        <v>4.143450186779733</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.717655400000001</v>
+        <v>1.07074975682806</v>
       </c>
       <c r="AD13" t="n">
-        <v>4.03</v>
+        <v>8.513972478091892</v>
       </c>
       <c r="AE13" t="n">
-        <v>7.86</v>
+        <v>12.04328789052093</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.87</v>
+        <v>0.23909342181468</v>
       </c>
       <c r="AG13" t="n">
-        <v>4.320048457142858</v>
+        <v>9.46079067279584</v>
       </c>
       <c r="AH13" t="n">
-        <v>3.03</v>
+        <v>4.777905838735677</v>
       </c>
       <c r="AI13" t="n">
-        <v>8.91</v>
+        <v>2.188609932136374</v>
       </c>
       <c r="AJ13" t="n">
-        <v>2.47</v>
+        <v>3.292908008213489</v>
       </c>
       <c r="AK13" t="n">
-        <v>3.776886813</v>
+        <v>1.749130009110337</v>
       </c>
       <c r="AL13" t="n">
-        <v>16.81</v>
+        <v>64.25741627112609</v>
       </c>
       <c r="AM13" t="n">
-        <v>1.04</v>
+        <v>8.21885952871555</v>
       </c>
       <c r="AN13" t="n">
-        <v>7.77</v>
+        <v>3.115736420508439</v>
       </c>
       <c r="AO13" t="n">
-        <v>8.07</v>
+        <v>3.943391394675129</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.04</v>
+        <v>17.70925285653265</v>
       </c>
       <c r="AQ13" t="n">
-        <v>26.31</v>
+        <v>6.872864542136133</v>
       </c>
       <c r="AR13" t="n">
-        <v>1.86</v>
+        <v>0.4270183470780656</v>
       </c>
       <c r="AS13" t="n">
-        <v>1</v>
+        <v>6.05276343486901</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.79640862857143</v>
+        <v>3.282009981941663</v>
       </c>
       <c r="AU13" t="n">
-        <v>11.97</v>
+        <v>8.271631399000546</v>
       </c>
       <c r="AV13" t="n">
-        <v>1.84</v>
+        <v>16.33077345147379</v>
       </c>
       <c r="AW13" t="n">
-        <v>5.62</v>
+        <v>6.209738061873926</v>
       </c>
       <c r="AX13" t="n">
-        <v>7.53</v>
+        <v>4.362866957533219</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>13.01506321636317</v>
+        <v>20.42832881433516</v>
       </c>
       <c r="D14" t="n">
-        <v>23.25630028272621</v>
+        <v>10.38554585252372</v>
       </c>
       <c r="E14" t="n">
-        <v>14.34907811748986</v>
+        <v>6.190340963425872</v>
       </c>
       <c r="F14" t="n">
-        <v>16.41272202174829</v>
+        <v>27.92986215081007</v>
       </c>
       <c r="G14" t="n">
-        <v>170.9898933907666</v>
+        <v>6.847416479943653</v>
       </c>
       <c r="H14" t="n">
-        <v>195.083403287358</v>
+        <v>25.58635020033202</v>
       </c>
       <c r="I14" t="n">
-        <v>14.81806583772175</v>
+        <v>22.80030586892028</v>
       </c>
       <c r="J14" t="n">
-        <v>143.4835078547592</v>
+        <v>74.12421079366763</v>
       </c>
       <c r="K14" t="n">
-        <v>54.82041336755806</v>
+        <v>88.83733393929627</v>
       </c>
       <c r="L14" t="n">
-        <v>53.08466127607078</v>
+        <v>7.867691925306813</v>
       </c>
       <c r="M14" t="n">
-        <v>45.82837864415423</v>
+        <v>34.93387544325468</v>
       </c>
       <c r="N14" t="n">
-        <v>53.58273729361937</v>
+        <v>20.40119517373464</v>
       </c>
       <c r="O14" t="n">
-        <v>63.45292951918622</v>
+        <v>42.79674935550059</v>
       </c>
       <c r="P14" t="n">
-        <v>65.81520061314745</v>
+        <v>53.15772230371133</v>
       </c>
       <c r="Q14" t="n">
-        <v>41.45051952088167</v>
+        <v>44.34225996579161</v>
       </c>
       <c r="R14" t="n">
-        <v>38.64921067717739</v>
+        <v>40.24039690115028</v>
       </c>
       <c r="S14" t="n">
-        <v>52.23045142104618</v>
+        <v>65.7469936931885</v>
       </c>
       <c r="T14" t="n">
-        <v>65.62037579156211</v>
+        <v>59.23379350263108</v>
       </c>
       <c r="U14" t="n">
-        <v>23.65565491650858</v>
+        <v>74.47359100713224</v>
       </c>
       <c r="V14" t="n">
-        <v>22.81111248057486</v>
+        <v>85.58871404522492</v>
       </c>
       <c r="W14" t="n">
-        <v>45.94026920748572</v>
+        <v>82.54676685746469</v>
       </c>
       <c r="X14" t="n">
-        <v>70.49997005060035</v>
+        <v>39.38048030912067</v>
       </c>
       <c r="Y14" t="n">
-        <v>110.6220322767441</v>
+        <v>100.0115575942433</v>
       </c>
       <c r="Z14" t="n">
-        <v>127.1174460600862</v>
+        <v>100.7483609535426</v>
       </c>
       <c r="AA14" t="n">
-        <v>81.72251988780374</v>
+        <v>92.28149647508546</v>
       </c>
       <c r="AB14" t="n">
-        <v>96.31627586264402</v>
+        <v>56.82785498010752</v>
       </c>
       <c r="AC14" t="n">
-        <v>76.66367398268758</v>
+        <v>122.9586969678801</v>
       </c>
       <c r="AD14" t="n">
-        <v>138.1087162678799</v>
+        <v>38.37469020850066</v>
       </c>
       <c r="AE14" t="n">
-        <v>147.9453264557133</v>
+        <v>49.27532697675988</v>
       </c>
       <c r="AF14" t="n">
-        <v>53.70920712830244</v>
+        <v>109.6350258967198</v>
       </c>
       <c r="AG14" t="n">
-        <v>84.74143576446197</v>
+        <v>65.26083280982377</v>
       </c>
       <c r="AH14" t="n">
-        <v>88.51251327576027</v>
+        <v>82.21202475799043</v>
       </c>
       <c r="AI14" t="n">
-        <v>88.2408484410068</v>
+        <v>61.46773361561448</v>
       </c>
       <c r="AJ14" t="n">
-        <v>60.33228061535979</v>
+        <v>97.47832010110437</v>
       </c>
       <c r="AK14" t="n">
-        <v>70.59891811840288</v>
+        <v>75.89793349725825</v>
       </c>
       <c r="AL14" t="n">
-        <v>58.1131875</v>
+        <v>44.76204540971331</v>
       </c>
       <c r="AM14" t="n">
-        <v>29.51359459408945</v>
+        <v>54.30924549847101</v>
       </c>
       <c r="AN14" t="n">
-        <v>24.84897437782082</v>
+        <v>34.12710119792327</v>
       </c>
       <c r="AO14" t="n">
-        <v>41.64362702605731</v>
+        <v>65.70298149495638</v>
       </c>
       <c r="AP14" t="n">
-        <v>34.08867459420183</v>
+        <v>31.1862015048969</v>
       </c>
       <c r="AQ14" t="n">
-        <v>14.83574516312382</v>
+        <v>36.27591022154669</v>
       </c>
       <c r="AR14" t="n">
-        <v>30.06740732273178</v>
+        <v>23.77689599170778</v>
       </c>
       <c r="AS14" t="n">
-        <v>31.9198463534938</v>
+        <v>16.65391794378677</v>
       </c>
       <c r="AT14" t="n">
-        <v>25.55415544587865</v>
+        <v>37.89399527718301</v>
       </c>
       <c r="AU14" t="n">
-        <v>11.63264825820904</v>
+        <v>44.10381557236316</v>
       </c>
       <c r="AV14" t="n">
-        <v>21.15886179954817</v>
+        <v>23.47507400585636</v>
       </c>
       <c r="AW14" t="n">
-        <v>19.97451571264985</v>
+        <v>15.87749691325466</v>
       </c>
       <c r="AX14" t="n">
-        <v>24.13027902077614</v>
+        <v>11.13218695627342</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>7.069677645695534</v>
+        <v>7.782769953882945</v>
       </c>
       <c r="D15" t="n">
-        <v>2.519176832359004</v>
+        <v>4.035364527267068</v>
       </c>
       <c r="E15" t="n">
-        <v>3.239163999246846</v>
+        <v>27.79937286534027</v>
       </c>
       <c r="F15" t="n">
-        <v>2.931002188764344</v>
+        <v>20.27476875228573</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8570659088587375</v>
+        <v>0.7450142258476502</v>
       </c>
       <c r="H15" t="n">
-        <v>3.380530077723531</v>
+        <v>12.98410364731421</v>
       </c>
       <c r="I15" t="n">
-        <v>3.267416165751807</v>
+        <v>2.232827544349958</v>
       </c>
       <c r="J15" t="n">
-        <v>2.884345889277523</v>
+        <v>0.1905201963857768</v>
       </c>
       <c r="K15" t="n">
-        <v>2.764925510878328</v>
+        <v>3.67105833796883</v>
       </c>
       <c r="L15" t="n">
-        <v>1.136027714824545</v>
+        <v>5.386540701682478</v>
       </c>
       <c r="M15" t="n">
-        <v>2.429688215649398</v>
+        <v>4.728531491459159</v>
       </c>
       <c r="N15" t="n">
-        <v>5.241254225324779</v>
+        <v>7.998888544590237</v>
       </c>
       <c r="O15" t="n">
-        <v>6.152882076266724</v>
+        <v>2.034892332237154</v>
       </c>
       <c r="P15" t="n">
-        <v>8.124848465475475</v>
+        <v>2.816860010595834</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.416807463454052</v>
+        <v>7.21765960546503</v>
       </c>
       <c r="R15" t="n">
-        <v>5.743082690360107</v>
+        <v>8.910473868885553</v>
       </c>
       <c r="S15" t="n">
-        <v>9.032356003712326</v>
+        <v>7.913778103932095</v>
       </c>
       <c r="T15" t="n">
-        <v>4.215997496512923</v>
+        <v>2.335733871898857</v>
       </c>
       <c r="U15" t="n">
-        <v>4.794212144630613</v>
+        <v>2.152416998286429</v>
       </c>
       <c r="V15" t="n">
-        <v>2.586338145983162</v>
+        <v>4.595068660846847</v>
       </c>
       <c r="W15" t="n">
-        <v>2.188748960094371</v>
+        <v>3.658980943688202</v>
       </c>
       <c r="X15" t="n">
-        <v>2.577791800449138</v>
+        <v>2.740197129419914</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.1467147837288</v>
+        <v>4.659689381310433</v>
       </c>
       <c r="Z15" t="n">
-        <v>5.014059175802936</v>
+        <v>3.670811921332959</v>
       </c>
       <c r="AA15" t="n">
-        <v>4.365739251335063</v>
+        <v>3.844520357404762</v>
       </c>
       <c r="AB15" t="n">
-        <v>5.699461617673461</v>
+        <v>2.841469235805795</v>
       </c>
       <c r="AC15" t="n">
-        <v>6.174543200000001</v>
+        <v>6.739109273447125</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.230394684703684</v>
+        <v>15.58699357062185</v>
       </c>
       <c r="AE15" t="n">
-        <v>7.790442969440977</v>
+        <v>4.173593402850616</v>
       </c>
       <c r="AF15" t="n">
-        <v>10.71331126862612</v>
+        <v>8.372835667586882</v>
       </c>
       <c r="AG15" t="n">
-        <v>3.361897450689657</v>
+        <v>4.228061137210538</v>
       </c>
       <c r="AH15" t="n">
-        <v>3.739525642050451</v>
+        <v>8.372721826347409</v>
       </c>
       <c r="AI15" t="n">
-        <v>7.148309104958573</v>
+        <v>2.62413264302615</v>
       </c>
       <c r="AJ15" t="n">
-        <v>5.81027021285395</v>
+        <v>7.918016940090511</v>
       </c>
       <c r="AK15" t="n">
-        <v>3.410824209139877</v>
+        <v>2.669300224062288</v>
       </c>
       <c r="AL15" t="n">
-        <v>5.675158159384069</v>
+        <v>4.327211206309966</v>
       </c>
       <c r="AM15" t="n">
-        <v>4.830954646368538</v>
+        <v>6.934956325541357</v>
       </c>
       <c r="AN15" t="n">
-        <v>1.269465624934841</v>
+        <v>1.292072167772054</v>
       </c>
       <c r="AO15" t="n">
-        <v>3.149878383074012</v>
+        <v>3.504228829468054</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.542604532643527</v>
+        <v>6.590639827518672</v>
       </c>
       <c r="AQ15" t="n">
-        <v>3.866389964017418</v>
+        <v>0.8927985112436371</v>
       </c>
       <c r="AR15" t="n">
-        <v>4.782307614023453</v>
+        <v>1.778118518209968</v>
       </c>
       <c r="AS15" t="n">
-        <v>3.330137097525998</v>
+        <v>2.463178171926528</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.711815561959654</v>
+        <v>1.397429448164062</v>
       </c>
       <c r="AU15" t="n">
-        <v>2.438158474905978</v>
+        <v>2.960774326534566</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.02765927105001475</v>
+        <v>6.46779984493349</v>
       </c>
       <c r="AW15" t="n">
-        <v>2.451734211225928</v>
+        <v>0.4794618970024507</v>
       </c>
       <c r="AX15" t="n">
-        <v>1.889727248014015</v>
+        <v>1.838078133439051</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>6.963211135010821</v>
+        <v>10.53425542976243</v>
       </c>
       <c r="D16" t="n">
-        <v>12.52644161303034</v>
+        <v>16.71021572199445</v>
       </c>
       <c r="E16" t="n">
-        <v>17.85323314807986</v>
+        <v>5.980440178009815</v>
       </c>
       <c r="F16" t="n">
-        <v>11.94675936876964</v>
+        <v>9.776665497972973</v>
       </c>
       <c r="G16" t="n">
-        <v>10.73158689951447</v>
+        <v>10.93758880124214</v>
       </c>
       <c r="H16" t="n">
-        <v>51.0070686697706</v>
+        <v>24.37603109888694</v>
       </c>
       <c r="I16" t="n">
-        <v>18.79069260913844</v>
+        <v>23.96755638217602</v>
       </c>
       <c r="J16" t="n">
-        <v>13.41632483935764</v>
+        <v>102.7681100283128</v>
       </c>
       <c r="K16" t="n">
-        <v>36.70936299216992</v>
+        <v>18.68832320132154</v>
       </c>
       <c r="L16" t="n">
-        <v>12.9985057996164</v>
+        <v>46.21265353807759</v>
       </c>
       <c r="M16" t="n">
-        <v>19.34921490880254</v>
+        <v>178.0132613530049</v>
       </c>
       <c r="N16" t="n">
-        <v>78.32670325444819</v>
+        <v>53.98888402870764</v>
       </c>
       <c r="O16" t="n">
-        <v>127.8943950096057</v>
+        <v>82.45524866476865</v>
       </c>
       <c r="P16" t="n">
-        <v>81.45337407014348</v>
+        <v>37.03162126568986</v>
       </c>
       <c r="Q16" t="n">
-        <v>66.25696628070716</v>
+        <v>47.66506091489241</v>
       </c>
       <c r="R16" t="n">
-        <v>134.4759525773826</v>
+        <v>28.31990553093911</v>
       </c>
       <c r="S16" t="n">
-        <v>80.69961419857331</v>
+        <v>101.0342220592004</v>
       </c>
       <c r="T16" t="n">
-        <v>32.01697556895935</v>
+        <v>66.11680258470686</v>
       </c>
       <c r="U16" t="n">
-        <v>53.35401160105594</v>
+        <v>47.72790945515452</v>
       </c>
       <c r="V16" t="n">
-        <v>40.84553556927159</v>
+        <v>38.57388821877942</v>
       </c>
       <c r="W16" t="n">
-        <v>41.5288001715433</v>
+        <v>91.47394254787444</v>
       </c>
       <c r="X16" t="n">
-        <v>82.65488878512187</v>
+        <v>92.72445381647368</v>
       </c>
       <c r="Y16" t="n">
-        <v>62.55267119827517</v>
+        <v>41.96901298722749</v>
       </c>
       <c r="Z16" t="n">
-        <v>101.8718607733089</v>
+        <v>69.23168407668715</v>
       </c>
       <c r="AA16" t="n">
-        <v>85.70924161691495</v>
+        <v>57.91461888899821</v>
       </c>
       <c r="AB16" t="n">
-        <v>70.35520126845704</v>
+        <v>60.7147580904285</v>
       </c>
       <c r="AC16" t="n">
-        <v>112.3493219098454</v>
+        <v>106.6293048714241</v>
       </c>
       <c r="AD16" t="n">
-        <v>55.95044052642795</v>
+        <v>198.043620836639</v>
       </c>
       <c r="AE16" t="n">
-        <v>98.82225955640976</v>
+        <v>57.38505813419752</v>
       </c>
       <c r="AF16" t="n">
-        <v>60.43215448739296</v>
+        <v>45.18982536702693</v>
       </c>
       <c r="AG16" t="n">
-        <v>86.24250246754234</v>
+        <v>32.72822577804744</v>
       </c>
       <c r="AH16" t="n">
-        <v>26.64383851257813</v>
+        <v>82.44843585115559</v>
       </c>
       <c r="AI16" t="n">
-        <v>82.18146477827403</v>
+        <v>50.25411279188993</v>
       </c>
       <c r="AJ16" t="n">
-        <v>108.2969916016011</v>
+        <v>19.77538318723578</v>
       </c>
       <c r="AK16" t="n">
-        <v>22.8805298782289</v>
+        <v>28.85707770560638</v>
       </c>
       <c r="AL16" t="n">
-        <v>35.65084477116201</v>
+        <v>19.48672804365419</v>
       </c>
       <c r="AM16" t="n">
-        <v>18.62486964798351</v>
+        <v>18.5161898217061</v>
       </c>
       <c r="AN16" t="n">
-        <v>28.04017857848367</v>
+        <v>15.00508246407884</v>
       </c>
       <c r="AO16" t="n">
-        <v>11.29833751382022</v>
+        <v>7.55477507502022</v>
       </c>
       <c r="AP16" t="n">
-        <v>9.519018687061564</v>
+        <v>16.06686067551572</v>
       </c>
       <c r="AQ16" t="n">
-        <v>40.67418819092897</v>
+        <v>14.56015814077857</v>
       </c>
       <c r="AR16" t="n">
-        <v>8.974574966850071</v>
+        <v>30.27043131139581</v>
       </c>
       <c r="AS16" t="n">
-        <v>15.01676151669496</v>
+        <v>19.81217854741612</v>
       </c>
       <c r="AT16" t="n">
-        <v>8.640507409373708</v>
+        <v>11.67582524180344</v>
       </c>
       <c r="AU16" t="n">
-        <v>19.98330885714286</v>
+        <v>8.876314271558735</v>
       </c>
       <c r="AV16" t="n">
-        <v>14.88650103262875</v>
+        <v>11.3278185461305</v>
       </c>
       <c r="AW16" t="n">
-        <v>5.526903577223452</v>
+        <v>10.98184629424189</v>
       </c>
       <c r="AX16" t="n">
-        <v>10.3780135987143</v>
+        <v>8.553009242200135</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>21.41087151386755</v>
+        <v>20.50862876148028</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>16.50095928083844</v>
       </c>
       <c r="E17" t="n">
-        <v>14.13492422494392</v>
+        <v>14.79191296716049</v>
       </c>
       <c r="F17" t="n">
-        <v>13.00947964461271</v>
+        <v>21.07462336241327</v>
       </c>
       <c r="G17" t="n">
-        <v>13.98482177285882</v>
+        <v>4.552159881165122</v>
       </c>
       <c r="H17" t="n">
-        <v>11.15793606842652</v>
+        <v>22.66874870052932</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>11.78419080972375</v>
       </c>
       <c r="J17" t="n">
-        <v>87.48609012629693</v>
+        <v>11.51753568378661</v>
       </c>
       <c r="K17" t="n">
-        <v>51.45345487066142</v>
+        <v>13.24451717549338</v>
       </c>
       <c r="L17" t="n">
-        <v>37.78213802682735</v>
+        <v>141.4940087117742</v>
       </c>
       <c r="M17" t="n">
-        <v>37.00843005089069</v>
+        <v>31.39051155731172</v>
       </c>
       <c r="N17" t="n">
-        <v>31.07721205896507</v>
+        <v>12.93970387895319</v>
       </c>
       <c r="O17" t="n">
-        <v>189.5021646772558</v>
+        <v>44.70729938836632</v>
       </c>
       <c r="P17" t="n">
-        <v>18.13947163960231</v>
+        <v>21.49715543402386</v>
       </c>
       <c r="Q17" t="n">
-        <v>10.54091478227224</v>
+        <v>82.7229540918152</v>
       </c>
       <c r="R17" t="n">
-        <v>44.27498691603369</v>
+        <v>115.458005502672</v>
       </c>
       <c r="S17" t="n">
-        <v>56.0513552391992</v>
+        <v>34.40204500735991</v>
       </c>
       <c r="T17" t="n">
-        <v>40.26278917982734</v>
+        <v>22.44062424406201</v>
       </c>
       <c r="U17" t="n">
-        <v>71.7468198914199</v>
+        <v>47.93581542888826</v>
       </c>
       <c r="V17" t="n">
-        <v>34.78798724215383</v>
+        <v>29.01665564116852</v>
       </c>
       <c r="W17" t="n">
-        <v>34.0890003833226</v>
+        <v>19.77073530665599</v>
       </c>
       <c r="X17" t="n">
-        <v>79.80649250344989</v>
+        <v>55.3433051066209</v>
       </c>
       <c r="Y17" t="n">
-        <v>18.48891499706093</v>
+        <v>12.37016097478294</v>
       </c>
       <c r="Z17" t="n">
-        <v>5.887643698850493</v>
+        <v>23.66523948025649</v>
       </c>
       <c r="AA17" t="n">
-        <v>35.73534234048928</v>
+        <v>99.48155597842698</v>
       </c>
       <c r="AB17" t="n">
-        <v>41.39287637564905</v>
+        <v>20.55145944634105</v>
       </c>
       <c r="AC17" t="n">
-        <v>49.76053661033642</v>
+        <v>12.67825504414261</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>22.23227165293095</v>
       </c>
       <c r="AE17" t="n">
-        <v>79.4859418619416</v>
+        <v>53.18670207064125</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.7334302426224273</v>
+        <v>52.56929130411056</v>
       </c>
       <c r="AG17" t="n">
-        <v>1.35052200928979</v>
+        <v>56.95656181536724</v>
       </c>
       <c r="AH17" t="n">
-        <v>33.07133205857943</v>
+        <v>29.57851808142064</v>
       </c>
       <c r="AI17" t="n">
-        <v>22.08593904350622</v>
+        <v>14.46794702947133</v>
       </c>
       <c r="AJ17" t="n">
-        <v>26.67151057391266</v>
+        <v>9.73109281946879</v>
       </c>
       <c r="AK17" t="n">
-        <v>19.18015884861197</v>
+        <v>105.6855980868094</v>
       </c>
       <c r="AL17" t="n">
-        <v>14.07957181997923</v>
+        <v>14.47404231786593</v>
       </c>
       <c r="AM17" t="n">
-        <v>23.7648763603513</v>
+        <v>12.21479584103387</v>
       </c>
       <c r="AN17" t="n">
-        <v>26.03021799998853</v>
+        <v>17.59580880003464</v>
       </c>
       <c r="AO17" t="n">
-        <v>22.2895406465789</v>
+        <v>14.57288423137696</v>
       </c>
       <c r="AP17" t="n">
-        <v>28.46950369740421</v>
+        <v>41.2709259417549</v>
       </c>
       <c r="AQ17" t="n">
-        <v>27.03004164605553</v>
+        <v>45.43025791663691</v>
       </c>
       <c r="AR17" t="n">
-        <v>29.53874908522069</v>
+        <v>11.94684721968433</v>
       </c>
       <c r="AS17" t="n">
-        <v>13.06344795535026</v>
+        <v>18.16568947250985</v>
       </c>
       <c r="AT17" t="n">
-        <v>41.20816531606355</v>
+        <v>11.60208007399348</v>
       </c>
       <c r="AU17" t="n">
-        <v>31.1085574251397</v>
+        <v>35.36216564448777</v>
       </c>
       <c r="AV17" t="n">
-        <v>20.05107681968755</v>
+        <v>4.853626948849259</v>
       </c>
       <c r="AW17" t="n">
-        <v>9.115399556543949</v>
+        <v>4.738885900679282</v>
       </c>
       <c r="AX17" t="n">
-        <v>0</v>
+        <v>25.2635825103012</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>1.162992593602577</v>
+        <v>2.513205436766508</v>
       </c>
       <c r="D18" t="n">
-        <v>2.1952161</v>
+        <v>2.211080498380118</v>
       </c>
       <c r="E18" t="n">
-        <v>31.61454771977646</v>
+        <v>5.740003002961412</v>
       </c>
       <c r="F18" t="n">
-        <v>10.03148760734613</v>
+        <v>2.529567166424223</v>
       </c>
       <c r="G18" t="n">
-        <v>3.45070815694476</v>
+        <v>1.303446971710134</v>
       </c>
       <c r="H18" t="n">
-        <v>26.92925905899039</v>
+        <v>10.63046634299181</v>
       </c>
       <c r="I18" t="n">
-        <v>13.45147338451332</v>
+        <v>2.926224137649685</v>
       </c>
       <c r="J18" t="n">
-        <v>62.94141544431037</v>
+        <v>3.820491959750654</v>
       </c>
       <c r="K18" t="n">
-        <v>9.722677648529574</v>
+        <v>26.78791921856018</v>
       </c>
       <c r="L18" t="n">
-        <v>46.45167653552168</v>
+        <v>18.75440099056829</v>
       </c>
       <c r="M18" t="n">
-        <v>25.24650657564897</v>
+        <v>21.33299932845653</v>
       </c>
       <c r="N18" t="n">
-        <v>85.43103427393201</v>
+        <v>28.1199786389886</v>
       </c>
       <c r="O18" t="n">
-        <v>40.34337803358356</v>
+        <v>11.95280928889834</v>
       </c>
       <c r="P18" t="n">
-        <v>16.16923135571307</v>
+        <v>15.82462007829475</v>
       </c>
       <c r="Q18" t="n">
-        <v>55.74236155803107</v>
+        <v>23.52938049578106</v>
       </c>
       <c r="R18" t="n">
-        <v>9.916864995541987</v>
+        <v>21.36092146884953</v>
       </c>
       <c r="S18" t="n">
-        <v>12.67469843826668</v>
+        <v>31.74245255646098</v>
       </c>
       <c r="T18" t="n">
-        <v>19.11070188241147</v>
+        <v>10.20645982580504</v>
       </c>
       <c r="U18" t="n">
-        <v>35.680176</v>
+        <v>24.93839753873048</v>
       </c>
       <c r="V18" t="n">
-        <v>67.7225</v>
+        <v>10.41860273061672</v>
       </c>
       <c r="W18" t="n">
-        <v>24.2453991254603</v>
+        <v>10.83064289096602</v>
       </c>
       <c r="X18" t="n">
-        <v>17.58307708559172</v>
+        <v>24.14722630849374</v>
       </c>
       <c r="Y18" t="n">
-        <v>14.30074156927002</v>
+        <v>10.26205485502663</v>
       </c>
       <c r="Z18" t="n">
-        <v>14.72441575031007</v>
+        <v>16.72944695046855</v>
       </c>
       <c r="AA18" t="n">
-        <v>30.45596719426539</v>
+        <v>7.584929895629599</v>
       </c>
       <c r="AB18" t="n">
-        <v>12.61753009481441</v>
+        <v>25.71524181775889</v>
       </c>
       <c r="AC18" t="n">
-        <v>14.48125316942469</v>
+        <v>10.40576130513111</v>
       </c>
       <c r="AD18" t="n">
-        <v>5.203045612490264</v>
+        <v>27.29006348343031</v>
       </c>
       <c r="AE18" t="n">
-        <v>29.68483416381915</v>
+        <v>21.6732762703422</v>
       </c>
       <c r="AF18" t="n">
-        <v>18.52878079232883</v>
+        <v>17.39227118914776</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.82668649555539</v>
+        <v>10.44160182145297</v>
       </c>
       <c r="AH18" t="n">
-        <v>10.38672998244127</v>
+        <v>31.04798398011236</v>
       </c>
       <c r="AI18" t="n">
-        <v>7.411008577523888</v>
+        <v>6.701677402971182</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6.47697519394749</v>
+        <v>5.938880408597162</v>
       </c>
       <c r="AK18" t="n">
-        <v>13.71422720897616</v>
+        <v>10.71567117395949</v>
       </c>
       <c r="AL18" t="n">
-        <v>4.000452842438475</v>
+        <v>5.683120551101285</v>
       </c>
       <c r="AM18" t="n">
-        <v>6.03870179668328</v>
+        <v>4.425090077965798</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.34444737922228</v>
+        <v>9.816006366133349</v>
       </c>
       <c r="AO18" t="n">
-        <v>5.011163991434436</v>
+        <v>3.678833583005185</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.9369139730876361</v>
+        <v>3.045856036676121</v>
       </c>
       <c r="AQ18" t="n">
-        <v>3.578308262320558</v>
+        <v>2.177185173849839</v>
       </c>
       <c r="AR18" t="n">
-        <v>1.51</v>
+        <v>2.379139337208478</v>
       </c>
       <c r="AS18" t="n">
-        <v>4.427966777108036</v>
+        <v>1.183435199341835</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.7574824590518755</v>
+        <v>2.328039656582368</v>
       </c>
       <c r="AU18" t="n">
-        <v>3.435147996824697</v>
+        <v>1.823806614617912</v>
       </c>
       <c r="AV18" t="n">
-        <v>3.275375578263844</v>
+        <v>4.52036902011947</v>
       </c>
       <c r="AW18" t="n">
-        <v>9.427137181458228</v>
+        <v>1.062388035971854</v>
       </c>
       <c r="AX18" t="n">
-        <v>2.930539094111506</v>
+        <v>2.324406090587706</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>25.55</v>
+        <v>5.97556782389394</v>
       </c>
       <c r="D19" t="n">
-        <v>12.07</v>
+        <v>2.004302011421502</v>
       </c>
       <c r="E19" t="n">
-        <v>5.43</v>
+        <v>25.02418835789918</v>
       </c>
       <c r="F19" t="n">
-        <v>29.66</v>
+        <v>5.357273656568858</v>
       </c>
       <c r="G19" t="n">
-        <v>26.35</v>
+        <v>6.075977922752059</v>
       </c>
       <c r="H19" t="n">
-        <v>29.95</v>
+        <v>3.848215252636023</v>
       </c>
       <c r="I19" t="n">
-        <v>6.282781396285666</v>
+        <v>5.326671630218644</v>
       </c>
       <c r="J19" t="n">
-        <v>40.81</v>
+        <v>22.61565967766717</v>
       </c>
       <c r="K19" t="n">
-        <v>32.47</v>
+        <v>32.65853094942032</v>
       </c>
       <c r="L19" t="n">
-        <v>25.68</v>
+        <v>56.78428079904332</v>
       </c>
       <c r="M19" t="n">
-        <v>30.23</v>
+        <v>45.78458173402521</v>
       </c>
       <c r="N19" t="n">
-        <v>114.03</v>
+        <v>13.27225130212915</v>
       </c>
       <c r="O19" t="n">
-        <v>4.108850628571432</v>
+        <v>17.17991869175738</v>
       </c>
       <c r="P19" t="n">
-        <v>44.16</v>
+        <v>118.4398027941747</v>
       </c>
       <c r="Q19" t="n">
-        <v>32.65</v>
+        <v>145.4905399667213</v>
       </c>
       <c r="R19" t="n">
-        <v>5.42</v>
+        <v>57.82512927142357</v>
       </c>
       <c r="S19" t="n">
-        <v>17.35</v>
+        <v>7.860022723857411</v>
       </c>
       <c r="T19" t="n">
-        <v>35.77</v>
+        <v>113.4400910817354</v>
       </c>
       <c r="U19" t="n">
-        <v>8.32</v>
+        <v>26.84496398755883</v>
       </c>
       <c r="V19" t="n">
-        <v>32.29</v>
+        <v>55.60989873317316</v>
       </c>
       <c r="W19" t="n">
-        <v>21.1</v>
+        <v>3.342215456661664</v>
       </c>
       <c r="X19" t="n">
-        <v>21.4</v>
+        <v>31.32403786345986</v>
       </c>
       <c r="Y19" t="n">
-        <v>43.6</v>
+        <v>24.60071376398154</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.91</v>
+        <v>5.99470026276255</v>
       </c>
       <c r="AA19" t="n">
-        <v>6.138943248866297</v>
+        <v>4.640254319201428</v>
       </c>
       <c r="AB19" t="n">
-        <v>1</v>
+        <v>45.20456627233419</v>
       </c>
       <c r="AC19" t="n">
-        <v>1</v>
+        <v>13.6017082062094</v>
       </c>
       <c r="AD19" t="n">
-        <v>5.81</v>
+        <v>5.121426890751264</v>
       </c>
       <c r="AE19" t="n">
-        <v>17.86</v>
+        <v>5.243265078177966</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.14</v>
+        <v>3.635793147334003</v>
       </c>
       <c r="AG19" t="n">
-        <v>4.630269910820592</v>
+        <v>0.7418870174881662</v>
       </c>
       <c r="AH19" t="n">
-        <v>12.83</v>
+        <v>29.19925000368206</v>
       </c>
       <c r="AI19" t="n">
-        <v>15.68</v>
+        <v>2.71293012691495</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1</v>
+        <v>15.74267429795703</v>
       </c>
       <c r="AK19" t="n">
-        <v>5.63</v>
+        <v>0.5024938186253053</v>
       </c>
       <c r="AL19" t="n">
-        <v>7.44</v>
+        <v>15.5582933233504</v>
       </c>
       <c r="AM19" t="n">
-        <v>3.45</v>
+        <v>2.280132440895555</v>
       </c>
       <c r="AN19" t="n">
-        <v>1.04</v>
+        <v>5.436058428253968</v>
       </c>
       <c r="AO19" t="n">
-        <v>8.77</v>
+        <v>1.055334614396858</v>
       </c>
       <c r="AP19" t="n">
-        <v>12.1</v>
+        <v>5.437243828497307</v>
       </c>
       <c r="AQ19" t="n">
-        <v>6.03</v>
+        <v>3.269304323886802</v>
       </c>
       <c r="AR19" t="n">
-        <v>1.1</v>
+        <v>1.586254690037132</v>
       </c>
       <c r="AS19" t="n">
-        <v>4.81</v>
+        <v>6.331880979695737</v>
       </c>
       <c r="AT19" t="n">
-        <v>5.67</v>
+        <v>2.732622627971255</v>
       </c>
       <c r="AU19" t="n">
-        <v>11.97</v>
+        <v>9.808734613634234</v>
       </c>
       <c r="AV19" t="n">
-        <v>14.83</v>
+        <v>4.031355051374736</v>
       </c>
       <c r="AW19" t="n">
-        <v>13.10671923672154</v>
+        <v>2.956969932653331</v>
       </c>
       <c r="AX19" t="n">
-        <v>3.28</v>
+        <v>12.22625736342062</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>19.44798135013396</v>
+        <v>32.16611431065682</v>
       </c>
       <c r="D20" t="n">
-        <v>17.1719861678182</v>
+        <v>29.38099000741016</v>
       </c>
       <c r="E20" t="n">
-        <v>25.12478362978436</v>
+        <v>13.37667154727496</v>
       </c>
       <c r="F20" t="n">
-        <v>27.3920105770839</v>
+        <v>18.38614633851271</v>
       </c>
       <c r="G20" t="n">
-        <v>17.85130984493525</v>
+        <v>16.64722859082141</v>
       </c>
       <c r="H20" t="n">
-        <v>27.25617283310022</v>
+        <v>26.15650889736761</v>
       </c>
       <c r="I20" t="n">
-        <v>191.8478419473582</v>
+        <v>41.56624005894925</v>
       </c>
       <c r="J20" t="n">
-        <v>11.66148952049373</v>
+        <v>24.06950000219895</v>
       </c>
       <c r="K20" t="n">
-        <v>93.15448994803347</v>
+        <v>13.86196820274912</v>
       </c>
       <c r="L20" t="n">
-        <v>38.38284298708842</v>
+        <v>64.84790708416693</v>
       </c>
       <c r="M20" t="n">
-        <v>55.25975038771607</v>
+        <v>52.75354073795954</v>
       </c>
       <c r="N20" t="n">
-        <v>136.7449648705639</v>
+        <v>131.6594239115747</v>
       </c>
       <c r="O20" t="n">
-        <v>62.92588486297506</v>
+        <v>37.69450920332783</v>
       </c>
       <c r="P20" t="n">
-        <v>56.53557530778401</v>
+        <v>21.14134155169828</v>
       </c>
       <c r="Q20" t="n">
-        <v>211.0141899138052</v>
+        <v>24.78308657596708</v>
       </c>
       <c r="R20" t="n">
-        <v>53.24086247189675</v>
+        <v>76.65151045399166</v>
       </c>
       <c r="S20" t="n">
-        <v>38.26659797724854</v>
+        <v>53.7534245384491</v>
       </c>
       <c r="T20" t="n">
-        <v>43.87556765961149</v>
+        <v>33.69901986684437</v>
       </c>
       <c r="U20" t="n">
-        <v>89.46326897702757</v>
+        <v>66.07860293927369</v>
       </c>
       <c r="V20" t="n">
-        <v>40.55589682849365</v>
+        <v>146.5700937217975</v>
       </c>
       <c r="W20" t="n">
-        <v>75.97766940908063</v>
+        <v>78.4310954354661</v>
       </c>
       <c r="X20" t="n">
-        <v>69.39382825371534</v>
+        <v>69.32657133976976</v>
       </c>
       <c r="Y20" t="n">
-        <v>32.41438818964372</v>
+        <v>64.55235111857297</v>
       </c>
       <c r="Z20" t="n">
-        <v>97.50048750000001</v>
+        <v>109.5348887838176</v>
       </c>
       <c r="AA20" t="n">
-        <v>116.0333971441033</v>
+        <v>81.65856369825271</v>
       </c>
       <c r="AB20" t="n">
-        <v>113.0698583354442</v>
+        <v>92.56201773252906</v>
       </c>
       <c r="AC20" t="n">
-        <v>143.6458490766138</v>
+        <v>97.55933351195146</v>
       </c>
       <c r="AD20" t="n">
-        <v>130.5986802383703</v>
+        <v>174.2776207116631</v>
       </c>
       <c r="AE20" t="n">
-        <v>97.34418571428571</v>
+        <v>130.5433174741683</v>
       </c>
       <c r="AF20" t="n">
-        <v>56.7572845664184</v>
+        <v>84.9255814464034</v>
       </c>
       <c r="AG20" t="n">
-        <v>146.0925701244353</v>
+        <v>59.05909900299089</v>
       </c>
       <c r="AH20" t="n">
-        <v>145.6785205122881</v>
+        <v>42.55449934634097</v>
       </c>
       <c r="AI20" t="n">
-        <v>39.50835320565558</v>
+        <v>100.7632373220908</v>
       </c>
       <c r="AJ20" t="n">
-        <v>69.36914711412452</v>
+        <v>106.6326137611042</v>
       </c>
       <c r="AK20" t="n">
-        <v>133.7427970252978</v>
+        <v>37.84838386843184</v>
       </c>
       <c r="AL20" t="n">
-        <v>64.11718855021748</v>
+        <v>41.05217706497606</v>
       </c>
       <c r="AM20" t="n">
-        <v>33.02210037841023</v>
+        <v>38.84636802049543</v>
       </c>
       <c r="AN20" t="n">
-        <v>21.9093551693845</v>
+        <v>33.79404173457694</v>
       </c>
       <c r="AO20" t="n">
-        <v>23.5259785260103</v>
+        <v>44.49116167282101</v>
       </c>
       <c r="AP20" t="n">
-        <v>41.16427246469324</v>
+        <v>28.60712582768958</v>
       </c>
       <c r="AQ20" t="n">
-        <v>40.22490985961031</v>
+        <v>27.25107445626237</v>
       </c>
       <c r="AR20" t="n">
-        <v>21.46019983640343</v>
+        <v>19.10394539036437</v>
       </c>
       <c r="AS20" t="n">
-        <v>30.91098135583319</v>
+        <v>20.83951912145567</v>
       </c>
       <c r="AT20" t="n">
-        <v>20.7488198300644</v>
+        <v>31.7187362484935</v>
       </c>
       <c r="AU20" t="n">
-        <v>16.33952949985037</v>
+        <v>13.81801908597374</v>
       </c>
       <c r="AV20" t="n">
-        <v>33.29988920555645</v>
+        <v>19.62664057426623</v>
       </c>
       <c r="AW20" t="n">
-        <v>12.59161628299271</v>
+        <v>26.03694624423158</v>
       </c>
       <c r="AX20" t="n">
-        <v>9.914366250495206</v>
+        <v>27.32028979936943</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>3.097811368491702</v>
+        <v>1.364825214778708</v>
       </c>
       <c r="D21" t="n">
-        <v>5.016109907693004</v>
+        <v>4.13476581685177</v>
       </c>
       <c r="E21" t="n">
-        <v>2.115631028412501</v>
+        <v>1.815504036179124</v>
       </c>
       <c r="F21" t="n">
-        <v>3.829160855335351</v>
+        <v>1.140450504752608</v>
       </c>
       <c r="G21" t="n">
-        <v>2.169723695665246</v>
+        <v>0.4964117393778106</v>
       </c>
       <c r="H21" t="n">
-        <v>3.293404644982565</v>
+        <v>5.749823084946329</v>
       </c>
       <c r="I21" t="n">
-        <v>2.921532279021375</v>
+        <v>0.8640807104683839</v>
       </c>
       <c r="J21" t="n">
-        <v>2.163010047160139</v>
+        <v>1.925945791063337</v>
       </c>
       <c r="K21" t="n">
-        <v>7.616805654870335</v>
+        <v>0.7988151990962129</v>
       </c>
       <c r="L21" t="n">
-        <v>3.365056303152613</v>
+        <v>0.8305788289979434</v>
       </c>
       <c r="M21" t="n">
-        <v>11.48073984832761</v>
+        <v>2.113760551788285</v>
       </c>
       <c r="N21" t="n">
-        <v>3.350208678981941</v>
+        <v>3.4233614769048</v>
       </c>
       <c r="O21" t="n">
-        <v>2.593050802918722</v>
+        <v>4.173223959774933</v>
       </c>
       <c r="P21" t="n">
-        <v>5.141222430962817</v>
+        <v>12.58072900393793</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.35603238464213</v>
+        <v>3.064921169334632</v>
       </c>
       <c r="R21" t="n">
-        <v>4.182048023824854</v>
+        <v>3.260587812141982</v>
       </c>
       <c r="S21" t="n">
-        <v>6.34864210389061</v>
+        <v>3.788621008321958</v>
       </c>
       <c r="T21" t="n">
-        <v>2.912553414089976</v>
+        <v>7.432764669090909</v>
       </c>
       <c r="U21" t="n">
-        <v>2.524715593718867</v>
+        <v>2.927138275883685</v>
       </c>
       <c r="V21" t="n">
-        <v>12.06848236147606</v>
+        <v>6.772065212449748</v>
       </c>
       <c r="W21" t="n">
-        <v>2.82042145071054</v>
+        <v>3.598775926010489</v>
       </c>
       <c r="X21" t="n">
-        <v>11.70204539462708</v>
+        <v>7.419860174164274</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.783889623776812</v>
+        <v>3.868654612008366</v>
       </c>
       <c r="Z21" t="n">
-        <v>4.570807726097789</v>
+        <v>8.865734675448842</v>
       </c>
       <c r="AA21" t="n">
-        <v>2.671028107179627</v>
+        <v>3.036155678358994</v>
       </c>
       <c r="AB21" t="n">
-        <v>4.432646120100062</v>
+        <v>3.849027302961318</v>
       </c>
       <c r="AC21" t="n">
-        <v>5.083931162079615</v>
+        <v>7.389705345514739</v>
       </c>
       <c r="AD21" t="n">
-        <v>5.246340907336259</v>
+        <v>4.44976848924412</v>
       </c>
       <c r="AE21" t="n">
-        <v>2.679428218545988</v>
+        <v>3.919613342019497</v>
       </c>
       <c r="AF21" t="n">
-        <v>6.302103105307114</v>
+        <v>8.59417348377835</v>
       </c>
       <c r="AG21" t="n">
-        <v>7.081106550244292</v>
+        <v>3.500241338349111</v>
       </c>
       <c r="AH21" t="n">
-        <v>4.019160350143413</v>
+        <v>11.74623740778943</v>
       </c>
       <c r="AI21" t="n">
-        <v>4.523322197631718</v>
+        <v>6.974581508584392</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1.829118750356249</v>
+        <v>2.961289830456937</v>
       </c>
       <c r="AK21" t="n">
-        <v>5.925040643751595</v>
+        <v>3.194275388442884</v>
       </c>
       <c r="AL21" t="n">
-        <v>5.285624119593349</v>
+        <v>7.254573145636923</v>
       </c>
       <c r="AM21" t="n">
-        <v>5.855265716996596</v>
+        <v>4.592179672160793</v>
       </c>
       <c r="AN21" t="n">
-        <v>2.176077433662833</v>
+        <v>5.272002286071959</v>
       </c>
       <c r="AO21" t="n">
-        <v>5.015563057396381</v>
+        <v>1.706027362159215</v>
       </c>
       <c r="AP21" t="n">
-        <v>3.371208520037909</v>
+        <v>1.498575798763286</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2.638852672750978</v>
+        <v>3.443040878086973</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.06968650793650993</v>
+        <v>7.564897470784468</v>
       </c>
       <c r="AS21" t="n">
-        <v>4.13860449430457</v>
+        <v>5.194787748372502</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.920308153186345</v>
+        <v>0.9197039476135603</v>
       </c>
       <c r="AU21" t="n">
-        <v>5.8450716312824</v>
+        <v>0.1652658681454595</v>
       </c>
       <c r="AV21" t="n">
-        <v>3.576519697364989</v>
+        <v>1.763569588296526</v>
       </c>
       <c r="AW21" t="n">
-        <v>1.941475875548283</v>
+        <v>0.3907002996312604</v>
       </c>
       <c r="AX21" t="n">
-        <v>3.420231566118221</v>
+        <v>2.157568646348953</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>10.05318614360685</v>
+        <v>9.801732785638093</v>
       </c>
       <c r="D22" t="n">
-        <v>13.57002669310752</v>
+        <v>8.878897829081509</v>
       </c>
       <c r="E22" t="n">
-        <v>9.907464768132407</v>
+        <v>16.14940586098298</v>
       </c>
       <c r="F22" t="n">
-        <v>21.01057696094519</v>
+        <v>18.38869282702137</v>
       </c>
       <c r="G22" t="n">
-        <v>11.19654387656702</v>
+        <v>2.852436656356217</v>
       </c>
       <c r="H22" t="n">
-        <v>31.97439169484001</v>
+        <v>26.10662333490468</v>
       </c>
       <c r="I22" t="n">
-        <v>10.29051346239467</v>
+        <v>59.75735033012558</v>
       </c>
       <c r="J22" t="n">
-        <v>4.207158623206526</v>
+        <v>51.95510026711283</v>
       </c>
       <c r="K22" t="n">
-        <v>152.2057918606496</v>
+        <v>13.75759758279077</v>
       </c>
       <c r="L22" t="n">
-        <v>55.23328182148433</v>
+        <v>130.1032803319661</v>
       </c>
       <c r="M22" t="n">
-        <v>20.34263649185896</v>
+        <v>33.00406883438686</v>
       </c>
       <c r="N22" t="n">
-        <v>74.93112381059423</v>
+        <v>171.4747275083899</v>
       </c>
       <c r="O22" t="n">
-        <v>276.3094858656112</v>
+        <v>147.1132182685132</v>
       </c>
       <c r="P22" t="n">
-        <v>152.6730515620025</v>
+        <v>104.383401985335</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.82036257688572</v>
+        <v>21.6486097484787</v>
       </c>
       <c r="R22" t="n">
-        <v>27.4029382075042</v>
+        <v>44.42598153830559</v>
       </c>
       <c r="S22" t="n">
-        <v>148.1232374915429</v>
+        <v>49.39846701045753</v>
       </c>
       <c r="T22" t="n">
-        <v>60.61147468098804</v>
+        <v>45.21836097893549</v>
       </c>
       <c r="U22" t="n">
-        <v>42.8726373615638</v>
+        <v>25.83718912444237</v>
       </c>
       <c r="V22" t="n">
-        <v>60.92505498927449</v>
+        <v>93.01284585916598</v>
       </c>
       <c r="W22" t="n">
-        <v>94.28659133985862</v>
+        <v>29.82663155479608</v>
       </c>
       <c r="X22" t="n">
-        <v>113.758052684725</v>
+        <v>63.65477494240125</v>
       </c>
       <c r="Y22" t="n">
-        <v>57.99858424283431</v>
+        <v>41.09933477023965</v>
       </c>
       <c r="Z22" t="n">
-        <v>100.9700074977225</v>
+        <v>51.97037849646525</v>
       </c>
       <c r="AA22" t="n">
-        <v>41.49732511472077</v>
+        <v>81.24226774411964</v>
       </c>
       <c r="AB22" t="n">
-        <v>60.53698560070078</v>
+        <v>109.4790605166263</v>
       </c>
       <c r="AC22" t="n">
-        <v>169.8647726572765</v>
+        <v>69.45746867873574</v>
       </c>
       <c r="AD22" t="n">
-        <v>59.10717160255167</v>
+        <v>96.40037660526829</v>
       </c>
       <c r="AE22" t="n">
-        <v>76.18367163435353</v>
+        <v>116.9616002780203</v>
       </c>
       <c r="AF22" t="n">
-        <v>72.56519572596693</v>
+        <v>60.48614809146309</v>
       </c>
       <c r="AG22" t="n">
-        <v>62.90217877650885</v>
+        <v>26.23942044099549</v>
       </c>
       <c r="AH22" t="n">
-        <v>68.12896670681657</v>
+        <v>119.9626617109655</v>
       </c>
       <c r="AI22" t="n">
-        <v>47.17268539564824</v>
+        <v>51.42069354173582</v>
       </c>
       <c r="AJ22" t="n">
-        <v>48.7540687621473</v>
+        <v>12.58954804486542</v>
       </c>
       <c r="AK22" t="n">
-        <v>82.35874728370662</v>
+        <v>28.5608067389442</v>
       </c>
       <c r="AL22" t="n">
-        <v>19.76086821111168</v>
+        <v>26.62183185484461</v>
       </c>
       <c r="AM22" t="n">
-        <v>12.00409238877693</v>
+        <v>22.73500170662209</v>
       </c>
       <c r="AN22" t="n">
-        <v>20.3813881116441</v>
+        <v>9.661654963885713</v>
       </c>
       <c r="AO22" t="n">
-        <v>17.62965728778974</v>
+        <v>12.25302291241362</v>
       </c>
       <c r="AP22" t="n">
-        <v>18.83700847502693</v>
+        <v>20.05622240871902</v>
       </c>
       <c r="AQ22" t="n">
-        <v>16.79790607079262</v>
+        <v>32.90464049602124</v>
       </c>
       <c r="AR22" t="n">
-        <v>12.86219370603142</v>
+        <v>21.72278399167147</v>
       </c>
       <c r="AS22" t="n">
-        <v>8.075391751509922</v>
+        <v>23.74860340540146</v>
       </c>
       <c r="AT22" t="n">
-        <v>10.98457113507961</v>
+        <v>15.58031414835031</v>
       </c>
       <c r="AU22" t="n">
-        <v>10.6270086254892</v>
+        <v>16.92871182427027</v>
       </c>
       <c r="AV22" t="n">
-        <v>8.661619433295755</v>
+        <v>5.923365748964918</v>
       </c>
       <c r="AW22" t="n">
-        <v>9.588483983919076</v>
+        <v>13.02631675762181</v>
       </c>
       <c r="AX22" t="n">
-        <v>5.206482194174379</v>
+        <v>10.43668315068178</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>7.032502814859598</v>
+        <v>17.35771353411071</v>
       </c>
       <c r="D23" t="n">
-        <v>11.79410747220541</v>
+        <v>9.912621012520667</v>
       </c>
       <c r="E23" t="n">
-        <v>13.02419950316196</v>
+        <v>20.02586681082596</v>
       </c>
       <c r="F23" t="n">
-        <v>41.79877942193802</v>
+        <v>15.78757062786682</v>
       </c>
       <c r="G23" t="n">
-        <v>17.21387654346481</v>
+        <v>25.54146458994189</v>
       </c>
       <c r="H23" t="n">
-        <v>2.99073752580591</v>
+        <v>9.528651327488653</v>
       </c>
       <c r="I23" t="n">
-        <v>22.79411556154125</v>
+        <v>16.6804002995998</v>
       </c>
       <c r="J23" t="n">
-        <v>26.50874217826016</v>
+        <v>13.6614974272661</v>
       </c>
       <c r="K23" t="n">
-        <v>14.03657041912939</v>
+        <v>56.42455355052287</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>24.89939272079681</v>
       </c>
       <c r="M23" t="n">
-        <v>70.71526050554127</v>
+        <v>26.11417989231593</v>
       </c>
       <c r="N23" t="n">
-        <v>43.83721746318161</v>
+        <v>114.4651215656419</v>
       </c>
       <c r="O23" t="n">
-        <v>21.48377396204339</v>
+        <v>34.38854591823493</v>
       </c>
       <c r="P23" t="n">
-        <v>20.31804690416188</v>
+        <v>23.14404056533125</v>
       </c>
       <c r="Q23" t="n">
-        <v>28.01722049106985</v>
+        <v>77.72125972298446</v>
       </c>
       <c r="R23" t="n">
-        <v>35.66759539159566</v>
+        <v>14.55713387784821</v>
       </c>
       <c r="S23" t="n">
-        <v>59.21873570186742</v>
+        <v>57.237323965694</v>
       </c>
       <c r="T23" t="n">
-        <v>27.92517272094593</v>
+        <v>120.2331890424818</v>
       </c>
       <c r="U23" t="n">
-        <v>42.67856216782493</v>
+        <v>65.85463035910868</v>
       </c>
       <c r="V23" t="n">
-        <v>52.76414991389437</v>
+        <v>29.2372170917774</v>
       </c>
       <c r="W23" t="n">
-        <v>33.60278182157178</v>
+        <v>59.66123006842508</v>
       </c>
       <c r="X23" t="n">
-        <v>82.58265748730622</v>
+        <v>31.80315919406221</v>
       </c>
       <c r="Y23" t="n">
-        <v>51.98852933362262</v>
+        <v>56.94708123915959</v>
       </c>
       <c r="Z23" t="n">
-        <v>150.2340882412617</v>
+        <v>16.46630160357609</v>
       </c>
       <c r="AA23" t="n">
-        <v>23.10483971428569</v>
+        <v>29.10044108786719</v>
       </c>
       <c r="AB23" t="n">
-        <v>18.43282650730148</v>
+        <v>13.21572128027151</v>
       </c>
       <c r="AC23" t="n">
-        <v>28.30849778215694</v>
+        <v>32.67439945658292</v>
       </c>
       <c r="AD23" t="n">
-        <v>19.09008906868336</v>
+        <v>3.940501910217725</v>
       </c>
       <c r="AE23" t="n">
-        <v>38.5871259794973</v>
+        <v>25.80461636176663</v>
       </c>
       <c r="AF23" t="n">
-        <v>42.74966117542198</v>
+        <v>12.89899324818355</v>
       </c>
       <c r="AG23" t="n">
-        <v>24.47013685258448</v>
+        <v>32.93247358691512</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.8584547312489708</v>
+        <v>32.64427043139237</v>
       </c>
       <c r="AI23" t="n">
-        <v>17.21539466099578</v>
+        <v>31.47471702080689</v>
       </c>
       <c r="AJ23" t="n">
-        <v>24.59550763111941</v>
+        <v>40.0196755748389</v>
       </c>
       <c r="AK23" t="n">
-        <v>26.23717935741955</v>
+        <v>32.94025138733873</v>
       </c>
       <c r="AL23" t="n">
-        <v>28.40626430411212</v>
+        <v>54.17682891571501</v>
       </c>
       <c r="AM23" t="n">
-        <v>31.67836314964253</v>
+        <v>29.76862697200906</v>
       </c>
       <c r="AN23" t="n">
-        <v>29.81328908184361</v>
+        <v>31.79711764618073</v>
       </c>
       <c r="AO23" t="n">
-        <v>20.68820541499354</v>
+        <v>16.09625459273258</v>
       </c>
       <c r="AP23" t="n">
-        <v>21.19570170201866</v>
+        <v>33.17972111031172</v>
       </c>
       <c r="AQ23" t="n">
-        <v>14.59908596919676</v>
+        <v>35.0211132587504</v>
       </c>
       <c r="AR23" t="n">
-        <v>10.96188160754052</v>
+        <v>19.66159563030117</v>
       </c>
       <c r="AS23" t="n">
-        <v>24.53919899064042</v>
+        <v>11.47582456702573</v>
       </c>
       <c r="AT23" t="n">
-        <v>4.200047212860041</v>
+        <v>7.483070268561556</v>
       </c>
       <c r="AU23" t="n">
-        <v>26.88168179659216</v>
+        <v>39.91520590018489</v>
       </c>
       <c r="AV23" t="n">
-        <v>20.40849445306873</v>
+        <v>25.6021723846936</v>
       </c>
       <c r="AW23" t="n">
-        <v>24.73305983037478</v>
+        <v>41.62682979433396</v>
       </c>
       <c r="AX23" t="n">
-        <v>20.3474546276778</v>
+        <v>20.96407568445924</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>4.195058515153849</v>
+        <v>6.155321955680733</v>
       </c>
       <c r="D24" t="n">
-        <v>9.81162432976973</v>
+        <v>3.099526339341151</v>
       </c>
       <c r="E24" t="n">
-        <v>6.125054957531971</v>
+        <v>4.116285478305777</v>
       </c>
       <c r="F24" t="n">
-        <v>2.185734048742646</v>
+        <v>2.788393724321657</v>
       </c>
       <c r="G24" t="n">
-        <v>8.800470632069011</v>
+        <v>13.74392803897406</v>
       </c>
       <c r="H24" t="n">
-        <v>10.75617172717107</v>
+        <v>29.54008755302367</v>
       </c>
       <c r="I24" t="n">
-        <v>4.484030722865136</v>
+        <v>10.58756653359801</v>
       </c>
       <c r="J24" t="n">
-        <v>3.664664072153749</v>
+        <v>3.318641983106807</v>
       </c>
       <c r="K24" t="n">
-        <v>36.612576</v>
+        <v>10.67678979923163</v>
       </c>
       <c r="L24" t="n">
-        <v>81.78074565617494</v>
+        <v>1.780031973757253</v>
       </c>
       <c r="M24" t="n">
-        <v>11.21691663489341</v>
+        <v>25.87968690958267</v>
       </c>
       <c r="N24" t="n">
-        <v>13.36098330755164</v>
+        <v>37.51412543973534</v>
       </c>
       <c r="O24" t="n">
-        <v>13.18040244008711</v>
+        <v>28.22745107350063</v>
       </c>
       <c r="P24" t="n">
-        <v>28.29115411026791</v>
+        <v>20.15035163729372</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.67680783939209</v>
+        <v>17.69663387287417</v>
       </c>
       <c r="R24" t="n">
-        <v>7.587948747995608</v>
+        <v>44.29618709984263</v>
       </c>
       <c r="S24" t="n">
-        <v>23.56650438236879</v>
+        <v>25.78537101505967</v>
       </c>
       <c r="T24" t="n">
-        <v>10.58866526320664</v>
+        <v>13.08618808511183</v>
       </c>
       <c r="U24" t="n">
-        <v>35.680176</v>
+        <v>37.49428369093192</v>
       </c>
       <c r="V24" t="n">
-        <v>14.20910136623403</v>
+        <v>15.56888216300544</v>
       </c>
       <c r="W24" t="n">
-        <v>32.77610512701448</v>
+        <v>37.77067136368671</v>
       </c>
       <c r="X24" t="n">
-        <v>7.980806886156446</v>
+        <v>10.09210632523398</v>
       </c>
       <c r="Y24" t="n">
-        <v>16.13425844913255</v>
+        <v>5.647825028809907</v>
       </c>
       <c r="Z24" t="n">
-        <v>42.35125000000001</v>
+        <v>24.63882008647984</v>
       </c>
       <c r="AA24" t="n">
-        <v>24.94781532066724</v>
+        <v>42.13580819695392</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.565751346693963</v>
+        <v>16.20137408025253</v>
       </c>
       <c r="AC24" t="n">
-        <v>10.7383968</v>
+        <v>14.95791930872016</v>
       </c>
       <c r="AD24" t="n">
-        <v>13.96816613902333</v>
+        <v>14.49116631519848</v>
       </c>
       <c r="AE24" t="n">
-        <v>15.42210550180955</v>
+        <v>12.6253780937822</v>
       </c>
       <c r="AF24" t="n">
-        <v>6.608277594762026</v>
+        <v>19.80996963668186</v>
       </c>
       <c r="AG24" t="n">
-        <v>16.46561982922816</v>
+        <v>8.698360385260365</v>
       </c>
       <c r="AH24" t="n">
-        <v>35.3525</v>
+        <v>14.48933706700375</v>
       </c>
       <c r="AI24" t="n">
-        <v>11.19248581169857</v>
+        <v>9.031163747635443</v>
       </c>
       <c r="AJ24" t="n">
-        <v>7.945171032982646</v>
+        <v>11.51248133550622</v>
       </c>
       <c r="AK24" t="n">
-        <v>6.4416648743849</v>
+        <v>10.07248346775651</v>
       </c>
       <c r="AL24" t="n">
-        <v>10.61425219836352</v>
+        <v>9.40401700347477</v>
       </c>
       <c r="AM24" t="n">
-        <v>8.887958368782325</v>
+        <v>1.80251590751899</v>
       </c>
       <c r="AN24" t="n">
-        <v>1.064413581357771</v>
+        <v>3.277158792777436</v>
       </c>
       <c r="AO24" t="n">
-        <v>9.089027686364274</v>
+        <v>2.994031012860229</v>
       </c>
       <c r="AP24" t="n">
-        <v>3.085882091164208</v>
+        <v>3.267364716155019</v>
       </c>
       <c r="AQ24" t="n">
-        <v>3.856323317042958</v>
+        <v>3.26954774479908</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.684624087735866</v>
+        <v>6.763702761831375</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.4276007591984052</v>
+        <v>3.966664994637466</v>
       </c>
       <c r="AT24" t="n">
-        <v>5.130488094072834</v>
+        <v>1.614761334087397</v>
       </c>
       <c r="AU24" t="n">
-        <v>2.139006044349332</v>
+        <v>0.4800119538968552</v>
       </c>
       <c r="AV24" t="n">
-        <v>2.012672275402042</v>
+        <v>6.250905511719984</v>
       </c>
       <c r="AW24" t="n">
-        <v>0.9755290887803305</v>
+        <v>4.175497868710361</v>
       </c>
       <c r="AX24" t="n">
-        <v>1.046118111198306</v>
+        <v>3.233268435253067</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>3.87</v>
+        <v>5.765203084164667</v>
       </c>
       <c r="D25" t="n">
-        <v>34.46</v>
+        <v>3.56329396472339</v>
       </c>
       <c r="E25" t="n">
-        <v>27.42</v>
+        <v>46.69223547003502</v>
       </c>
       <c r="F25" t="n">
-        <v>34.46</v>
+        <v>6.29870446241155</v>
       </c>
       <c r="G25" t="n">
-        <v>1.78</v>
+        <v>1.148644755370976</v>
       </c>
       <c r="H25" t="n">
-        <v>14.97</v>
+        <v>7.957666352383693</v>
       </c>
       <c r="I25" t="n">
-        <v>10.88</v>
+        <v>3.152369067707858</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>13.09872036823143</v>
       </c>
       <c r="K25" t="n">
-        <v>97.33</v>
+        <v>148.7952129663445</v>
       </c>
       <c r="L25" t="n">
-        <v>57.03</v>
+        <v>12.43382566269402</v>
       </c>
       <c r="M25" t="n">
-        <v>64.06999999999999</v>
+        <v>82.29794817624986</v>
       </c>
       <c r="N25" t="n">
-        <v>110.67</v>
+        <v>1037.927687975363</v>
       </c>
       <c r="O25" t="n">
-        <v>67.03</v>
+        <v>30.16940968323416</v>
       </c>
       <c r="P25" t="n">
-        <v>113.13</v>
+        <v>123.4199887817066</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.42</v>
+        <v>120.8288904594777</v>
       </c>
       <c r="R25" t="n">
-        <v>42.87</v>
+        <v>13.67257387898715</v>
       </c>
       <c r="S25" t="n">
-        <v>37.39</v>
+        <v>22.22458539841827</v>
       </c>
       <c r="T25" t="n">
-        <v>15.77719385124781</v>
+        <v>5.664259028510155</v>
       </c>
       <c r="U25" t="n">
-        <v>39.03</v>
+        <v>16.4335457575821</v>
       </c>
       <c r="V25" t="n">
-        <v>69.48999999999999</v>
+        <v>37.69068456354429</v>
       </c>
       <c r="W25" t="n">
-        <v>15.59</v>
+        <v>3.37254429636811</v>
       </c>
       <c r="X25" t="n">
-        <v>9.869999999999999</v>
+        <v>26.80797922696551</v>
       </c>
       <c r="Y25" t="n">
-        <v>20.63</v>
+        <v>1.260315860167314</v>
       </c>
       <c r="Z25" t="n">
-        <v>4.06</v>
+        <v>13.30924635906722</v>
       </c>
       <c r="AA25" t="n">
-        <v>5.2</v>
+        <v>2.909449258355848</v>
       </c>
       <c r="AB25" t="n">
-        <v>27.52</v>
+        <v>6.6667439040817</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.61</v>
+        <v>11.58128068052225</v>
       </c>
       <c r="AD25" t="n">
-        <v>1.68</v>
+        <v>6.399287607381384</v>
       </c>
       <c r="AE25" t="n">
-        <v>6.7</v>
+        <v>4.7027038784842</v>
       </c>
       <c r="AF25" t="n">
-        <v>2.37</v>
+        <v>6.03435606810663</v>
       </c>
       <c r="AG25" t="n">
-        <v>6.97</v>
+        <v>6.29480313280299</v>
       </c>
       <c r="AH25" t="n">
-        <v>9.91</v>
+        <v>9.532075441913404</v>
       </c>
       <c r="AI25" t="n">
-        <v>48.23</v>
+        <v>9.278701782682159</v>
       </c>
       <c r="AJ25" t="n">
-        <v>16.81</v>
+        <v>18.74721654803971</v>
       </c>
       <c r="AK25" t="n">
-        <v>1.07</v>
+        <v>1.388840777582947</v>
       </c>
       <c r="AL25" t="n">
-        <v>2.73</v>
+        <v>2.007902209205862</v>
       </c>
       <c r="AM25" t="n">
-        <v>12.89</v>
+        <v>0.7017953141516342</v>
       </c>
       <c r="AN25" t="n">
-        <v>8.720000000000001</v>
+        <v>3.461468944836428</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.5050020016236233</v>
+        <v>3.761960218329558</v>
       </c>
       <c r="AP25" t="n">
-        <v>22.74</v>
+        <v>1.166757733166009</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.58</v>
+        <v>2.927858112932065</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.1</v>
+        <v>2.578160662991511</v>
       </c>
       <c r="AS25" t="n">
-        <v>6.31</v>
+        <v>18.06361162154449</v>
       </c>
       <c r="AT25" t="n">
-        <v>10.34</v>
+        <v>4.122511716631877</v>
       </c>
       <c r="AU25" t="n">
-        <v>7.53</v>
+        <v>19.04242774930495</v>
       </c>
       <c r="AV25" t="n">
-        <v>1</v>
+        <v>17.73462193821641</v>
       </c>
       <c r="AW25" t="n">
-        <v>28.04</v>
+        <v>1.458626866360962</v>
       </c>
       <c r="AX25" t="n">
-        <v>5.62</v>
+        <v>12.92217434612692</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>11.58883696526171</v>
+        <v>22.9007222747414</v>
       </c>
       <c r="D26" t="n">
-        <v>43.08325119409289</v>
+        <v>41.93368502931995</v>
       </c>
       <c r="E26" t="n">
-        <v>11.22406699874905</v>
+        <v>21.02562045164995</v>
       </c>
       <c r="F26" t="n">
-        <v>7.706908753063293</v>
+        <v>16.4952737028389</v>
       </c>
       <c r="G26" t="n">
-        <v>15.58916960669116</v>
+        <v>14.84169020006325</v>
       </c>
       <c r="H26" t="n">
-        <v>9.023048998600052</v>
+        <v>71.24569258743296</v>
       </c>
       <c r="I26" t="n">
-        <v>7.461479753431075</v>
+        <v>31.02551101194991</v>
       </c>
       <c r="J26" t="n">
-        <v>26.23742262748798</v>
+        <v>16.95415442972015</v>
       </c>
       <c r="K26" t="n">
-        <v>47.07402555136264</v>
+        <v>40.38994494470373</v>
       </c>
       <c r="L26" t="n">
-        <v>25.79334816636718</v>
+        <v>24.80821365129479</v>
       </c>
       <c r="M26" t="n">
-        <v>16.16058981326202</v>
+        <v>30.38700019115679</v>
       </c>
       <c r="N26" t="n">
-        <v>76.35799500792616</v>
+        <v>28.98761816480156</v>
       </c>
       <c r="O26" t="n">
-        <v>30.54113433445841</v>
+        <v>71.12444842177561</v>
       </c>
       <c r="P26" t="n">
-        <v>131.1462687971354</v>
+        <v>46.13797585667987</v>
       </c>
       <c r="Q26" t="n">
-        <v>44.15094279445852</v>
+        <v>61.47167348600154</v>
       </c>
       <c r="R26" t="n">
-        <v>28.38075315961642</v>
+        <v>115.0787099558427</v>
       </c>
       <c r="S26" t="n">
-        <v>35.67047859707283</v>
+        <v>15.52895475348874</v>
       </c>
       <c r="T26" t="n">
-        <v>22.89149348468512</v>
+        <v>43.46726888484569</v>
       </c>
       <c r="U26" t="n">
-        <v>37.51249652336152</v>
+        <v>43.02347430869433</v>
       </c>
       <c r="V26" t="n">
-        <v>37.50979491587961</v>
+        <v>117.7409035524239</v>
       </c>
       <c r="W26" t="n">
-        <v>87.04235214726202</v>
+        <v>45.64144993472782</v>
       </c>
       <c r="X26" t="n">
-        <v>102.4519653706615</v>
+        <v>155.658625807427</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.34907711440977</v>
+        <v>56.87484012598274</v>
       </c>
       <c r="Z26" t="n">
-        <v>169.0287352167147</v>
+        <v>79.90862962120717</v>
       </c>
       <c r="AA26" t="n">
-        <v>140.0481804160233</v>
+        <v>80.38497133115251</v>
       </c>
       <c r="AB26" t="n">
-        <v>68.07786635112882</v>
+        <v>73.94073021229143</v>
       </c>
       <c r="AC26" t="n">
-        <v>94.14057499999998</v>
+        <v>57.23689463048067</v>
       </c>
       <c r="AD26" t="n">
-        <v>144.6100944357706</v>
+        <v>134.8265746242187</v>
       </c>
       <c r="AE26" t="n">
-        <v>103.5320227448668</v>
+        <v>181.6029640715583</v>
       </c>
       <c r="AF26" t="n">
-        <v>140.3750823040305</v>
+        <v>75.46858326366825</v>
       </c>
       <c r="AG26" t="n">
-        <v>127.5490081181819</v>
+        <v>49.15977768344499</v>
       </c>
       <c r="AH26" t="n">
-        <v>133.6367967364737</v>
+        <v>137.0331571644057</v>
       </c>
       <c r="AI26" t="n">
-        <v>96.98857142857142</v>
+        <v>174.6376507698749</v>
       </c>
       <c r="AJ26" t="n">
-        <v>65.76860808882206</v>
+        <v>69.74541343925202</v>
       </c>
       <c r="AK26" t="n">
-        <v>121.5674691730594</v>
+        <v>58.69457186863144</v>
       </c>
       <c r="AL26" t="n">
-        <v>68.21371765199731</v>
+        <v>50.18653251772908</v>
       </c>
       <c r="AM26" t="n">
-        <v>29.40409201865501</v>
+        <v>58.67744566062726</v>
       </c>
       <c r="AN26" t="n">
-        <v>39.27188587980165</v>
+        <v>44.3871473117872</v>
       </c>
       <c r="AO26" t="n">
-        <v>17.77380896318562</v>
+        <v>23.36183284317002</v>
       </c>
       <c r="AP26" t="n">
-        <v>17.7622965789562</v>
+        <v>40.89373733349273</v>
       </c>
       <c r="AQ26" t="n">
-        <v>26.52692096094843</v>
+        <v>26.19461276209788</v>
       </c>
       <c r="AR26" t="n">
-        <v>23.69462019471348</v>
+        <v>17.984339250323</v>
       </c>
       <c r="AS26" t="n">
-        <v>23.19861185003245</v>
+        <v>22.76010658021947</v>
       </c>
       <c r="AT26" t="n">
-        <v>19.89642468804522</v>
+        <v>25.11345829772185</v>
       </c>
       <c r="AU26" t="n">
-        <v>18.88090747132541</v>
+        <v>22.5504972369284</v>
       </c>
       <c r="AV26" t="n">
-        <v>15.86601877071085</v>
+        <v>26.1651478659934</v>
       </c>
       <c r="AW26" t="n">
-        <v>63.84626727483965</v>
+        <v>15.38964374273423</v>
       </c>
       <c r="AX26" t="n">
-        <v>26.45626655348495</v>
+        <v>36.77605507814052</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>2.937559213740322</v>
+        <v>2.504786289812955</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02826624977377861</v>
+        <v>8.670045777807864</v>
       </c>
       <c r="E27" t="n">
-        <v>2.896402466731604</v>
+        <v>2.896959004505763</v>
       </c>
       <c r="F27" t="n">
-        <v>2.91160951502772</v>
+        <v>0.5113450287581556</v>
       </c>
       <c r="G27" t="n">
-        <v>2.298527324792544</v>
+        <v>3.786228340134104</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1831975259075033</v>
+        <v>1.543688062524724</v>
       </c>
       <c r="I27" t="n">
-        <v>3.357892825354386</v>
+        <v>6.587431585709281</v>
       </c>
       <c r="J27" t="n">
-        <v>2.62490614816956</v>
+        <v>3.82664023269129</v>
       </c>
       <c r="K27" t="n">
-        <v>3.990676001499326</v>
+        <v>1.083752894552073</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01467948156209232</v>
+        <v>17.9213786484008</v>
       </c>
       <c r="M27" t="n">
-        <v>5.864753248592458</v>
+        <v>3.996357021639957</v>
       </c>
       <c r="N27" t="n">
-        <v>0.4304522943949792</v>
+        <v>3.500148943043218</v>
       </c>
       <c r="O27" t="n">
-        <v>2.195060476569856</v>
+        <v>3.073536739718761</v>
       </c>
       <c r="P27" t="n">
-        <v>2.964469955678268</v>
+        <v>5.488356150354615</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.869722972159647</v>
+        <v>5.791613905958595</v>
       </c>
       <c r="R27" t="n">
-        <v>4.475012346064434</v>
+        <v>1.315767903613304</v>
       </c>
       <c r="S27" t="n">
-        <v>2.264920794304953</v>
+        <v>2.888712417458571</v>
       </c>
       <c r="T27" t="n">
-        <v>1.252474698522575</v>
+        <v>4.14436322483853</v>
       </c>
       <c r="U27" t="n">
-        <v>4.794212144630613</v>
+        <v>3.954249128198092</v>
       </c>
       <c r="V27" t="n">
-        <v>6.144039982963093</v>
+        <v>4.048880270572824</v>
       </c>
       <c r="W27" t="n">
-        <v>3.673414556656494</v>
+        <v>2.005422039603834</v>
       </c>
       <c r="X27" t="n">
-        <v>3.289663602071757</v>
+        <v>1.724000983268921</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.178876753095252</v>
+        <v>4.508283803226636</v>
       </c>
       <c r="Z27" t="n">
-        <v>3.987567009103492</v>
+        <v>3.19417843997436</v>
       </c>
       <c r="AA27" t="n">
-        <v>4.133211135563637</v>
+        <v>5.051334065739977</v>
       </c>
       <c r="AB27" t="n">
-        <v>4.042956242980989</v>
+        <v>4.042139051269574</v>
       </c>
       <c r="AC27" t="n">
-        <v>6.857773311844713</v>
+        <v>3.524285707611393</v>
       </c>
       <c r="AD27" t="n">
-        <v>3.640988296976013</v>
+        <v>10.54438722703004</v>
       </c>
       <c r="AE27" t="n">
-        <v>8.316752596035146</v>
+        <v>4.923520250573095</v>
       </c>
       <c r="AF27" t="n">
-        <v>5.390143772623224</v>
+        <v>7.70169353595685</v>
       </c>
       <c r="AG27" t="n">
-        <v>6.900198146683083</v>
+        <v>6.037174287604158</v>
       </c>
       <c r="AH27" t="n">
-        <v>5.811254507571287</v>
+        <v>5.936056843354835</v>
       </c>
       <c r="AI27" t="n">
-        <v>5.836135429947584</v>
+        <v>6.826240074271048</v>
       </c>
       <c r="AJ27" t="n">
-        <v>5.874064000000001</v>
+        <v>3.295769336523248</v>
       </c>
       <c r="AK27" t="n">
-        <v>3.182861161907462</v>
+        <v>3.163854658973822</v>
       </c>
       <c r="AL27" t="n">
-        <v>6.475955307375087</v>
+        <v>4.421283594096487</v>
       </c>
       <c r="AM27" t="n">
-        <v>4.256504000347635</v>
+        <v>4.453796168446789</v>
       </c>
       <c r="AN27" t="n">
-        <v>2.882483870752044</v>
+        <v>2.016266466604462</v>
       </c>
       <c r="AO27" t="n">
-        <v>7.945679266694023</v>
+        <v>4.040688330302075</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.433116036505867</v>
+        <v>10.25125273501794</v>
       </c>
       <c r="AQ27" t="n">
-        <v>4.106933190979699</v>
+        <v>4.266175573720889</v>
       </c>
       <c r="AR27" t="n">
-        <v>2.768035426731079</v>
+        <v>3.514482493716685</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.057846153846154</v>
+        <v>1.212123579432029</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.711815561959654</v>
+        <v>9.976008731024589</v>
       </c>
       <c r="AU27" t="n">
-        <v>2.675714285714286</v>
+        <v>2.113520530697118</v>
       </c>
       <c r="AV27" t="n">
-        <v>3.590539711009137</v>
+        <v>5.336470417902251</v>
       </c>
       <c r="AW27" t="n">
-        <v>3.669324995266138</v>
+        <v>8.486439536905074</v>
       </c>
       <c r="AX27" t="n">
-        <v>3.164527204856165</v>
+        <v>9.099046486737913</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>5.218060903239566</v>
+        <v>24.89650817610963</v>
       </c>
       <c r="D28" t="n">
-        <v>4.260252600055112</v>
+        <v>28.72059332781735</v>
       </c>
       <c r="E28" t="n">
-        <v>6.322872367875954</v>
+        <v>6.340669932713595</v>
       </c>
       <c r="F28" t="n">
-        <v>6.809791559663664</v>
+        <v>11.39723708824954</v>
       </c>
       <c r="G28" t="n">
-        <v>12.47215785762578</v>
+        <v>8.302283282787879</v>
       </c>
       <c r="H28" t="n">
-        <v>76.01146716646684</v>
+        <v>13.17027940066692</v>
       </c>
       <c r="I28" t="n">
-        <v>42.71804508840248</v>
+        <v>36.32961458811491</v>
       </c>
       <c r="J28" t="n">
-        <v>164.3642160069541</v>
+        <v>56.33133385490829</v>
       </c>
       <c r="K28" t="n">
-        <v>152.2057918606496</v>
+        <v>48.98249683131049</v>
       </c>
       <c r="L28" t="n">
-        <v>50.32865441460773</v>
+        <v>28.93274132538575</v>
       </c>
       <c r="M28" t="n">
-        <v>17.03028901734104</v>
+        <v>66.72838704429955</v>
       </c>
       <c r="N28" t="n">
-        <v>17.29006228931079</v>
+        <v>15.97249845327867</v>
       </c>
       <c r="O28" t="n">
-        <v>38.15050350923667</v>
+        <v>133.1264280426213</v>
       </c>
       <c r="P28" t="n">
-        <v>111.8407109597794</v>
+        <v>181.6782246912943</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.44116231757774</v>
+        <v>72.80509503130835</v>
       </c>
       <c r="R28" t="n">
-        <v>53.43978037741558</v>
+        <v>57.99815484805171</v>
       </c>
       <c r="S28" t="n">
-        <v>148.1232374915429</v>
+        <v>35.70617010501814</v>
       </c>
       <c r="T28" t="n">
-        <v>26.23845998880806</v>
+        <v>23.98973130178849</v>
       </c>
       <c r="U28" t="n">
-        <v>26.00710478575906</v>
+        <v>38.21220294330335</v>
       </c>
       <c r="V28" t="n">
-        <v>65.56596785435192</v>
+        <v>32.71392901085065</v>
       </c>
       <c r="W28" t="n">
-        <v>56.5562057374085</v>
+        <v>81.58642447341272</v>
       </c>
       <c r="X28" t="n">
-        <v>146.8911866153937</v>
+        <v>47.37777055819927</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.64466403088477</v>
+        <v>32.12883431490562</v>
       </c>
       <c r="Z28" t="n">
-        <v>41.91018371717324</v>
+        <v>89.2631075044135</v>
       </c>
       <c r="AA28" t="n">
-        <v>101.9208280276697</v>
+        <v>35.36009605988182</v>
       </c>
       <c r="AB28" t="n">
-        <v>81.31175298740096</v>
+        <v>55.01779129017074</v>
       </c>
       <c r="AC28" t="n">
-        <v>63.80310255525576</v>
+        <v>92.49648534591994</v>
       </c>
       <c r="AD28" t="n">
-        <v>59.10717160255167</v>
+        <v>30.44297633946102</v>
       </c>
       <c r="AE28" t="n">
-        <v>42.69819171541124</v>
+        <v>87.72960154246942</v>
       </c>
       <c r="AF28" t="n">
-        <v>43.57667532467533</v>
+        <v>51.93158871006302</v>
       </c>
       <c r="AG28" t="n">
-        <v>80.98111549826113</v>
+        <v>55.75071729313751</v>
       </c>
       <c r="AH28" t="n">
-        <v>63.78809309827559</v>
+        <v>62.59187865482543</v>
       </c>
       <c r="AI28" t="n">
-        <v>38.25587729200276</v>
+        <v>68.63998945953045</v>
       </c>
       <c r="AJ28" t="n">
-        <v>37.13079277209147</v>
+        <v>24.27875551097353</v>
       </c>
       <c r="AK28" t="n">
-        <v>21.59435399452018</v>
+        <v>22.71421905946434</v>
       </c>
       <c r="AL28" t="n">
-        <v>43.14810509956587</v>
+        <v>15.30907800091867</v>
       </c>
       <c r="AM28" t="n">
-        <v>49.62861242857144</v>
+        <v>60.50943478366878</v>
       </c>
       <c r="AN28" t="n">
-        <v>34.49862378580854</v>
+        <v>21.52560022394172</v>
       </c>
       <c r="AO28" t="n">
-        <v>17.62965728778974</v>
+        <v>15.48857434184742</v>
       </c>
       <c r="AP28" t="n">
-        <v>19.22042697549277</v>
+        <v>11.58325344834205</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12.31413650912616</v>
+        <v>32.28902996497842</v>
       </c>
       <c r="AR28" t="n">
-        <v>10.41066734235721</v>
+        <v>36.27186245565729</v>
       </c>
       <c r="AS28" t="n">
-        <v>7.457198911009097</v>
+        <v>30.45878417159718</v>
       </c>
       <c r="AT28" t="n">
-        <v>9.832368673039127</v>
+        <v>13.67654008321927</v>
       </c>
       <c r="AU28" t="n">
-        <v>8.826667058060956</v>
+        <v>23.3606258035668</v>
       </c>
       <c r="AV28" t="n">
-        <v>10.86909868456177</v>
+        <v>9.787825390456771</v>
       </c>
       <c r="AW28" t="n">
-        <v>8.391879233577365</v>
+        <v>15.62198815693476</v>
       </c>
       <c r="AX28" t="n">
-        <v>5.206482194174379</v>
+        <v>16.29748458087748</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>23.29200338638153</v>
+        <v>31.6516771512972</v>
       </c>
       <c r="D29" t="n">
-        <v>14.22076989856367</v>
+        <v>25.15741935144561</v>
       </c>
       <c r="E29" t="n">
-        <v>3.469941597442558</v>
+        <v>10.46861699047322</v>
       </c>
       <c r="F29" t="n">
-        <v>22.87022567276572</v>
+        <v>172.9681652621026</v>
       </c>
       <c r="G29" t="n">
-        <v>34.77673739535413</v>
+        <v>6.834050966879269</v>
       </c>
       <c r="H29" t="n">
-        <v>6.213178270458754</v>
+        <v>9.116677459757417</v>
       </c>
       <c r="I29" t="n">
-        <v>8.746584133620766</v>
+        <v>139.5137242858499</v>
       </c>
       <c r="J29" t="n">
-        <v>64.3629636581784</v>
+        <v>12.90449463788346</v>
       </c>
       <c r="K29" t="n">
-        <v>49.71747643482354</v>
+        <v>20.91846058617908</v>
       </c>
       <c r="L29" t="n">
-        <v>17.97238108191491</v>
+        <v>16.95669944776291</v>
       </c>
       <c r="M29" t="n">
-        <v>39.96365066491197</v>
+        <v>16.94624387402299</v>
       </c>
       <c r="N29" t="n">
-        <v>24.08708906945395</v>
+        <v>27.05305680042356</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>43.32861426830264</v>
       </c>
       <c r="P29" t="n">
-        <v>23.23759840272179</v>
+        <v>73.61948468291642</v>
       </c>
       <c r="Q29" t="n">
-        <v>78.90154887937243</v>
+        <v>147.2705976004159</v>
       </c>
       <c r="R29" t="n">
-        <v>13.37746695905042</v>
+        <v>21.80303110396232</v>
       </c>
       <c r="S29" t="n">
-        <v>44.05203522588315</v>
+        <v>88.68882929216572</v>
       </c>
       <c r="T29" t="n">
-        <v>56.21650649999996</v>
+        <v>71.49385270838542</v>
       </c>
       <c r="U29" t="n">
-        <v>67.45289854569138</v>
+        <v>40.22212666366029</v>
       </c>
       <c r="V29" t="n">
-        <v>40.37056661024738</v>
+        <v>36.16731447839324</v>
       </c>
       <c r="W29" t="n">
-        <v>59.6979036783418</v>
+        <v>42.55360933503779</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>28.86490650724268</v>
       </c>
       <c r="Y29" t="n">
-        <v>33.91274042952911</v>
+        <v>20.16948065488765</v>
       </c>
       <c r="Z29" t="n">
-        <v>61.75165054751052</v>
+        <v>28.22761840281978</v>
       </c>
       <c r="AA29" t="n">
-        <v>35.06377404364821</v>
+        <v>35.04302566535014</v>
       </c>
       <c r="AB29" t="n">
-        <v>39.87606374906407</v>
+        <v>26.10370854152281</v>
       </c>
       <c r="AC29" t="n">
-        <v>24.85433526592204</v>
+        <v>36.41242569379892</v>
       </c>
       <c r="AD29" t="n">
-        <v>34.75645422339579</v>
+        <v>53.29658284924989</v>
       </c>
       <c r="AE29" t="n">
-        <v>46.47365132244769</v>
+        <v>62.45404936024588</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.7334302426224273</v>
+        <v>194.095358972358</v>
       </c>
       <c r="AG29" t="n">
-        <v>24.5530117398375</v>
+        <v>11.82476884052871</v>
       </c>
       <c r="AH29" t="n">
-        <v>10.92981308901139</v>
+        <v>27.53414295577546</v>
       </c>
       <c r="AI29" t="n">
-        <v>75.25470466089766</v>
+        <v>31.42017770645371</v>
       </c>
       <c r="AJ29" t="n">
-        <v>16.95543982748147</v>
+        <v>35.5981870834294</v>
       </c>
       <c r="AK29" t="n">
-        <v>11.59420651889152</v>
+        <v>9.215264179369607</v>
       </c>
       <c r="AL29" t="n">
-        <v>24.32959092673979</v>
+        <v>31.05444213264122</v>
       </c>
       <c r="AM29" t="n">
-        <v>43.13452951847661</v>
+        <v>43.72309331152822</v>
       </c>
       <c r="AN29" t="n">
-        <v>36.03325960302521</v>
+        <v>36.30731942812537</v>
       </c>
       <c r="AO29" t="n">
-        <v>20.68820541499354</v>
+        <v>9.626152150987314</v>
       </c>
       <c r="AP29" t="n">
-        <v>20.9909114354816</v>
+        <v>18.1197407255825</v>
       </c>
       <c r="AQ29" t="n">
-        <v>34.62842568015498</v>
+        <v>44.5649724912447</v>
       </c>
       <c r="AR29" t="n">
-        <v>34.16294411018384</v>
+        <v>19.33786088689673</v>
       </c>
       <c r="AS29" t="n">
-        <v>33.88927039679292</v>
+        <v>39.15387219072265</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.4195887468602022</v>
+        <v>54.23663557287816</v>
       </c>
       <c r="AU29" t="n">
-        <v>1.599161342329981</v>
+        <v>21.76081152444038</v>
       </c>
       <c r="AV29" t="n">
-        <v>13.66396256708081</v>
+        <v>22.88404536120165</v>
       </c>
       <c r="AW29" t="n">
-        <v>27.94619177684429</v>
+        <v>9.035902806586028</v>
       </c>
       <c r="AX29" t="n">
-        <v>20.89776237969102</v>
+        <v>11.18084217517791</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>3.194161686651666</v>
+        <v>2.925516550694415</v>
       </c>
       <c r="D30" t="n">
-        <v>5.599377802027153</v>
+        <v>22.53402602711944</v>
       </c>
       <c r="E30" t="n">
-        <v>4.802931053283261</v>
+        <v>8.37549573017046</v>
       </c>
       <c r="F30" t="n">
-        <v>1.253446429006111</v>
+        <v>10.20768301505534</v>
       </c>
       <c r="G30" t="n">
-        <v>3.371558990901773</v>
+        <v>17.16596435261806</v>
       </c>
       <c r="H30" t="n">
-        <v>25.71910557903204</v>
+        <v>10.16631221763863</v>
       </c>
       <c r="I30" t="n">
-        <v>48.08331068827936</v>
+        <v>4.812822790271285</v>
       </c>
       <c r="J30" t="n">
-        <v>30.930115705147</v>
+        <v>85.15313449096578</v>
       </c>
       <c r="K30" t="n">
-        <v>25.25489391858185</v>
+        <v>56.31192977500026</v>
       </c>
       <c r="L30" t="n">
-        <v>18.23721484531161</v>
+        <v>71.33346561548974</v>
       </c>
       <c r="M30" t="n">
-        <v>36.75419710210382</v>
+        <v>13.47512329197999</v>
       </c>
       <c r="N30" t="n">
-        <v>75.61874999999999</v>
+        <v>20.92942777617606</v>
       </c>
       <c r="O30" t="n">
-        <v>14.75185548953805</v>
+        <v>38.70717852615215</v>
       </c>
       <c r="P30" t="n">
-        <v>57.52571909759205</v>
+        <v>9.137409533000417</v>
       </c>
       <c r="Q30" t="n">
-        <v>24.13405693298105</v>
+        <v>21.23999915937485</v>
       </c>
       <c r="R30" t="n">
-        <v>24.15774789734325</v>
+        <v>41.03425040156435</v>
       </c>
       <c r="S30" t="n">
-        <v>18.1203310127379</v>
+        <v>40.53285310160407</v>
       </c>
       <c r="T30" t="n">
-        <v>22.2744120525162</v>
+        <v>38.67526425471286</v>
       </c>
       <c r="U30" t="n">
-        <v>49.48496817412357</v>
+        <v>22.72684391685526</v>
       </c>
       <c r="V30" t="n">
-        <v>10.30679855053986</v>
+        <v>19.42783014474656</v>
       </c>
       <c r="W30" t="n">
-        <v>25.318768</v>
+        <v>35.03250494083345</v>
       </c>
       <c r="X30" t="n">
-        <v>22.1456334003654</v>
+        <v>32.79686475046677</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.61873005714354</v>
+        <v>11.20845197222516</v>
       </c>
       <c r="Z30" t="n">
-        <v>11.52803110118979</v>
+        <v>42.27183125734483</v>
       </c>
       <c r="AA30" t="n">
-        <v>15.37088924801639</v>
+        <v>40.6410318504335</v>
       </c>
       <c r="AB30" t="n">
-        <v>7.350825796398624</v>
+        <v>16.16649322861036</v>
       </c>
       <c r="AC30" t="n">
-        <v>13.64728518825117</v>
+        <v>22.66282045942539</v>
       </c>
       <c r="AD30" t="n">
-        <v>20.97825699241065</v>
+        <v>18.8713802658263</v>
       </c>
       <c r="AE30" t="n">
-        <v>24.49357025855488</v>
+        <v>12.18503560714391</v>
       </c>
       <c r="AF30" t="n">
-        <v>23.27954351228275</v>
+        <v>5.971457337670884</v>
       </c>
       <c r="AG30" t="n">
-        <v>23.42234810603558</v>
+        <v>10.07557326245297</v>
       </c>
       <c r="AH30" t="n">
-        <v>17.10514208048336</v>
+        <v>10.62685771402324</v>
       </c>
       <c r="AI30" t="n">
-        <v>9.079760285528149</v>
+        <v>20.41963582256005</v>
       </c>
       <c r="AJ30" t="n">
-        <v>2.030948931605902</v>
+        <v>23.93709034899559</v>
       </c>
       <c r="AK30" t="n">
-        <v>4.614803561107158</v>
+        <v>9.631068064702365</v>
       </c>
       <c r="AL30" t="n">
-        <v>1.8323688</v>
+        <v>4.806118876320338</v>
       </c>
       <c r="AM30" t="n">
-        <v>3.731278943197958</v>
+        <v>7.522512529740574</v>
       </c>
       <c r="AN30" t="n">
-        <v>1.512859748519152</v>
+        <v>3.87779780008688</v>
       </c>
       <c r="AO30" t="n">
-        <v>3.59782326157023</v>
+        <v>3.086532948733756</v>
       </c>
       <c r="AP30" t="n">
-        <v>3.897095449906911</v>
+        <v>3.203926145020844</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.700012364527343</v>
+        <v>6.913735560884158</v>
       </c>
       <c r="AR30" t="n">
-        <v>1.925714285714285</v>
+        <v>2.096666948221899</v>
       </c>
       <c r="AS30" t="n">
-        <v>4.002860958357448</v>
+        <v>1.830302403715433</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.391339447627787</v>
+        <v>1.004076744953857</v>
       </c>
       <c r="AU30" t="n">
-        <v>2.906381435778443</v>
+        <v>2.636554635340833</v>
       </c>
       <c r="AV30" t="n">
-        <v>3.310719747479363</v>
+        <v>7.343508461678823</v>
       </c>
       <c r="AW30" t="n">
-        <v>0.05118497560316019</v>
+        <v>3.898941006955979</v>
       </c>
       <c r="AX30" t="n">
-        <v>4.47775776676278</v>
+        <v>1.05586749727836</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>5.63</v>
+        <v>4.369060120205874</v>
       </c>
       <c r="D31" t="n">
-        <v>3.94</v>
+        <v>53.57044899089641</v>
       </c>
       <c r="E31" t="n">
-        <v>8.68</v>
+        <v>1.522249820297712</v>
       </c>
       <c r="F31" t="n">
-        <v>12.07</v>
+        <v>5.475203265598857</v>
       </c>
       <c r="G31" t="n">
-        <v>29.74</v>
+        <v>4.458032433941853</v>
       </c>
       <c r="H31" t="n">
-        <v>5.71777407420877</v>
+        <v>3.842443216335611</v>
       </c>
       <c r="I31" t="n">
-        <v>16.88</v>
+        <v>11.77675854992205</v>
       </c>
       <c r="J31" t="n">
-        <v>8.65</v>
+        <v>5.681171831814901</v>
       </c>
       <c r="K31" t="n">
-        <v>30.23</v>
+        <v>45.38059143067783</v>
       </c>
       <c r="L31" t="n">
-        <v>31.93</v>
+        <v>17.627587282973</v>
       </c>
       <c r="M31" t="n">
-        <v>64.06999999999999</v>
+        <v>6.767771764322714</v>
       </c>
       <c r="N31" t="n">
-        <v>31.33</v>
+        <v>49.57580936376822</v>
       </c>
       <c r="O31" t="n">
-        <v>60.1</v>
+        <v>33.0207185066071</v>
       </c>
       <c r="P31" t="n">
-        <v>30.39</v>
+        <v>38.70119644277025</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.31999999999999</v>
+        <v>63.73728100144325</v>
       </c>
       <c r="R31" t="n">
-        <v>43.94</v>
+        <v>39.94170359966152</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>15.64019157289115</v>
       </c>
       <c r="T31" t="n">
-        <v>24.29</v>
+        <v>71.39815104134992</v>
       </c>
       <c r="U31" t="n">
-        <v>25.42</v>
+        <v>7.009918906921102</v>
       </c>
       <c r="V31" t="n">
-        <v>7.590982290254129</v>
+        <v>22.28204774214859</v>
       </c>
       <c r="W31" t="n">
-        <v>10.00966149530994</v>
+        <v>11.72152758466375</v>
       </c>
       <c r="X31" t="n">
-        <v>6.26098025</v>
+        <v>10.83554173719283</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.87</v>
+        <v>6.149310087877096</v>
       </c>
       <c r="Z31" t="n">
-        <v>37.13</v>
+        <v>11.12026074725177</v>
       </c>
       <c r="AA31" t="n">
-        <v>68.40428571428571</v>
+        <v>13.63667387895294</v>
       </c>
       <c r="AB31" t="n">
-        <v>27.52</v>
+        <v>45.6568486403676</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.61</v>
+        <v>9.25598068906814</v>
       </c>
       <c r="AD31" t="n">
-        <v>14.77</v>
+        <v>21.67102185956027</v>
       </c>
       <c r="AE31" t="n">
-        <v>2.29</v>
+        <v>2.109728841554356</v>
       </c>
       <c r="AF31" t="n">
-        <v>3</v>
+        <v>11.48280429433559</v>
       </c>
       <c r="AG31" t="n">
-        <v>20.67</v>
+        <v>1.2279429470232</v>
       </c>
       <c r="AH31" t="n">
-        <v>2.25</v>
+        <v>6.15990153764399</v>
       </c>
       <c r="AI31" t="n">
-        <v>2.66</v>
+        <v>0.9350905173781158</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0.3765820509808342</v>
+        <v>0.6289489738156321</v>
       </c>
       <c r="AK31" t="n">
-        <v>5.84</v>
+        <v>128.3844112571507</v>
       </c>
       <c r="AL31" t="n">
-        <v>20.9</v>
+        <v>3.210395371019918</v>
       </c>
       <c r="AM31" t="n">
-        <v>71.84</v>
+        <v>301.1330686702414</v>
       </c>
       <c r="AN31" t="n">
-        <v>23.87</v>
+        <v>5.501182422239008</v>
       </c>
       <c r="AO31" t="n">
-        <v>8.77</v>
+        <v>2.561312665328227</v>
       </c>
       <c r="AP31" t="n">
-        <v>6.83</v>
+        <v>1.237256374955048</v>
       </c>
       <c r="AQ31" t="n">
-        <v>3.94</v>
+        <v>2.602734933235458</v>
       </c>
       <c r="AR31" t="n">
-        <v>69</v>
+        <v>16.87481887344473</v>
       </c>
       <c r="AS31" t="n">
-        <v>11.12</v>
+        <v>17.44968193550457</v>
       </c>
       <c r="AT31" t="n">
-        <v>6.61</v>
+        <v>3.417034622297427</v>
       </c>
       <c r="AU31" t="n">
-        <v>12.27</v>
+        <v>34.69376002033055</v>
       </c>
       <c r="AV31" t="n">
-        <v>15.02</v>
+        <v>15.74403110270445</v>
       </c>
       <c r="AW31" t="n">
-        <v>8.17</v>
+        <v>5.449985773403475</v>
       </c>
       <c r="AX31" t="n">
-        <v>19.69</v>
+        <v>4.471602423506615</v>
       </c>
     </row>
   </sheetData>

--- a/escenarios_montecarlo/escenario_006.xlsx
+++ b/escenarios_montecarlo/escenario_006.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>35.51111117069431</v>
+        <v>20.29128355453849</v>
       </c>
       <c r="D2" t="n">
-        <v>22.04525078321906</v>
+        <v>47.32633018671658</v>
       </c>
       <c r="E2" t="n">
-        <v>17.74566482177322</v>
+        <v>20.69728964635975</v>
       </c>
       <c r="F2" t="n">
-        <v>60.1535278878815</v>
+        <v>11.34556126746252</v>
       </c>
       <c r="G2" t="n">
-        <v>60.62852258541977</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>18.64906443369748</v>
+        <v>22.45487706383366</v>
       </c>
       <c r="I2" t="n">
-        <v>22.35191771289616</v>
+        <v>4.774282404128893</v>
       </c>
       <c r="J2" t="n">
-        <v>55.23414453274547</v>
+        <v>84.69838043647081</v>
       </c>
       <c r="K2" t="n">
-        <v>379.7432320153469</v>
+        <v>5.221352696974682</v>
       </c>
       <c r="L2" t="n">
-        <v>52.34439833280268</v>
+        <v>57.23927248404681</v>
       </c>
       <c r="M2" t="n">
-        <v>80.57775378096203</v>
+        <v>93.67378748992519</v>
       </c>
       <c r="N2" t="n">
-        <v>49.57474473208839</v>
+        <v>283.549312032958</v>
       </c>
       <c r="O2" t="n">
-        <v>55.69612895886488</v>
+        <v>63.82998035332233</v>
       </c>
       <c r="P2" t="n">
-        <v>111.2938674900587</v>
+        <v>57.20052057285492</v>
       </c>
       <c r="Q2" t="n">
-        <v>59.88072790827965</v>
+        <v>50.67165428026488</v>
       </c>
       <c r="R2" t="n">
-        <v>105.2196506654299</v>
+        <v>58.68205684128275</v>
       </c>
       <c r="S2" t="n">
-        <v>25.97181649395165</v>
+        <v>41.43832072646799</v>
       </c>
       <c r="T2" t="n">
-        <v>71.55051704238578</v>
+        <v>43.97025917912669</v>
       </c>
       <c r="U2" t="n">
-        <v>119.9309208955855</v>
+        <v>44.44559507579242</v>
       </c>
       <c r="V2" t="n">
-        <v>56.19967696591213</v>
+        <v>41.04973685919501</v>
       </c>
       <c r="W2" t="n">
-        <v>32.39684425526393</v>
+        <v>42.59941378275188</v>
       </c>
       <c r="X2" t="n">
-        <v>219.2270572584331</v>
+        <v>85.54168480519749</v>
       </c>
       <c r="Y2" t="n">
-        <v>46.5409512497268</v>
+        <v>76.38254675751966</v>
       </c>
       <c r="Z2" t="n">
-        <v>86.8108964338297</v>
+        <v>99.85697835717104</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.28806448583552</v>
+        <v>83.48916318216182</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.5492882923419</v>
+        <v>26.41857446239515</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.98184993475851</v>
+        <v>128.4514909485272</v>
       </c>
       <c r="AD2" t="n">
-        <v>76.04949024911157</v>
+        <v>154.691804227657</v>
       </c>
       <c r="AE2" t="n">
-        <v>184.575440122042</v>
+        <v>161.6822167817024</v>
       </c>
       <c r="AF2" t="n">
-        <v>154.863180946223</v>
+        <v>177.1317850863682</v>
       </c>
       <c r="AG2" t="n">
-        <v>157.0870560574734</v>
+        <v>77.56329897512978</v>
       </c>
       <c r="AH2" t="n">
-        <v>96.97620685033316</v>
+        <v>80.04078582459117</v>
       </c>
       <c r="AI2" t="n">
-        <v>180.2679825970715</v>
+        <v>25.55419218653829</v>
       </c>
       <c r="AJ2" t="n">
-        <v>52.62809094052234</v>
+        <v>87.5792117684819</v>
       </c>
       <c r="AK2" t="n">
-        <v>42.37061394131444</v>
+        <v>55.82397491675992</v>
       </c>
       <c r="AL2" t="n">
-        <v>25.99794009983846</v>
+        <v>84.29318063576684</v>
       </c>
       <c r="AM2" t="n">
-        <v>42.42748652376801</v>
+        <v>16.20795943972929</v>
       </c>
       <c r="AN2" t="n">
-        <v>42.4929173823437</v>
+        <v>26.93276124647591</v>
       </c>
       <c r="AO2" t="n">
-        <v>27.11844265218133</v>
+        <v>35.59520472670509</v>
       </c>
       <c r="AP2" t="n">
-        <v>33.1449254321516</v>
+        <v>20.80234253635463</v>
       </c>
       <c r="AQ2" t="n">
-        <v>28.35544710124648</v>
+        <v>40.85051449956757</v>
       </c>
       <c r="AR2" t="n">
-        <v>26.59262179684207</v>
+        <v>37.89218585519024</v>
       </c>
       <c r="AS2" t="n">
-        <v>16.03656985707937</v>
+        <v>16.16031906377423</v>
       </c>
       <c r="AT2" t="n">
-        <v>19.33815972153609</v>
+        <v>29.66314460968227</v>
       </c>
       <c r="AU2" t="n">
-        <v>44.46168778384181</v>
+        <v>24.58929091012638</v>
       </c>
       <c r="AV2" t="n">
-        <v>13.55008555949555</v>
+        <v>22.23764346429663</v>
       </c>
       <c r="AW2" t="n">
-        <v>20.16482343221852</v>
+        <v>21.333355701592</v>
       </c>
       <c r="AX2" t="n">
-        <v>25.48076873562132</v>
+        <v>24.48097145181256</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>2.747481961098924</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3506289705648531</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7893590666006555</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.112230103452339</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9633172757129327</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8434925882051107</v>
+        <v>4.850854144789956</v>
       </c>
       <c r="I3" t="n">
-        <v>3.197627584855013</v>
+        <v>4.205303106218797</v>
       </c>
       <c r="J3" t="n">
-        <v>123.9363494743687</v>
+        <v>2.59837498977949</v>
       </c>
       <c r="K3" t="n">
-        <v>3.122346391649186</v>
+        <v>1.274755252382207</v>
       </c>
       <c r="L3" t="n">
-        <v>5.985491642035867</v>
+        <v>3.135888372714705</v>
       </c>
       <c r="M3" t="n">
-        <v>1.751942740533097</v>
+        <v>1.471544607589011</v>
       </c>
       <c r="N3" t="n">
-        <v>6.611968562084797</v>
+        <v>0.9268618170290912</v>
       </c>
       <c r="O3" t="n">
-        <v>20.27984140646831</v>
+        <v>5.890016689986766</v>
       </c>
       <c r="P3" t="n">
-        <v>3.393238783711544</v>
+        <v>2.962971091953464</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8691743474406156</v>
+        <v>0.7063828751068375</v>
       </c>
       <c r="R3" t="n">
-        <v>2.33538513559229</v>
+        <v>4.597014953363387</v>
       </c>
       <c r="S3" t="n">
-        <v>3.609976916235931</v>
+        <v>3.489915801458454</v>
       </c>
       <c r="T3" t="n">
-        <v>6.952440717483258</v>
+        <v>2.165913641588493</v>
       </c>
       <c r="U3" t="n">
-        <v>3.95277936416211</v>
+        <v>5.419156660258839</v>
       </c>
       <c r="V3" t="n">
-        <v>3.576200418757377</v>
+        <v>2.54353787452763</v>
       </c>
       <c r="W3" t="n">
-        <v>6.994455677920719</v>
+        <v>4.493137400783768</v>
       </c>
       <c r="X3" t="n">
-        <v>5.118471039090059</v>
+        <v>4.54857321482821</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.193452107470629</v>
+        <v>1.474029981691898</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.653214365604892</v>
+        <v>1.816729400414131</v>
       </c>
       <c r="AA3" t="n">
-        <v>3.443880914956478</v>
+        <v>6.122323193016781</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.84260937817495</v>
+        <v>2.513009533060765</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.762397754485691</v>
+        <v>5.041443623180112</v>
       </c>
       <c r="AD3" t="n">
-        <v>4.340077064920611</v>
+        <v>1.854091860865082</v>
       </c>
       <c r="AE3" t="n">
-        <v>3.319664826113669</v>
+        <v>4.919339391290676</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.971501940908709</v>
+        <v>0.6950193537304328</v>
       </c>
       <c r="AG3" t="n">
-        <v>6.453469717722819</v>
+        <v>3.754056255629199</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.920003516483506</v>
+        <v>3.682689997212264</v>
       </c>
       <c r="AI3" t="n">
-        <v>8.935873819969924</v>
+        <v>6.544939054142652</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5.050597317167735</v>
+        <v>6.614623330809328</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.765732151804136</v>
+        <v>3.172565139892046</v>
       </c>
       <c r="AL3" t="n">
-        <v>3.706199530738454</v>
+        <v>2.801041759078461</v>
       </c>
       <c r="AM3" t="n">
-        <v>10.8513491777309</v>
+        <v>5.99620110019678</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.192656473488306</v>
+        <v>5.5657747068983</v>
       </c>
       <c r="AO3" t="n">
-        <v>2.181662441304711</v>
+        <v>5.880049331608192</v>
       </c>
       <c r="AP3" t="n">
-        <v>5.615158279282867</v>
+        <v>6.872255498326689</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.661361091838184</v>
+        <v>2.306554340717965</v>
       </c>
       <c r="AR3" t="n">
-        <v>3.239282153494989</v>
+        <v>2.539350528551842</v>
       </c>
       <c r="AS3" t="n">
-        <v>8.007778912233785</v>
+        <v>2.562906466523085</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.36041140623776</v>
+        <v>5.502078087205274</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.6835413860733603</v>
+        <v>1.998431916488258</v>
       </c>
       <c r="AV3" t="n">
-        <v>4.090788582767093</v>
+        <v>3.145984455909791</v>
       </c>
       <c r="AW3" t="n">
-        <v>1.022875571768341</v>
+        <v>2.077881496914334</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.5396266530326187</v>
+        <v>1.579703226526664</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>8.790536431517351</v>
+        <v>11.16937055676182</v>
       </c>
       <c r="D4" t="n">
-        <v>5.197925911256685</v>
+        <v>13.60754690281939</v>
       </c>
       <c r="E4" t="n">
-        <v>4.04066482724676</v>
+        <v>14.27320610312306</v>
       </c>
       <c r="F4" t="n">
-        <v>18.99285295774033</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6.855465995420175</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>5.925978726810571</v>
+        <v>1.429874795593702</v>
       </c>
       <c r="I4" t="n">
-        <v>19.67165381708391</v>
+        <v>29.06295205591112</v>
       </c>
       <c r="J4" t="n">
-        <v>66.21074877978839</v>
+        <v>135.5607219955135</v>
       </c>
       <c r="K4" t="n">
-        <v>124.5404508942538</v>
+        <v>19.31478819417333</v>
       </c>
       <c r="L4" t="n">
-        <v>10.82120955866665</v>
+        <v>80.79062630433647</v>
       </c>
       <c r="M4" t="n">
-        <v>48.72019235665581</v>
+        <v>47.69356020953791</v>
       </c>
       <c r="N4" t="n">
-        <v>81.9156643780897</v>
+        <v>92.49343493428798</v>
       </c>
       <c r="O4" t="n">
-        <v>46.73133640422117</v>
+        <v>57.29820137672122</v>
       </c>
       <c r="P4" t="n">
-        <v>48.50784159060994</v>
+        <v>48.99562196422507</v>
       </c>
       <c r="Q4" t="n">
-        <v>132.1860135885158</v>
+        <v>0.4021908050205845</v>
       </c>
       <c r="R4" t="n">
-        <v>29.66974823685317</v>
+        <v>47.5219588231172</v>
       </c>
       <c r="S4" t="n">
-        <v>64.70209604074796</v>
+        <v>29.70350449511466</v>
       </c>
       <c r="T4" t="n">
-        <v>62.31284221739723</v>
+        <v>58.45168763927086</v>
       </c>
       <c r="U4" t="n">
-        <v>51.74273569177509</v>
+        <v>54.97105147165455</v>
       </c>
       <c r="V4" t="n">
-        <v>144.6033849071036</v>
+        <v>3.938108056632608</v>
       </c>
       <c r="W4" t="n">
-        <v>110.7491053498327</v>
+        <v>92.38050064822586</v>
       </c>
       <c r="X4" t="n">
-        <v>61.61657417143345</v>
+        <v>100.3360336972801</v>
       </c>
       <c r="Y4" t="n">
-        <v>87.13362916234402</v>
+        <v>48.11392928815963</v>
       </c>
       <c r="Z4" t="n">
-        <v>52.38224147189456</v>
+        <v>83.39550865350964</v>
       </c>
       <c r="AA4" t="n">
-        <v>45.99346530964402</v>
+        <v>56.97849132822822</v>
       </c>
       <c r="AB4" t="n">
-        <v>47.91794036019609</v>
+        <v>53.99411495661072</v>
       </c>
       <c r="AC4" t="n">
-        <v>59.40314125387152</v>
+        <v>67.51121803509719</v>
       </c>
       <c r="AD4" t="n">
-        <v>47.53677886713324</v>
+        <v>88.67930720297079</v>
       </c>
       <c r="AE4" t="n">
-        <v>54.17894368786547</v>
+        <v>39.94572233515421</v>
       </c>
       <c r="AF4" t="n">
-        <v>48.79707357572345</v>
+        <v>84.74285719116131</v>
       </c>
       <c r="AG4" t="n">
-        <v>105.4880717318299</v>
+        <v>36.03178224728719</v>
       </c>
       <c r="AH4" t="n">
-        <v>26.34243287953415</v>
+        <v>37.52967291238397</v>
       </c>
       <c r="AI4" t="n">
-        <v>44.94728370033508</v>
+        <v>41.01056383094172</v>
       </c>
       <c r="AJ4" t="n">
-        <v>30.31681327605819</v>
+        <v>92.47393521730191</v>
       </c>
       <c r="AK4" t="n">
-        <v>16.81401869015809</v>
+        <v>22.83076970367124</v>
       </c>
       <c r="AL4" t="n">
-        <v>5.959322828998252</v>
+        <v>16.01014617955204</v>
       </c>
       <c r="AM4" t="n">
-        <v>43.33164203467163</v>
+        <v>40.14684894227863</v>
       </c>
       <c r="AN4" t="n">
-        <v>22.40882460786949</v>
+        <v>32.29388211501518</v>
       </c>
       <c r="AO4" t="n">
-        <v>22.87873865049212</v>
+        <v>20.80913617879451</v>
       </c>
       <c r="AP4" t="n">
-        <v>16.88192381422623</v>
+        <v>9.61254475168893</v>
       </c>
       <c r="AQ4" t="n">
-        <v>24.79349990055082</v>
+        <v>13.0027983212912</v>
       </c>
       <c r="AR4" t="n">
-        <v>23.03030472805489</v>
+        <v>25.79304319359258</v>
       </c>
       <c r="AS4" t="n">
-        <v>22.75167298425576</v>
+        <v>15.35927375723094</v>
       </c>
       <c r="AT4" t="n">
-        <v>14.50195839190035</v>
+        <v>18.79030931697124</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.190223092006381</v>
+        <v>11.06082103460164</v>
       </c>
       <c r="AV4" t="n">
-        <v>16.71854696134879</v>
+        <v>6.257507662269148</v>
       </c>
       <c r="AW4" t="n">
-        <v>9.562604872573122</v>
+        <v>12.62565977409231</v>
       </c>
       <c r="AX4" t="n">
-        <v>9.241267561935771</v>
+        <v>11.91456071404452</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>11.46802666318031</v>
+        <v>10.75142409159652</v>
       </c>
       <c r="D5" t="n">
-        <v>9.747609002976999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>8.204703495849678</v>
+        <v>15.95197841021986</v>
       </c>
       <c r="F5" t="n">
-        <v>9.877753817636099</v>
+        <v>15.12698520799647</v>
       </c>
       <c r="G5" t="n">
-        <v>7.631500210247411</v>
+        <v>10.57542584668002</v>
       </c>
       <c r="H5" t="n">
-        <v>12.67522635849396</v>
+        <v>112.4667109480765</v>
       </c>
       <c r="I5" t="n">
-        <v>110.3329784775845</v>
+        <v>36.68588444903092</v>
       </c>
       <c r="J5" t="n">
-        <v>20.26818274078008</v>
+        <v>50.74780213633945</v>
       </c>
       <c r="K5" t="n">
-        <v>8.366586651502216</v>
+        <v>20.08636248691184</v>
       </c>
       <c r="L5" t="n">
-        <v>27.04291600399018</v>
+        <v>91.19737093974636</v>
       </c>
       <c r="M5" t="n">
-        <v>16.0973563440674</v>
+        <v>27.58042332422178</v>
       </c>
       <c r="N5" t="n">
-        <v>21.65599345949459</v>
+        <v>78.87536636799314</v>
       </c>
       <c r="O5" t="n">
-        <v>39.8901156746383</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>160.0245538401343</v>
+        <v>47.54395910104046</v>
       </c>
       <c r="Q5" t="n">
-        <v>133.9159019287263</v>
+        <v>78.1061047439442</v>
       </c>
       <c r="R5" t="n">
-        <v>8.44353377825982</v>
+        <v>29.804649499812</v>
       </c>
       <c r="S5" t="n">
-        <v>26.54170257850117</v>
+        <v>5.533169400235214</v>
       </c>
       <c r="T5" t="n">
-        <v>100.2072956596703</v>
+        <v>58.98471014403088</v>
       </c>
       <c r="U5" t="n">
-        <v>51.13178147458213</v>
+        <v>156.8732111590461</v>
       </c>
       <c r="V5" t="n">
-        <v>56.84109305899479</v>
+        <v>85.85213712953686</v>
       </c>
       <c r="W5" t="n">
-        <v>27.08372567713516</v>
+        <v>48.41914099520955</v>
       </c>
       <c r="X5" t="n">
-        <v>15.29638900146683</v>
+        <v>31.23559531774936</v>
       </c>
       <c r="Y5" t="n">
-        <v>35.23195847940799</v>
+        <v>73.52297291816566</v>
       </c>
       <c r="Z5" t="n">
-        <v>34.32454161092536</v>
+        <v>33.9273586554866</v>
       </c>
       <c r="AA5" t="n">
-        <v>95.37270803636224</v>
+        <v>32.91375894784268</v>
       </c>
       <c r="AB5" t="n">
-        <v>12.78206588035986</v>
+        <v>7.156168971298923</v>
       </c>
       <c r="AC5" t="n">
-        <v>22.3368667389085</v>
+        <v>35.35854216753949</v>
       </c>
       <c r="AD5" t="n">
-        <v>12.7598640024936</v>
+        <v>29.21150944318423</v>
       </c>
       <c r="AE5" t="n">
-        <v>15.06940945710402</v>
+        <v>63.69147520981597</v>
       </c>
       <c r="AF5" t="n">
-        <v>76.73377699604792</v>
+        <v>32.61195915602474</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.55279777586075</v>
+        <v>6.526365175163675</v>
       </c>
       <c r="AH5" t="n">
-        <v>21.99912941927525</v>
+        <v>120.8159194911604</v>
       </c>
       <c r="AI5" t="n">
-        <v>2.74151455107619</v>
+        <v>25.70942810790537</v>
       </c>
       <c r="AJ5" t="n">
-        <v>20.38895859170484</v>
+        <v>12.06346697217468</v>
       </c>
       <c r="AK5" t="n">
-        <v>29.78204250687643</v>
+        <v>24.90064565098638</v>
       </c>
       <c r="AL5" t="n">
-        <v>27.95270211382325</v>
+        <v>30.37654483133221</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.961642651623698</v>
+        <v>7.781401052699975</v>
       </c>
       <c r="AN5" t="n">
-        <v>23.17276112066447</v>
+        <v>25.15085898072602</v>
       </c>
       <c r="AO5" t="n">
-        <v>19.42316046912122</v>
+        <v>19.90798574541268</v>
       </c>
       <c r="AP5" t="n">
-        <v>24.35791174847962</v>
+        <v>32.14586226521412</v>
       </c>
       <c r="AQ5" t="n">
-        <v>8.507880706223</v>
+        <v>1.983212202939264</v>
       </c>
       <c r="AR5" t="n">
-        <v>17.54112435202544</v>
+        <v>22.19819105903358</v>
       </c>
       <c r="AS5" t="n">
-        <v>23.16374031988864</v>
+        <v>17.07116944257349</v>
       </c>
       <c r="AT5" t="n">
-        <v>21.52890139884156</v>
+        <v>37.98846811620245</v>
       </c>
       <c r="AU5" t="n">
-        <v>30.17932462661705</v>
+        <v>0</v>
       </c>
       <c r="AV5" t="n">
-        <v>80.90337077199187</v>
+        <v>24.60937470372965</v>
       </c>
       <c r="AW5" t="n">
-        <v>11.31193568146681</v>
+        <v>30.06426631939872</v>
       </c>
       <c r="AX5" t="n">
-        <v>9.451792214910437</v>
+        <v>26.69032487932911</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2.070128693606777</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>7.473192023046536</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>14.25010132175613</v>
+        <v>17.59258028609849</v>
       </c>
       <c r="F6" t="n">
-        <v>2.371658950139845</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.175067204145357</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>4.868787519435404</v>
+        <v>4.555138463388917</v>
       </c>
       <c r="I6" t="n">
-        <v>4.597908231488065</v>
+        <v>3.072003441344417</v>
       </c>
       <c r="J6" t="n">
-        <v>16.85648230331092</v>
+        <v>11.70240256655913</v>
       </c>
       <c r="K6" t="n">
-        <v>37.29921741417276</v>
+        <v>10.57672958889569</v>
       </c>
       <c r="L6" t="n">
-        <v>18.90335621471576</v>
+        <v>9.8551375823572</v>
       </c>
       <c r="M6" t="n">
-        <v>34.27743022598528</v>
+        <v>24.30183563785918</v>
       </c>
       <c r="N6" t="n">
-        <v>39.13197828484387</v>
+        <v>15.98902232574414</v>
       </c>
       <c r="O6" t="n">
-        <v>31.06736725901942</v>
+        <v>24.24533884018962</v>
       </c>
       <c r="P6" t="n">
-        <v>6.31651327972248</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>12.8332369912026</v>
+        <v>28.62279272219806</v>
       </c>
       <c r="R6" t="n">
-        <v>30.38337478892013</v>
+        <v>16.83580614581364</v>
       </c>
       <c r="S6" t="n">
-        <v>27.38108171204513</v>
+        <v>60.61522062175329</v>
       </c>
       <c r="T6" t="n">
-        <v>36.80850738919165</v>
+        <v>4.558802324450934</v>
       </c>
       <c r="U6" t="n">
-        <v>9.283674638097903</v>
+        <v>21.27380913162379</v>
       </c>
       <c r="V6" t="n">
-        <v>9.421998974242271</v>
+        <v>10.68140332860465</v>
       </c>
       <c r="W6" t="n">
-        <v>11.67116614957502</v>
+        <v>31.96600845416508</v>
       </c>
       <c r="X6" t="n">
-        <v>32.57497335914397</v>
+        <v>17.41641376054539</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.7449073790192</v>
+        <v>20.99874539742732</v>
       </c>
       <c r="Z6" t="n">
-        <v>30.53663900211541</v>
+        <v>12.10695943641201</v>
       </c>
       <c r="AA6" t="n">
-        <v>27.89731683965452</v>
+        <v>11.22687401953526</v>
       </c>
       <c r="AB6" t="n">
-        <v>18.41089300135764</v>
+        <v>41.04980003349382</v>
       </c>
       <c r="AC6" t="n">
-        <v>25.00429550688339</v>
+        <v>16.15633148392808</v>
       </c>
       <c r="AD6" t="n">
-        <v>22.19136542959067</v>
+        <v>10.05982926979262</v>
       </c>
       <c r="AE6" t="n">
-        <v>3.121235735411905</v>
+        <v>11.23024086418352</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.23842843006749</v>
+        <v>14.71770354583353</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.14740821117425</v>
+        <v>12.55467102936563</v>
       </c>
       <c r="AH6" t="n">
-        <v>17.9744194665795</v>
+        <v>19.82847218603071</v>
       </c>
       <c r="AI6" t="n">
-        <v>15.87528425153538</v>
+        <v>8.727767605855874</v>
       </c>
       <c r="AJ6" t="n">
-        <v>8.293499511081945</v>
+        <v>6.747778380628972</v>
       </c>
       <c r="AK6" t="n">
-        <v>13.11696092386635</v>
+        <v>1.691549072519506</v>
       </c>
       <c r="AL6" t="n">
-        <v>12.79410793786067</v>
+        <v>3.124006094475521</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.738920820519742</v>
+        <v>7.103007697689667</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.6888764962221852</v>
+        <v>7.457175047368681</v>
       </c>
       <c r="AO6" t="n">
-        <v>3.935822455180871</v>
+        <v>4.618098275361409</v>
       </c>
       <c r="AP6" t="n">
-        <v>3.300889321718449</v>
+        <v>6.030905119123013</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.397657980190075</v>
+        <v>3.184211413386837</v>
       </c>
       <c r="AR6" t="n">
-        <v>2.411051243769621</v>
+        <v>0.5714497085436768</v>
       </c>
       <c r="AS6" t="n">
-        <v>6.376681809430148</v>
+        <v>12.75088252135837</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.778429929901296</v>
+        <v>1.032778407997001</v>
       </c>
       <c r="AU6" t="n">
-        <v>1.093871770156863</v>
+        <v>3.86358467792283</v>
       </c>
       <c r="AV6" t="n">
-        <v>8.508433153862832</v>
+        <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>11.24034816890414</v>
+        <v>3.327764290198297</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.269904456533645</v>
+        <v>3.539781947759308</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>57.99203169953702</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>3.766237171480917</v>
+        <v>7.722229410904676</v>
       </c>
       <c r="E7" t="n">
-        <v>16.45449152735328</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2.588240503140062</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>17.89740489893393</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>7.446063167804198</v>
+        <v>24.86452543859546</v>
       </c>
       <c r="I7" t="n">
-        <v>12.15463061552994</v>
+        <v>19.42214712209919</v>
       </c>
       <c r="J7" t="n">
-        <v>5.248727387220218</v>
+        <v>17.55707617772764</v>
       </c>
       <c r="K7" t="n">
-        <v>41.80285702182159</v>
+        <v>0.6422961817085726</v>
       </c>
       <c r="L7" t="n">
-        <v>72.58071908077808</v>
+        <v>112.4558454010092</v>
       </c>
       <c r="M7" t="n">
-        <v>39.15009817496465</v>
+        <v>35.08533727680209</v>
       </c>
       <c r="N7" t="n">
-        <v>10.17473618472796</v>
+        <v>5.244776071992181</v>
       </c>
       <c r="O7" t="n">
-        <v>26.76612181130599</v>
+        <v>10.17187760184662</v>
       </c>
       <c r="P7" t="n">
-        <v>18.72917672613217</v>
+        <v>18.17391502401267</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.886857496216559</v>
+        <v>39.54017590257877</v>
       </c>
       <c r="R7" t="n">
-        <v>138.7328402595369</v>
+        <v>34.34574033407919</v>
       </c>
       <c r="S7" t="n">
-        <v>84.49077618615379</v>
+        <v>57.72472882106356</v>
       </c>
       <c r="T7" t="n">
-        <v>39.09126929204007</v>
+        <v>14.67400271289991</v>
       </c>
       <c r="U7" t="n">
-        <v>9.883586601453105</v>
+        <v>10.29926062995721</v>
       </c>
       <c r="V7" t="n">
-        <v>3.952319093610023</v>
+        <v>12.22543743203033</v>
       </c>
       <c r="W7" t="n">
-        <v>23.55043866217278</v>
+        <v>17.36372163766632</v>
       </c>
       <c r="X7" t="n">
-        <v>12.24630647016508</v>
+        <v>71.45643340219266</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.522619716529827</v>
+        <v>27.75837874185795</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.739128904718656</v>
+        <v>37.91120041190482</v>
       </c>
       <c r="AA7" t="n">
-        <v>7.708765258768524</v>
+        <v>4.757546713103343</v>
       </c>
       <c r="AB7" t="n">
-        <v>16.79157540071494</v>
+        <v>21.87016527099934</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.5596987458864</v>
+        <v>21.95183974276564</v>
       </c>
       <c r="AD7" t="n">
-        <v>4.453903791222825</v>
+        <v>4.494448983889212</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.90867702941578</v>
+        <v>7.552141255495976</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.527970091100753</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>5.085297625489224</v>
+        <v>20.54918302786512</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.351127678511229</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>5.269631874792919</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11.6667264896952</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.499493505974639</v>
+        <v>3.721505521575095</v>
       </c>
       <c r="AL7" t="n">
-        <v>11.68599108351335</v>
+        <v>3.791463246699776</v>
       </c>
       <c r="AM7" t="n">
-        <v>9.945519439300909</v>
+        <v>6.235253520833967</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.937157257783756</v>
+        <v>21.0905797477748</v>
       </c>
       <c r="AO7" t="n">
-        <v>23.67114266184548</v>
+        <v>5.553364787455005</v>
       </c>
       <c r="AP7" t="n">
-        <v>23.44662430493053</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>4.913063774453005</v>
+        <v>2.615707571737551</v>
       </c>
       <c r="AR7" t="n">
-        <v>4.783987911468095</v>
+        <v>6.240020724297031</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.287923411853922</v>
+        <v>11.14556300948004</v>
       </c>
       <c r="AT7" t="n">
-        <v>4.928327851994438</v>
+        <v>3.832890035602869</v>
       </c>
       <c r="AU7" t="n">
-        <v>9.443561536758402</v>
+        <v>16.41950466093574</v>
       </c>
       <c r="AV7" t="n">
-        <v>6.380840929881318</v>
+        <v>5.833235150082776</v>
       </c>
       <c r="AW7" t="n">
-        <v>15.1183743361274</v>
+        <v>4.673549768177616</v>
       </c>
       <c r="AX7" t="n">
-        <v>24.71491447434961</v>
+        <v>2.150695041814306</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>11.72575812595607</v>
+        <v>13.78337542475368</v>
       </c>
       <c r="D8" t="n">
-        <v>12.68154725848136</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>12.31668186783548</v>
+        <v>4.43211713966879</v>
       </c>
       <c r="F8" t="n">
-        <v>34.74040252547601</v>
+        <v>12.75447646077402</v>
       </c>
       <c r="G8" t="n">
-        <v>28.66671414535433</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>41.47926044941563</v>
+        <v>23.81832440933522</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8268524057911</v>
+        <v>53.26983613334039</v>
       </c>
       <c r="J8" t="n">
-        <v>74.88365767460367</v>
+        <v>34.70191578946569</v>
       </c>
       <c r="K8" t="n">
-        <v>34.26090637027765</v>
+        <v>29.21576448041897</v>
       </c>
       <c r="L8" t="n">
-        <v>81.12419876974172</v>
+        <v>192.2589919884511</v>
       </c>
       <c r="M8" t="n">
-        <v>30.73337347443675</v>
+        <v>81.339855418526</v>
       </c>
       <c r="N8" t="n">
-        <v>31.00090583846081</v>
+        <v>79.45763116210553</v>
       </c>
       <c r="O8" t="n">
-        <v>97.75494352693121</v>
+        <v>79.26072118857455</v>
       </c>
       <c r="P8" t="n">
-        <v>29.35300284250149</v>
+        <v>15.97030676753361</v>
       </c>
       <c r="Q8" t="n">
-        <v>34.76966589408477</v>
+        <v>22.62784716790799</v>
       </c>
       <c r="R8" t="n">
-        <v>30.66577776535843</v>
+        <v>68.19385483818144</v>
       </c>
       <c r="S8" t="n">
-        <v>51.91026112827837</v>
+        <v>45.43111933867019</v>
       </c>
       <c r="T8" t="n">
-        <v>118.0111578942944</v>
+        <v>28.11384207051131</v>
       </c>
       <c r="U8" t="n">
-        <v>83.45237695869061</v>
+        <v>82.41270492393656</v>
       </c>
       <c r="V8" t="n">
-        <v>60.20081268087587</v>
+        <v>48.89655380607288</v>
       </c>
       <c r="W8" t="n">
-        <v>66.08447866361256</v>
+        <v>101.009686212923</v>
       </c>
       <c r="X8" t="n">
-        <v>36.23378487392731</v>
+        <v>187.0289145405193</v>
       </c>
       <c r="Y8" t="n">
-        <v>58.46026930040751</v>
+        <v>118.8644219280201</v>
       </c>
       <c r="Z8" t="n">
-        <v>79.03075363504284</v>
+        <v>126.8782596800677</v>
       </c>
       <c r="AA8" t="n">
-        <v>85.39936518102466</v>
+        <v>66.47198240419625</v>
       </c>
       <c r="AB8" t="n">
-        <v>150.2110033818508</v>
+        <v>132.8179599914303</v>
       </c>
       <c r="AC8" t="n">
-        <v>113.6159974189989</v>
+        <v>98.76489143121958</v>
       </c>
       <c r="AD8" t="n">
-        <v>155.7989419809774</v>
+        <v>96.05949047178152</v>
       </c>
       <c r="AE8" t="n">
-        <v>102.0836611787251</v>
+        <v>130.4689816298324</v>
       </c>
       <c r="AF8" t="n">
-        <v>80.49962255335596</v>
+        <v>172.3026187050501</v>
       </c>
       <c r="AG8" t="n">
-        <v>56.49324889261622</v>
+        <v>201.9428361020425</v>
       </c>
       <c r="AH8" t="n">
-        <v>160.8600727757367</v>
+        <v>160.7233126474601</v>
       </c>
       <c r="AI8" t="n">
-        <v>56.55131244651405</v>
+        <v>94.28938529012952</v>
       </c>
       <c r="AJ8" t="n">
-        <v>34.06178721045015</v>
+        <v>49.36299432793841</v>
       </c>
       <c r="AK8" t="n">
-        <v>97.48223645391813</v>
+        <v>62.99194931947202</v>
       </c>
       <c r="AL8" t="n">
-        <v>71.82335522759846</v>
+        <v>127.5805329092707</v>
       </c>
       <c r="AM8" t="n">
-        <v>62.23365157017379</v>
+        <v>37.32938506205464</v>
       </c>
       <c r="AN8" t="n">
-        <v>30.08817300712534</v>
+        <v>26.20414706782828</v>
       </c>
       <c r="AO8" t="n">
-        <v>26.87922904072293</v>
+        <v>25.21511814971671</v>
       </c>
       <c r="AP8" t="n">
-        <v>28.4232405550373</v>
+        <v>26.03874590974367</v>
       </c>
       <c r="AQ8" t="n">
-        <v>24.54816562605512</v>
+        <v>26.45125983310693</v>
       </c>
       <c r="AR8" t="n">
-        <v>22.89579966768944</v>
+        <v>10.76906796286091</v>
       </c>
       <c r="AS8" t="n">
-        <v>14.15173974504754</v>
+        <v>44.40918530705628</v>
       </c>
       <c r="AT8" t="n">
-        <v>9.04706567940519</v>
+        <v>14.52789172175668</v>
       </c>
       <c r="AU8" t="n">
-        <v>13.74988793043338</v>
+        <v>50.72861651111648</v>
       </c>
       <c r="AV8" t="n">
-        <v>20.75864486634185</v>
+        <v>29.89552525447563</v>
       </c>
       <c r="AW8" t="n">
-        <v>16.13260249802055</v>
+        <v>27.4500479152558</v>
       </c>
       <c r="AX8" t="n">
-        <v>28.11776221554826</v>
+        <v>33.18529402231016</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>4.353817005953446</v>
+        <v>0.0184695448805709</v>
       </c>
       <c r="D9" t="n">
-        <v>2.485556109037461</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.090347199696101</v>
+        <v>2.326604045376639</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7696130509585695</v>
+        <v>3.616166907472909</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1320245845635014</v>
+        <v>1.841394334459778</v>
       </c>
       <c r="H9" t="n">
-        <v>6.6184991149119</v>
+        <v>3.176931768695691</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3626566719249973</v>
+        <v>9.975479735826871</v>
       </c>
       <c r="J9" t="n">
-        <v>6.537480821210421</v>
+        <v>6.091541386982309</v>
       </c>
       <c r="K9" t="n">
-        <v>1.349716976776042</v>
+        <v>3.903407438075257</v>
       </c>
       <c r="L9" t="n">
-        <v>1.174796195659109</v>
+        <v>8.511251680665575</v>
       </c>
       <c r="M9" t="n">
-        <v>2.873463470151788</v>
+        <v>21.56048998545901</v>
       </c>
       <c r="N9" t="n">
-        <v>9.284019251731907</v>
+        <v>5.75610468798778</v>
       </c>
       <c r="O9" t="n">
-        <v>7.584420566748098</v>
+        <v>3.151143081332828</v>
       </c>
       <c r="P9" t="n">
-        <v>1.624734898406095</v>
+        <v>7.66503089117284</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.780813112032387</v>
+        <v>0.8382295537396296</v>
       </c>
       <c r="R9" t="n">
-        <v>2.912952013452437</v>
+        <v>2.742314250615677</v>
       </c>
       <c r="S9" t="n">
-        <v>3.575811905086204</v>
+        <v>5.517861088449558</v>
       </c>
       <c r="T9" t="n">
-        <v>3.964855035205857</v>
+        <v>1.778347826870754</v>
       </c>
       <c r="U9" t="n">
-        <v>4.364428469931837</v>
+        <v>6.240440301410722</v>
       </c>
       <c r="V9" t="n">
-        <v>8.73036684953686</v>
+        <v>2.059922187049854</v>
       </c>
       <c r="W9" t="n">
-        <v>4.645180542661627</v>
+        <v>2.563227993305748</v>
       </c>
       <c r="X9" t="n">
-        <v>3.647416048659688</v>
+        <v>7.268050511235419</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.709835054106037</v>
+        <v>4.466626379588172</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.174411904980822</v>
+        <v>5.055761845057896</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.096707804749506</v>
+        <v>3.619035006454466</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.193898398009844</v>
+        <v>5.491140958698917</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.766974730913799</v>
+        <v>5.406759401134021</v>
       </c>
       <c r="AD9" t="n">
-        <v>4.267739320767999</v>
+        <v>1.632268001370063</v>
       </c>
       <c r="AE9" t="n">
-        <v>3.70312523796595</v>
+        <v>4.0746940574622</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.799924770789034</v>
+        <v>5.550170387580458</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.397883740318977</v>
+        <v>4.941829947862491</v>
       </c>
       <c r="AH9" t="n">
-        <v>3.167530502305337</v>
+        <v>7.110850038799114</v>
       </c>
       <c r="AI9" t="n">
-        <v>4.536331654749651</v>
+        <v>5.394776726478717</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4.310034183507611</v>
+        <v>2.584698322698842</v>
       </c>
       <c r="AK9" t="n">
-        <v>4.497434908099291</v>
+        <v>4.920251414832064</v>
       </c>
       <c r="AL9" t="n">
-        <v>2.145997450733721</v>
+        <v>4.733094011333585</v>
       </c>
       <c r="AM9" t="n">
-        <v>9.609281137231106</v>
+        <v>3.657416249956211</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.123985187032865</v>
+        <v>5.216734889455505</v>
       </c>
       <c r="AO9" t="n">
-        <v>3.691692714497948</v>
+        <v>4.003217578681233</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.878192013365945</v>
+        <v>6.559772240823626</v>
       </c>
       <c r="AQ9" t="n">
-        <v>4.013226968305043</v>
+        <v>10.2180224107254</v>
       </c>
       <c r="AR9" t="n">
-        <v>2.323062373309308</v>
+        <v>4.981639378166493</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.332021229344722</v>
+        <v>2.417614476497717</v>
       </c>
       <c r="AT9" t="n">
-        <v>6.060134843202791</v>
+        <v>6.487368930763496</v>
       </c>
       <c r="AU9" t="n">
-        <v>3.322515585182861</v>
+        <v>5.009793627493436</v>
       </c>
       <c r="AV9" t="n">
-        <v>3.721085676526533</v>
+        <v>4.148228725929536</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.4166546518981857</v>
+        <v>2.029809762993239</v>
       </c>
       <c r="AX9" t="n">
-        <v>3.122754415129773</v>
+        <v>2.785363996657897</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>13.1032928185546</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>23.76565674851604</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>9.110643239342872</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>12.09976400049751</v>
+        <v>23.17450774691555</v>
       </c>
       <c r="G10" t="n">
-        <v>140.6690365024312</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>38.19226962185803</v>
+        <v>2.059486078650341</v>
       </c>
       <c r="I10" t="n">
-        <v>17.95540479028094</v>
+        <v>103.3469652525056</v>
       </c>
       <c r="J10" t="n">
-        <v>66.16880913369403</v>
+        <v>45.71770615513225</v>
       </c>
       <c r="K10" t="n">
-        <v>22.3049481065668</v>
+        <v>8.75419402803378</v>
       </c>
       <c r="L10" t="n">
-        <v>74.3444605544143</v>
+        <v>106.2284885936685</v>
       </c>
       <c r="M10" t="n">
-        <v>143.8450875387978</v>
+        <v>48.23542316216486</v>
       </c>
       <c r="N10" t="n">
-        <v>86.920805994313</v>
+        <v>44.90546880825322</v>
       </c>
       <c r="O10" t="n">
-        <v>81.96130540568788</v>
+        <v>69.11006944163107</v>
       </c>
       <c r="P10" t="n">
-        <v>131.7003115168432</v>
+        <v>13.93710103396162</v>
       </c>
       <c r="Q10" t="n">
-        <v>63.60852713957499</v>
+        <v>47.29776940152971</v>
       </c>
       <c r="R10" t="n">
-        <v>36.18665339293594</v>
+        <v>89.75923994202766</v>
       </c>
       <c r="S10" t="n">
-        <v>39.65375950019344</v>
+        <v>73.02168558280563</v>
       </c>
       <c r="T10" t="n">
-        <v>160.4098785644632</v>
+        <v>108.9643956675153</v>
       </c>
       <c r="U10" t="n">
-        <v>64.36010255686715</v>
+        <v>98.48294144537184</v>
       </c>
       <c r="V10" t="n">
-        <v>142.9368414233685</v>
+        <v>64.83890233919281</v>
       </c>
       <c r="W10" t="n">
-        <v>68.02102302193786</v>
+        <v>86.61925384085511</v>
       </c>
       <c r="X10" t="n">
-        <v>90.17473909699473</v>
+        <v>46.8970944714205</v>
       </c>
       <c r="Y10" t="n">
-        <v>60.10966350009575</v>
+        <v>28.50400857108443</v>
       </c>
       <c r="Z10" t="n">
-        <v>100.7154614349588</v>
+        <v>47.73762711457551</v>
       </c>
       <c r="AA10" t="n">
-        <v>63.81859812476686</v>
+        <v>89.474610929779</v>
       </c>
       <c r="AB10" t="n">
-        <v>34.94103060484598</v>
+        <v>53.04469561640919</v>
       </c>
       <c r="AC10" t="n">
-        <v>99.13142295770426</v>
+        <v>74.29489221626105</v>
       </c>
       <c r="AD10" t="n">
-        <v>140.8262894471896</v>
+        <v>77.30026489782294</v>
       </c>
       <c r="AE10" t="n">
-        <v>88.64418000013103</v>
+        <v>42.2639967126012</v>
       </c>
       <c r="AF10" t="n">
-        <v>66.05460781003954</v>
+        <v>87.88892351244746</v>
       </c>
       <c r="AG10" t="n">
-        <v>160.9869672771565</v>
+        <v>79.05273763782326</v>
       </c>
       <c r="AH10" t="n">
-        <v>57.88992287864288</v>
+        <v>59.85009900231085</v>
       </c>
       <c r="AI10" t="n">
-        <v>18.12245548700855</v>
+        <v>17.83176346202594</v>
       </c>
       <c r="AJ10" t="n">
-        <v>35.28735238416716</v>
+        <v>48.33497485754361</v>
       </c>
       <c r="AK10" t="n">
-        <v>44.75442826089397</v>
+        <v>42.86448028309527</v>
       </c>
       <c r="AL10" t="n">
-        <v>73.78442528248105</v>
+        <v>26.46061481066539</v>
       </c>
       <c r="AM10" t="n">
-        <v>29.28765398359038</v>
+        <v>16.00421451441531</v>
       </c>
       <c r="AN10" t="n">
-        <v>21.31100099189255</v>
+        <v>12.31898806379293</v>
       </c>
       <c r="AO10" t="n">
-        <v>31.92650328126472</v>
+        <v>9.298491980957497</v>
       </c>
       <c r="AP10" t="n">
-        <v>15.91060751886011</v>
+        <v>16.78101164035438</v>
       </c>
       <c r="AQ10" t="n">
-        <v>20.04634240134946</v>
+        <v>8.199708801827242</v>
       </c>
       <c r="AR10" t="n">
-        <v>4.326889420891093</v>
+        <v>9.04517324247772</v>
       </c>
       <c r="AS10" t="n">
-        <v>25.94728153814055</v>
+        <v>23.25255452814693</v>
       </c>
       <c r="AT10" t="n">
-        <v>6.919465398316563</v>
+        <v>7.938688218822268</v>
       </c>
       <c r="AU10" t="n">
-        <v>6.12543487101288</v>
+        <v>1.467968793233778</v>
       </c>
       <c r="AV10" t="n">
-        <v>17.66337341432293</v>
+        <v>10.36786724680956</v>
       </c>
       <c r="AW10" t="n">
-        <v>8.607747929607832</v>
+        <v>4.23903211071111</v>
       </c>
       <c r="AX10" t="n">
-        <v>4.998849945398029</v>
+        <v>8.702815597540681</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>23.84500190705711</v>
+        <v>23.50984660419897</v>
       </c>
       <c r="D11" t="n">
-        <v>10.44895523281459</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>20.24613920828093</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>18.16592545764325</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>17.3496899962233</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>11.49812526455212</v>
+        <v>31.74071899747252</v>
       </c>
       <c r="I11" t="n">
-        <v>30.38468288050893</v>
+        <v>114.8229187883458</v>
       </c>
       <c r="J11" t="n">
-        <v>11.45575931558758</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>9.804132306270063</v>
+        <v>16.44849628617996</v>
       </c>
       <c r="L11" t="n">
-        <v>137.6625983975812</v>
+        <v>249.4611913823059</v>
       </c>
       <c r="M11" t="n">
-        <v>77.87035367493932</v>
+        <v>36.29015320715092</v>
       </c>
       <c r="N11" t="n">
-        <v>60.55363217542013</v>
+        <v>11.41833542379655</v>
       </c>
       <c r="O11" t="n">
-        <v>14.87963685934554</v>
+        <v>35.86620870018807</v>
       </c>
       <c r="P11" t="n">
-        <v>50.86492778996762</v>
+        <v>36.10209571415849</v>
       </c>
       <c r="Q11" t="n">
-        <v>59.99387628420776</v>
+        <v>23.85875169264394</v>
       </c>
       <c r="R11" t="n">
-        <v>87.0675096161212</v>
+        <v>136.5116466717353</v>
       </c>
       <c r="S11" t="n">
-        <v>28.9178767440777</v>
+        <v>88.91656889351917</v>
       </c>
       <c r="T11" t="n">
-        <v>22.56089451644434</v>
+        <v>64.34854857596737</v>
       </c>
       <c r="U11" t="n">
-        <v>63.94937947685725</v>
+        <v>87.31326438836192</v>
       </c>
       <c r="V11" t="n">
-        <v>16.27366582815228</v>
+        <v>39.38999914499731</v>
       </c>
       <c r="W11" t="n">
-        <v>33.42511733808769</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>26.46396223214731</v>
+        <v>16.44987894401855</v>
       </c>
       <c r="Y11" t="n">
-        <v>48.58816827746008</v>
+        <v>36.41402620729512</v>
       </c>
       <c r="Z11" t="n">
-        <v>33.88881579713644</v>
+        <v>19.75452172416015</v>
       </c>
       <c r="AA11" t="n">
-        <v>14.53907719381164</v>
+        <v>38.71909054024595</v>
       </c>
       <c r="AB11" t="n">
-        <v>16.52107152150316</v>
+        <v>75.85490002608751</v>
       </c>
       <c r="AC11" t="n">
-        <v>120.4280967562775</v>
+        <v>88.98297326838559</v>
       </c>
       <c r="AD11" t="n">
-        <v>54.49794092250746</v>
+        <v>9.715513427462398</v>
       </c>
       <c r="AE11" t="n">
-        <v>15.81560030386401</v>
+        <v>27.61573237536872</v>
       </c>
       <c r="AF11" t="n">
-        <v>14.25949293732844</v>
+        <v>22.14920892687673</v>
       </c>
       <c r="AG11" t="n">
-        <v>68.82310127744617</v>
+        <v>70.54072132443638</v>
       </c>
       <c r="AH11" t="n">
-        <v>4.543977364906253</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>9.826202706301846</v>
+        <v>8.470054537931535</v>
       </c>
       <c r="AJ11" t="n">
-        <v>40.8939563681735</v>
+        <v>57.53932169757518</v>
       </c>
       <c r="AK11" t="n">
-        <v>18.28674641563519</v>
+        <v>33.44517386416277</v>
       </c>
       <c r="AL11" t="n">
-        <v>41.56427731211841</v>
+        <v>26.77316685819893</v>
       </c>
       <c r="AM11" t="n">
-        <v>23.78707700270096</v>
+        <v>26.19314217739521</v>
       </c>
       <c r="AN11" t="n">
-        <v>68.41216481817322</v>
+        <v>45.66242095897109</v>
       </c>
       <c r="AO11" t="n">
-        <v>32.2203110081181</v>
+        <v>10.00774651081743</v>
       </c>
       <c r="AP11" t="n">
-        <v>25.53363440819929</v>
+        <v>28.07052196844095</v>
       </c>
       <c r="AQ11" t="n">
-        <v>27.66163235340746</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>14.55881644915959</v>
+        <v>22.5164893229836</v>
       </c>
       <c r="AS11" t="n">
-        <v>18.22195883782602</v>
+        <v>17.75543104384148</v>
       </c>
       <c r="AT11" t="n">
-        <v>17.83384781109162</v>
+        <v>33.96864170612331</v>
       </c>
       <c r="AU11" t="n">
-        <v>5.761611230510887</v>
+        <v>35.08976252501287</v>
       </c>
       <c r="AV11" t="n">
-        <v>22.2901446626601</v>
+        <v>33.92505178163938</v>
       </c>
       <c r="AW11" t="n">
-        <v>29.60272066331414</v>
+        <v>9.602206602836819</v>
       </c>
       <c r="AX11" t="n">
-        <v>17.29165899715129</v>
+        <v>35.39433049964732</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>1.343815257106464</v>
+        <v>5.452669023736979</v>
       </c>
       <c r="D12" t="n">
-        <v>12.33910886378622</v>
+        <v>0.8601829354174313</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9763026293822537</v>
+        <v>0.3946454569455041</v>
       </c>
       <c r="F12" t="n">
-        <v>2.170745184696048</v>
+        <v>12.58115463826467</v>
       </c>
       <c r="G12" t="n">
-        <v>3.482109909777801</v>
+        <v>5.713950150030538</v>
       </c>
       <c r="H12" t="n">
-        <v>5.012780707311864</v>
+        <v>32.4568676557671</v>
       </c>
       <c r="I12" t="n">
-        <v>1.696620463411877</v>
+        <v>22.93553477913957</v>
       </c>
       <c r="J12" t="n">
-        <v>6.950629579048388</v>
+        <v>19.95041201231145</v>
       </c>
       <c r="K12" t="n">
-        <v>82.85292299003312</v>
+        <v>31.04874227133544</v>
       </c>
       <c r="L12" t="n">
-        <v>23.22488466442532</v>
+        <v>43.8202857443957</v>
       </c>
       <c r="M12" t="n">
-        <v>29.85073481653546</v>
+        <v>48.71468954129864</v>
       </c>
       <c r="N12" t="n">
-        <v>8.938137333959064</v>
+        <v>13.78021381736817</v>
       </c>
       <c r="O12" t="n">
-        <v>11.73691247392409</v>
+        <v>32.70141431797455</v>
       </c>
       <c r="P12" t="n">
-        <v>32.99022604031387</v>
+        <v>88.84659986491623</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.60720497782208</v>
+        <v>17.13942215412735</v>
       </c>
       <c r="R12" t="n">
-        <v>29.47300038945216</v>
+        <v>14.65233947699953</v>
       </c>
       <c r="S12" t="n">
-        <v>22.03183470527991</v>
+        <v>0.2022236258516301</v>
       </c>
       <c r="T12" t="n">
-        <v>10.66282130429867</v>
+        <v>18.05237931688674</v>
       </c>
       <c r="U12" t="n">
-        <v>25.35122256616925</v>
+        <v>10.7701464646432</v>
       </c>
       <c r="V12" t="n">
-        <v>11.97054578972685</v>
+        <v>13.19551117999862</v>
       </c>
       <c r="W12" t="n">
-        <v>40.0359238914272</v>
+        <v>12.9039541512379</v>
       </c>
       <c r="X12" t="n">
-        <v>13.8194316576361</v>
+        <v>40.77953012771731</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.12537803961689</v>
+        <v>16.07537915904068</v>
       </c>
       <c r="Z12" t="n">
-        <v>14.99290104510406</v>
+        <v>11.90900336628569</v>
       </c>
       <c r="AA12" t="n">
-        <v>11.16599541533434</v>
+        <v>16.64985910962855</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.813265845650061</v>
+        <v>5.699655169861373</v>
       </c>
       <c r="AC12" t="n">
-        <v>19.74720306117469</v>
+        <v>22.72858346040643</v>
       </c>
       <c r="AD12" t="n">
-        <v>19.65597191461748</v>
+        <v>10.36811902324572</v>
       </c>
       <c r="AE12" t="n">
-        <v>12.27996452955158</v>
+        <v>28.03798696251406</v>
       </c>
       <c r="AF12" t="n">
-        <v>21.53797115947268</v>
+        <v>8.750228573164943</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.44422154247581</v>
+        <v>15.38158745132808</v>
       </c>
       <c r="AH12" t="n">
-        <v>3.52982560605516</v>
+        <v>30.17686469878997</v>
       </c>
       <c r="AI12" t="n">
-        <v>4.350998104689379</v>
+        <v>8.121659285703094</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11.25497813383555</v>
+        <v>2.7072920109242</v>
       </c>
       <c r="AK12" t="n">
-        <v>6.642362937779136</v>
+        <v>5.36882416136812</v>
       </c>
       <c r="AL12" t="n">
-        <v>12.73162430476076</v>
+        <v>3.542967394991392</v>
       </c>
       <c r="AM12" t="n">
-        <v>3.966285258238841</v>
+        <v>7.860864697514379</v>
       </c>
       <c r="AN12" t="n">
-        <v>20.88059658705323</v>
+        <v>8.727585936378359</v>
       </c>
       <c r="AO12" t="n">
-        <v>2.280124000153053</v>
+        <v>5.837018924012799</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.414789225640701</v>
+        <v>2.485708143060827</v>
       </c>
       <c r="AQ12" t="n">
-        <v>6.183722278455823</v>
+        <v>2.905580450414292</v>
       </c>
       <c r="AR12" t="n">
-        <v>3.035116161553014</v>
+        <v>5.131006616353947</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.143687836981065</v>
+        <v>1.704467363546628</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.270547323564729</v>
+        <v>1.058977268301703</v>
       </c>
       <c r="AU12" t="n">
-        <v>1.071458163621176</v>
+        <v>0.9704650965247368</v>
       </c>
       <c r="AV12" t="n">
-        <v>2.482419257208848</v>
+        <v>0.08477404604307687</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.29738293911544</v>
+        <v>5.009892865545601</v>
       </c>
       <c r="AX12" t="n">
-        <v>10.35680331300719</v>
+        <v>1.949304139376187</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.820182242447697</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>4.618203186188628</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>19.71215194797033</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>3.891593066194975</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>14.4928568703914</v>
+        <v>8.380819343582928</v>
       </c>
       <c r="H13" t="n">
-        <v>10.4992869921987</v>
+        <v>30.68066034133754</v>
       </c>
       <c r="I13" t="n">
-        <v>4.124509772375657</v>
+        <v>28.99561203079868</v>
       </c>
       <c r="J13" t="n">
-        <v>40.19481262430337</v>
+        <v>53.60105796232574</v>
       </c>
       <c r="K13" t="n">
-        <v>57.68042640360747</v>
+        <v>100.966683835394</v>
       </c>
       <c r="L13" t="n">
-        <v>32.46232762616042</v>
+        <v>33.14812536360209</v>
       </c>
       <c r="M13" t="n">
-        <v>38.86977934513101</v>
+        <v>57.82997621283333</v>
       </c>
       <c r="N13" t="n">
-        <v>36.57689195750261</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>16.52347561454236</v>
+        <v>115.9999314150718</v>
       </c>
       <c r="P13" t="n">
-        <v>22.60217858800283</v>
+        <v>18.28068213837331</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.32824247824995</v>
+        <v>97.93417386880296</v>
       </c>
       <c r="R13" t="n">
-        <v>30.6992515014373</v>
+        <v>11.60561951981356</v>
       </c>
       <c r="S13" t="n">
-        <v>10.55540944937046</v>
+        <v>41.76072676804609</v>
       </c>
       <c r="T13" t="n">
-        <v>13.03358339191567</v>
+        <v>3.808474966507436</v>
       </c>
       <c r="U13" t="n">
-        <v>3.537298620650605</v>
+        <v>69.08603005767992</v>
       </c>
       <c r="V13" t="n">
-        <v>20.88510058036186</v>
+        <v>18.78222322509153</v>
       </c>
       <c r="W13" t="n">
-        <v>14.03328905588346</v>
+        <v>109.8268278210727</v>
       </c>
       <c r="X13" t="n">
-        <v>34.47478263363806</v>
+        <v>12.67752881326698</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.92082549410474</v>
+        <v>92.20784158361769</v>
       </c>
       <c r="Z13" t="n">
-        <v>15.66706427598428</v>
+        <v>19.13198431221012</v>
       </c>
       <c r="AA13" t="n">
-        <v>4.275421323511453</v>
+        <v>8.760296629984664</v>
       </c>
       <c r="AB13" t="n">
-        <v>4.143450186779733</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.07074975682806</v>
+        <v>9.669729001050325</v>
       </c>
       <c r="AD13" t="n">
-        <v>8.513972478091892</v>
+        <v>28.15134329615847</v>
       </c>
       <c r="AE13" t="n">
-        <v>12.04328789052093</v>
+        <v>14.14008884765457</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.23909342181468</v>
+        <v>13.05051512631857</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.46079067279584</v>
+        <v>3.99496784666234</v>
       </c>
       <c r="AH13" t="n">
-        <v>4.777905838735677</v>
+        <v>12.04967487537214</v>
       </c>
       <c r="AI13" t="n">
-        <v>2.188609932136374</v>
+        <v>8.366562823559759</v>
       </c>
       <c r="AJ13" t="n">
-        <v>3.292908008213489</v>
+        <v>17.26020860563442</v>
       </c>
       <c r="AK13" t="n">
-        <v>1.749130009110337</v>
+        <v>11.05499406665069</v>
       </c>
       <c r="AL13" t="n">
-        <v>64.25741627112609</v>
+        <v>5.163504681309262</v>
       </c>
       <c r="AM13" t="n">
-        <v>8.21885952871555</v>
+        <v>5.777556257721041</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.115736420508439</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>3.943391394675129</v>
+        <v>9.871024160661097</v>
       </c>
       <c r="AP13" t="n">
-        <v>17.70925285653265</v>
+        <v>12.30693502834532</v>
       </c>
       <c r="AQ13" t="n">
-        <v>6.872864542136133</v>
+        <v>16.50004742211424</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.4270183470780656</v>
+        <v>8.130747151890358</v>
       </c>
       <c r="AS13" t="n">
-        <v>6.05276343486901</v>
+        <v>3.381603387194945</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.282009981941663</v>
+        <v>2.808401104297604</v>
       </c>
       <c r="AU13" t="n">
-        <v>8.271631399000546</v>
+        <v>4.636529769423222</v>
       </c>
       <c r="AV13" t="n">
-        <v>16.33077345147379</v>
+        <v>4.629952999872325</v>
       </c>
       <c r="AW13" t="n">
-        <v>6.209738061873926</v>
+        <v>9.93233913102805</v>
       </c>
       <c r="AX13" t="n">
-        <v>4.362866957533219</v>
+        <v>0.5525017766102791</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>20.42832881433516</v>
+        <v>35.63776513515305</v>
       </c>
       <c r="D14" t="n">
-        <v>10.38554585252372</v>
+        <v>19.00465006875891</v>
       </c>
       <c r="E14" t="n">
-        <v>6.190340963425872</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>27.92986215081007</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.847416479943653</v>
+        <v>57.01027883188377</v>
       </c>
       <c r="H14" t="n">
-        <v>25.58635020033202</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>22.80030586892028</v>
+        <v>64.35399145209234</v>
       </c>
       <c r="J14" t="n">
-        <v>74.12421079366763</v>
+        <v>69.53892661457948</v>
       </c>
       <c r="K14" t="n">
-        <v>88.83733393929627</v>
+        <v>61.96819170027791</v>
       </c>
       <c r="L14" t="n">
-        <v>7.867691925306813</v>
+        <v>88.92875851343371</v>
       </c>
       <c r="M14" t="n">
-        <v>34.93387544325468</v>
+        <v>48.82946749763269</v>
       </c>
       <c r="N14" t="n">
-        <v>20.40119517373464</v>
+        <v>101.6221666630698</v>
       </c>
       <c r="O14" t="n">
-        <v>42.79674935550059</v>
+        <v>46.86907736642023</v>
       </c>
       <c r="P14" t="n">
-        <v>53.15772230371133</v>
+        <v>95.52388316827853</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.34225996579161</v>
+        <v>68.7149895071714</v>
       </c>
       <c r="R14" t="n">
-        <v>40.24039690115028</v>
+        <v>43.28934397536342</v>
       </c>
       <c r="S14" t="n">
-        <v>65.7469936931885</v>
+        <v>34.48582528689266</v>
       </c>
       <c r="T14" t="n">
-        <v>59.23379350263108</v>
+        <v>104.0531868356076</v>
       </c>
       <c r="U14" t="n">
-        <v>74.47359100713224</v>
+        <v>32.91104921345693</v>
       </c>
       <c r="V14" t="n">
-        <v>85.58871404522492</v>
+        <v>13.68494741497715</v>
       </c>
       <c r="W14" t="n">
-        <v>82.54676685746469</v>
+        <v>90.95419782327993</v>
       </c>
       <c r="X14" t="n">
-        <v>39.38048030912067</v>
+        <v>30.42222281218122</v>
       </c>
       <c r="Y14" t="n">
-        <v>100.0115575942433</v>
+        <v>91.49947697938504</v>
       </c>
       <c r="Z14" t="n">
-        <v>100.7483609535426</v>
+        <v>131.645639824587</v>
       </c>
       <c r="AA14" t="n">
-        <v>92.28149647508546</v>
+        <v>142.531292820252</v>
       </c>
       <c r="AB14" t="n">
-        <v>56.82785498010752</v>
+        <v>264.2233109068004</v>
       </c>
       <c r="AC14" t="n">
-        <v>122.9586969678801</v>
+        <v>110.6399245006983</v>
       </c>
       <c r="AD14" t="n">
-        <v>38.37469020850066</v>
+        <v>181.5112205006178</v>
       </c>
       <c r="AE14" t="n">
-        <v>49.27532697675988</v>
+        <v>103.8367998549058</v>
       </c>
       <c r="AF14" t="n">
-        <v>109.6350258967198</v>
+        <v>145.8657458127251</v>
       </c>
       <c r="AG14" t="n">
-        <v>65.26083280982377</v>
+        <v>102.3590585314698</v>
       </c>
       <c r="AH14" t="n">
-        <v>82.21202475799043</v>
+        <v>134.8618147466181</v>
       </c>
       <c r="AI14" t="n">
-        <v>61.46773361561448</v>
+        <v>55.25113120423048</v>
       </c>
       <c r="AJ14" t="n">
-        <v>97.47832010110437</v>
+        <v>65.38735825232112</v>
       </c>
       <c r="AK14" t="n">
-        <v>75.89793349725825</v>
+        <v>76.26214557969465</v>
       </c>
       <c r="AL14" t="n">
-        <v>44.76204540971331</v>
+        <v>71.05356436891664</v>
       </c>
       <c r="AM14" t="n">
-        <v>54.30924549847101</v>
+        <v>33.02980535705196</v>
       </c>
       <c r="AN14" t="n">
-        <v>34.12710119792327</v>
+        <v>11.87258388223112</v>
       </c>
       <c r="AO14" t="n">
-        <v>65.70298149495638</v>
+        <v>30.51941622783699</v>
       </c>
       <c r="AP14" t="n">
-        <v>31.1862015048969</v>
+        <v>28.46484950168058</v>
       </c>
       <c r="AQ14" t="n">
-        <v>36.27591022154669</v>
+        <v>19.17474140485125</v>
       </c>
       <c r="AR14" t="n">
-        <v>23.77689599170778</v>
+        <v>25.66195693700976</v>
       </c>
       <c r="AS14" t="n">
-        <v>16.65391794378677</v>
+        <v>19.76595247569443</v>
       </c>
       <c r="AT14" t="n">
-        <v>37.89399527718301</v>
+        <v>21.83775734628881</v>
       </c>
       <c r="AU14" t="n">
-        <v>44.10381557236316</v>
+        <v>20.62476731258076</v>
       </c>
       <c r="AV14" t="n">
-        <v>23.47507400585636</v>
+        <v>15.9165456459777</v>
       </c>
       <c r="AW14" t="n">
-        <v>15.87749691325466</v>
+        <v>21.20319078516403</v>
       </c>
       <c r="AX14" t="n">
-        <v>11.13218695627342</v>
+        <v>15.63791534511113</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>7.782769953882945</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>4.035364527267068</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>27.79937286534027</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>20.27476875228573</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7450142258476502</v>
+        <v>7.910238860071578</v>
       </c>
       <c r="H15" t="n">
-        <v>12.98410364731421</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.232827544349958</v>
+        <v>3.650303820185762</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1905201963857768</v>
+        <v>3.220820924525143</v>
       </c>
       <c r="K15" t="n">
-        <v>3.67105833796883</v>
+        <v>1.557051356183904</v>
       </c>
       <c r="L15" t="n">
-        <v>5.386540701682478</v>
+        <v>1.931023004099707</v>
       </c>
       <c r="M15" t="n">
-        <v>4.728531491459159</v>
+        <v>0.6446214167308261</v>
       </c>
       <c r="N15" t="n">
-        <v>7.998888544590237</v>
+        <v>3.916825881004844</v>
       </c>
       <c r="O15" t="n">
-        <v>2.034892332237154</v>
+        <v>3.181287878895587</v>
       </c>
       <c r="P15" t="n">
-        <v>2.816860010595834</v>
+        <v>7.129831346945501</v>
       </c>
       <c r="Q15" t="n">
-        <v>7.21765960546503</v>
+        <v>1.392920961171277</v>
       </c>
       <c r="R15" t="n">
-        <v>8.910473868885553</v>
+        <v>3.310635617589439</v>
       </c>
       <c r="S15" t="n">
-        <v>7.913778103932095</v>
+        <v>2.90852623281167</v>
       </c>
       <c r="T15" t="n">
-        <v>2.335733871898857</v>
+        <v>1.978724171678545</v>
       </c>
       <c r="U15" t="n">
-        <v>2.152416998286429</v>
+        <v>3.951303137009226</v>
       </c>
       <c r="V15" t="n">
-        <v>4.595068660846847</v>
+        <v>2.972055272280534</v>
       </c>
       <c r="W15" t="n">
-        <v>3.658980943688202</v>
+        <v>2.458358311285606</v>
       </c>
       <c r="X15" t="n">
-        <v>2.740197129419914</v>
+        <v>8.33286957980987</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.659689381310433</v>
+        <v>8.215702795302301</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.670811921332959</v>
+        <v>9.730376291896206</v>
       </c>
       <c r="AA15" t="n">
-        <v>3.844520357404762</v>
+        <v>4.085568451531209</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.841469235805795</v>
+        <v>4.614100540079851</v>
       </c>
       <c r="AC15" t="n">
-        <v>6.739109273447125</v>
+        <v>4.801629021100509</v>
       </c>
       <c r="AD15" t="n">
-        <v>15.58699357062185</v>
+        <v>5.648852618963018</v>
       </c>
       <c r="AE15" t="n">
-        <v>4.173593402850616</v>
+        <v>6.210926731035221</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.372835667586882</v>
+        <v>5.569050007313161</v>
       </c>
       <c r="AG15" t="n">
-        <v>4.228061137210538</v>
+        <v>5.706307994875273</v>
       </c>
       <c r="AH15" t="n">
-        <v>8.372721826347409</v>
+        <v>8.735048765625219</v>
       </c>
       <c r="AI15" t="n">
-        <v>2.62413264302615</v>
+        <v>3.375505243428762</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7.918016940090511</v>
+        <v>6.759733040940617</v>
       </c>
       <c r="AK15" t="n">
-        <v>2.669300224062288</v>
+        <v>4.166759335993742</v>
       </c>
       <c r="AL15" t="n">
-        <v>4.327211206309966</v>
+        <v>6.770779487212825</v>
       </c>
       <c r="AM15" t="n">
-        <v>6.934956325541357</v>
+        <v>4.02678863937533</v>
       </c>
       <c r="AN15" t="n">
-        <v>1.292072167772054</v>
+        <v>2.888153086738876</v>
       </c>
       <c r="AO15" t="n">
-        <v>3.504228829468054</v>
+        <v>2.840963963927275</v>
       </c>
       <c r="AP15" t="n">
-        <v>6.590639827518672</v>
+        <v>5.531277533200504</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.8927985112436371</v>
+        <v>4.56600207722379</v>
       </c>
       <c r="AR15" t="n">
-        <v>1.778118518209968</v>
+        <v>3.456594278679881</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.463178171926528</v>
+        <v>3.942174309203111</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.397429448164062</v>
+        <v>4.898595640612477</v>
       </c>
       <c r="AU15" t="n">
-        <v>2.960774326534566</v>
+        <v>3.018589039491569</v>
       </c>
       <c r="AV15" t="n">
-        <v>6.46779984493349</v>
+        <v>4.992225334188483</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.4794618970024507</v>
+        <v>3.709346092548211</v>
       </c>
       <c r="AX15" t="n">
-        <v>1.838078133439051</v>
+        <v>4.913067758765521</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>10.53425542976243</v>
+        <v>11.30111960670984</v>
       </c>
       <c r="D16" t="n">
-        <v>16.71021572199445</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>5.980440178009815</v>
+        <v>11.32912567919439</v>
       </c>
       <c r="F16" t="n">
-        <v>9.776665497972973</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>10.93758880124214</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>24.37603109888694</v>
+        <v>37.02597526288903</v>
       </c>
       <c r="I16" t="n">
-        <v>23.96755638217602</v>
+        <v>33.08535554074417</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7681100283128</v>
+        <v>163.9290478353138</v>
       </c>
       <c r="K16" t="n">
-        <v>18.68832320132154</v>
+        <v>36.30996692586079</v>
       </c>
       <c r="L16" t="n">
-        <v>46.21265353807759</v>
+        <v>47.42652171295097</v>
       </c>
       <c r="M16" t="n">
-        <v>178.0132613530049</v>
+        <v>55.28856825400655</v>
       </c>
       <c r="N16" t="n">
-        <v>53.98888402870764</v>
+        <v>42.99773071747512</v>
       </c>
       <c r="O16" t="n">
-        <v>82.45524866476865</v>
+        <v>10.45693029779584</v>
       </c>
       <c r="P16" t="n">
-        <v>37.03162126568986</v>
+        <v>25.88241830587983</v>
       </c>
       <c r="Q16" t="n">
-        <v>47.66506091489241</v>
+        <v>28.34006631934388</v>
       </c>
       <c r="R16" t="n">
-        <v>28.31990553093911</v>
+        <v>35.41196649912317</v>
       </c>
       <c r="S16" t="n">
-        <v>101.0342220592004</v>
+        <v>67.04989800493179</v>
       </c>
       <c r="T16" t="n">
-        <v>66.11680258470686</v>
+        <v>74.77229092732102</v>
       </c>
       <c r="U16" t="n">
-        <v>47.72790945515452</v>
+        <v>47.13139768705958</v>
       </c>
       <c r="V16" t="n">
-        <v>38.57388821877942</v>
+        <v>56.98555122473524</v>
       </c>
       <c r="W16" t="n">
-        <v>91.47394254787444</v>
+        <v>109.8816773435073</v>
       </c>
       <c r="X16" t="n">
-        <v>92.72445381647368</v>
+        <v>65.63237167131547</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.96901298722749</v>
+        <v>95.74679674679051</v>
       </c>
       <c r="Z16" t="n">
-        <v>69.23168407668715</v>
+        <v>102.4458036553161</v>
       </c>
       <c r="AA16" t="n">
-        <v>57.91461888899821</v>
+        <v>97.34782126121523</v>
       </c>
       <c r="AB16" t="n">
-        <v>60.7147580904285</v>
+        <v>64.08444679043761</v>
       </c>
       <c r="AC16" t="n">
-        <v>106.6293048714241</v>
+        <v>52.34893100072374</v>
       </c>
       <c r="AD16" t="n">
-        <v>198.043620836639</v>
+        <v>104.3826369870283</v>
       </c>
       <c r="AE16" t="n">
-        <v>57.38505813419752</v>
+        <v>120.132569596968</v>
       </c>
       <c r="AF16" t="n">
-        <v>45.18982536702693</v>
+        <v>91.37748201194529</v>
       </c>
       <c r="AG16" t="n">
-        <v>32.72822577804744</v>
+        <v>69.71273005927866</v>
       </c>
       <c r="AH16" t="n">
-        <v>82.44843585115559</v>
+        <v>41.56069108958325</v>
       </c>
       <c r="AI16" t="n">
-        <v>50.25411279188993</v>
+        <v>125.7951088356908</v>
       </c>
       <c r="AJ16" t="n">
-        <v>19.77538318723578</v>
+        <v>109.270414123093</v>
       </c>
       <c r="AK16" t="n">
-        <v>28.85707770560638</v>
+        <v>74.08558680981496</v>
       </c>
       <c r="AL16" t="n">
-        <v>19.48672804365419</v>
+        <v>38.59478323800028</v>
       </c>
       <c r="AM16" t="n">
-        <v>18.5161898217061</v>
+        <v>22.44057038130081</v>
       </c>
       <c r="AN16" t="n">
-        <v>15.00508246407884</v>
+        <v>9.291457379105097</v>
       </c>
       <c r="AO16" t="n">
-        <v>7.55477507502022</v>
+        <v>13.91949147891874</v>
       </c>
       <c r="AP16" t="n">
-        <v>16.06686067551572</v>
+        <v>9.544045882369701</v>
       </c>
       <c r="AQ16" t="n">
-        <v>14.56015814077857</v>
+        <v>19.98876906323381</v>
       </c>
       <c r="AR16" t="n">
-        <v>30.27043131139581</v>
+        <v>18.79595166801136</v>
       </c>
       <c r="AS16" t="n">
-        <v>19.81217854741612</v>
+        <v>19.63067454700778</v>
       </c>
       <c r="AT16" t="n">
-        <v>11.67582524180344</v>
+        <v>5.552003665328074</v>
       </c>
       <c r="AU16" t="n">
-        <v>8.876314271558735</v>
+        <v>10.08964486214243</v>
       </c>
       <c r="AV16" t="n">
-        <v>11.3278185461305</v>
+        <v>7.328915852593716</v>
       </c>
       <c r="AW16" t="n">
-        <v>10.98184629424189</v>
+        <v>6.078898303122481</v>
       </c>
       <c r="AX16" t="n">
-        <v>8.553009242200135</v>
+        <v>12.57394177344223</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>20.50862876148028</v>
+        <v>33.60488818606571</v>
       </c>
       <c r="D17" t="n">
-        <v>16.50095928083844</v>
+        <v>6.272991313529647</v>
       </c>
       <c r="E17" t="n">
-        <v>14.79191296716049</v>
+        <v>1.672390470155086</v>
       </c>
       <c r="F17" t="n">
-        <v>21.07462336241327</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.552159881165122</v>
+        <v>65.71309035177194</v>
       </c>
       <c r="H17" t="n">
-        <v>22.66874870052932</v>
+        <v>22.97221636977496</v>
       </c>
       <c r="I17" t="n">
-        <v>11.78419080972375</v>
+        <v>42.44283382258409</v>
       </c>
       <c r="J17" t="n">
-        <v>11.51753568378661</v>
+        <v>6.977414904380211</v>
       </c>
       <c r="K17" t="n">
-        <v>13.24451717549338</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>141.4940087117742</v>
+        <v>16.68654618454686</v>
       </c>
       <c r="M17" t="n">
-        <v>31.39051155731172</v>
+        <v>47.90524212803896</v>
       </c>
       <c r="N17" t="n">
-        <v>12.93970387895319</v>
+        <v>109.7994009731523</v>
       </c>
       <c r="O17" t="n">
-        <v>44.70729938836632</v>
+        <v>52.14336191048282</v>
       </c>
       <c r="P17" t="n">
-        <v>21.49715543402386</v>
+        <v>196.5112548225196</v>
       </c>
       <c r="Q17" t="n">
-        <v>82.7229540918152</v>
+        <v>66.83472533518463</v>
       </c>
       <c r="R17" t="n">
-        <v>115.458005502672</v>
+        <v>28.80156344062319</v>
       </c>
       <c r="S17" t="n">
-        <v>34.40204500735991</v>
+        <v>43.72971661777463</v>
       </c>
       <c r="T17" t="n">
-        <v>22.44062424406201</v>
+        <v>106.8925567789659</v>
       </c>
       <c r="U17" t="n">
-        <v>47.93581542888826</v>
+        <v>70.91312793524192</v>
       </c>
       <c r="V17" t="n">
-        <v>29.01665564116852</v>
+        <v>79.96259348152742</v>
       </c>
       <c r="W17" t="n">
-        <v>19.77073530665599</v>
+        <v>59.91159661665915</v>
       </c>
       <c r="X17" t="n">
-        <v>55.3433051066209</v>
+        <v>98.19299565369781</v>
       </c>
       <c r="Y17" t="n">
-        <v>12.37016097478294</v>
+        <v>87.55761332682283</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.66523948025649</v>
+        <v>41.97837898580649</v>
       </c>
       <c r="AA17" t="n">
-        <v>99.48155597842698</v>
+        <v>17.28693074433385</v>
       </c>
       <c r="AB17" t="n">
-        <v>20.55145944634105</v>
+        <v>47.30792888185334</v>
       </c>
       <c r="AC17" t="n">
-        <v>12.67825504414261</v>
+        <v>21.70310231751917</v>
       </c>
       <c r="AD17" t="n">
-        <v>22.23227165293095</v>
+        <v>8.604393931249513</v>
       </c>
       <c r="AE17" t="n">
-        <v>53.18670207064125</v>
+        <v>42.86424159389696</v>
       </c>
       <c r="AF17" t="n">
-        <v>52.56929130411056</v>
+        <v>19.34035004488842</v>
       </c>
       <c r="AG17" t="n">
-        <v>56.95656181536724</v>
+        <v>29.60897074810087</v>
       </c>
       <c r="AH17" t="n">
-        <v>29.57851808142064</v>
+        <v>15.5240181343043</v>
       </c>
       <c r="AI17" t="n">
-        <v>14.46794702947133</v>
+        <v>28.33918072999527</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9.73109281946879</v>
+        <v>19.07159244490245</v>
       </c>
       <c r="AK17" t="n">
-        <v>105.6855980868094</v>
+        <v>18.07445530960023</v>
       </c>
       <c r="AL17" t="n">
-        <v>14.47404231786593</v>
+        <v>18.72440871792311</v>
       </c>
       <c r="AM17" t="n">
-        <v>12.21479584103387</v>
+        <v>25.51802373680332</v>
       </c>
       <c r="AN17" t="n">
-        <v>17.59580880003464</v>
+        <v>11.64973481017384</v>
       </c>
       <c r="AO17" t="n">
-        <v>14.57288423137696</v>
+        <v>20.22042296675441</v>
       </c>
       <c r="AP17" t="n">
-        <v>41.2709259417549</v>
+        <v>26.96224358123</v>
       </c>
       <c r="AQ17" t="n">
-        <v>45.43025791663691</v>
+        <v>31.00297498946368</v>
       </c>
       <c r="AR17" t="n">
-        <v>11.94684721968433</v>
+        <v>10.04891346440076</v>
       </c>
       <c r="AS17" t="n">
-        <v>18.16568947250985</v>
+        <v>20.79666721388764</v>
       </c>
       <c r="AT17" t="n">
-        <v>11.60208007399348</v>
+        <v>43.60225759336582</v>
       </c>
       <c r="AU17" t="n">
-        <v>35.36216564448777</v>
+        <v>16.02224350711413</v>
       </c>
       <c r="AV17" t="n">
-        <v>4.853626948849259</v>
+        <v>9.674509218806026</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.738885900679282</v>
+        <v>25.97078263480746</v>
       </c>
       <c r="AX17" t="n">
-        <v>25.2635825103012</v>
+        <v>37.90765795738577</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>2.513205436766508</v>
+        <v>10.37358063505314</v>
       </c>
       <c r="D18" t="n">
-        <v>2.211080498380118</v>
+        <v>1.505355527547192</v>
       </c>
       <c r="E18" t="n">
-        <v>5.740003002961412</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2.529567166424223</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.303446971710134</v>
+        <v>1.230724024530248</v>
       </c>
       <c r="H18" t="n">
-        <v>10.63046634299181</v>
+        <v>6.859142245290506</v>
       </c>
       <c r="I18" t="n">
-        <v>2.926224137649685</v>
+        <v>16.65877281247657</v>
       </c>
       <c r="J18" t="n">
-        <v>3.820491959750654</v>
+        <v>50.6717876767147</v>
       </c>
       <c r="K18" t="n">
-        <v>26.78791921856018</v>
+        <v>18.166551410641</v>
       </c>
       <c r="L18" t="n">
-        <v>18.75440099056829</v>
+        <v>6.079009784843044</v>
       </c>
       <c r="M18" t="n">
-        <v>21.33299932845653</v>
+        <v>12.30097004315117</v>
       </c>
       <c r="N18" t="n">
-        <v>28.1199786389886</v>
+        <v>5.839088479753844</v>
       </c>
       <c r="O18" t="n">
-        <v>11.95280928889834</v>
+        <v>25.34623726090742</v>
       </c>
       <c r="P18" t="n">
-        <v>15.82462007829475</v>
+        <v>53.00024546658591</v>
       </c>
       <c r="Q18" t="n">
-        <v>23.52938049578106</v>
+        <v>3.484921345522314</v>
       </c>
       <c r="R18" t="n">
-        <v>21.36092146884953</v>
+        <v>29.05300805438821</v>
       </c>
       <c r="S18" t="n">
-        <v>31.74245255646098</v>
+        <v>44.50249647171108</v>
       </c>
       <c r="T18" t="n">
-        <v>10.20645982580504</v>
+        <v>5.49823911048441</v>
       </c>
       <c r="U18" t="n">
-        <v>24.93839753873048</v>
+        <v>18.07452828383428</v>
       </c>
       <c r="V18" t="n">
-        <v>10.41860273061672</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>10.83064289096602</v>
+        <v>20.87750393417134</v>
       </c>
       <c r="X18" t="n">
-        <v>24.14722630849374</v>
+        <v>19.71617976211695</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.26205485502663</v>
+        <v>36.94164178644928</v>
       </c>
       <c r="Z18" t="n">
-        <v>16.72944695046855</v>
+        <v>15.73842690477872</v>
       </c>
       <c r="AA18" t="n">
-        <v>7.584929895629599</v>
+        <v>11.02234262795711</v>
       </c>
       <c r="AB18" t="n">
-        <v>25.71524181775889</v>
+        <v>15.33167234221957</v>
       </c>
       <c r="AC18" t="n">
-        <v>10.40576130513111</v>
+        <v>24.54972563812474</v>
       </c>
       <c r="AD18" t="n">
-        <v>27.29006348343031</v>
+        <v>18.2432836762319</v>
       </c>
       <c r="AE18" t="n">
-        <v>21.6732762703422</v>
+        <v>23.66419237057185</v>
       </c>
       <c r="AF18" t="n">
-        <v>17.39227118914776</v>
+        <v>20.63610046012932</v>
       </c>
       <c r="AG18" t="n">
-        <v>10.44160182145297</v>
+        <v>8.499716409330681</v>
       </c>
       <c r="AH18" t="n">
-        <v>31.04798398011236</v>
+        <v>11.28766946957499</v>
       </c>
       <c r="AI18" t="n">
-        <v>6.701677402971182</v>
+        <v>10.4056901631323</v>
       </c>
       <c r="AJ18" t="n">
-        <v>5.938880408597162</v>
+        <v>7.250205460661205</v>
       </c>
       <c r="AK18" t="n">
-        <v>10.71567117395949</v>
+        <v>9.899440078549404</v>
       </c>
       <c r="AL18" t="n">
-        <v>5.683120551101285</v>
+        <v>3.709878848022059</v>
       </c>
       <c r="AM18" t="n">
-        <v>4.425090077965798</v>
+        <v>4.363906264893519</v>
       </c>
       <c r="AN18" t="n">
-        <v>9.816006366133349</v>
+        <v>4.342746278870274</v>
       </c>
       <c r="AO18" t="n">
-        <v>3.678833583005185</v>
+        <v>6.607234144786362</v>
       </c>
       <c r="AP18" t="n">
-        <v>3.045856036676121</v>
+        <v>1.984075109621861</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.177185173849839</v>
+        <v>2.504139910893463</v>
       </c>
       <c r="AR18" t="n">
-        <v>2.379139337208478</v>
+        <v>7.496920773885228</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.183435199341835</v>
+        <v>1.309531989943971</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.328039656582368</v>
+        <v>5.796978478580966</v>
       </c>
       <c r="AU18" t="n">
-        <v>1.823806614617912</v>
+        <v>2.766733198804004</v>
       </c>
       <c r="AV18" t="n">
-        <v>4.52036902011947</v>
+        <v>3.81464338593457</v>
       </c>
       <c r="AW18" t="n">
-        <v>1.062388035971854</v>
+        <v>3.004940982713014</v>
       </c>
       <c r="AX18" t="n">
-        <v>2.324406090587706</v>
+        <v>1.977599206556678</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>5.97556782389394</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>2.004302011421502</v>
+        <v>24.22990760529864</v>
       </c>
       <c r="E19" t="n">
-        <v>25.02418835789918</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>5.357273656568858</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>6.075977922752059</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>3.848215252636023</v>
+        <v>10.66204454124136</v>
       </c>
       <c r="I19" t="n">
-        <v>5.326671630218644</v>
+        <v>8.514732339169765</v>
       </c>
       <c r="J19" t="n">
-        <v>22.61565967766717</v>
+        <v>13.59840042728716</v>
       </c>
       <c r="K19" t="n">
-        <v>32.65853094942032</v>
+        <v>10.65163451602454</v>
       </c>
       <c r="L19" t="n">
-        <v>56.78428079904332</v>
+        <v>21.34000187748384</v>
       </c>
       <c r="M19" t="n">
-        <v>45.78458173402521</v>
+        <v>12.28688992541608</v>
       </c>
       <c r="N19" t="n">
-        <v>13.27225130212915</v>
+        <v>16.63193726098124</v>
       </c>
       <c r="O19" t="n">
-        <v>17.17991869175738</v>
+        <v>21.27350793690939</v>
       </c>
       <c r="P19" t="n">
-        <v>118.4398027941747</v>
+        <v>41.75740186023314</v>
       </c>
       <c r="Q19" t="n">
-        <v>145.4905399667213</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.82512927142357</v>
+        <v>49.8102595586639</v>
       </c>
       <c r="S19" t="n">
-        <v>7.860022723857411</v>
+        <v>49.86568043713173</v>
       </c>
       <c r="T19" t="n">
-        <v>113.4400910817354</v>
+        <v>33.74120238181985</v>
       </c>
       <c r="U19" t="n">
-        <v>26.84496398755883</v>
+        <v>67.83507490320277</v>
       </c>
       <c r="V19" t="n">
-        <v>55.60989873317316</v>
+        <v>30.12379978812899</v>
       </c>
       <c r="W19" t="n">
-        <v>3.342215456661664</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>31.32403786345986</v>
+        <v>20.17643390730913</v>
       </c>
       <c r="Y19" t="n">
-        <v>24.60071376398154</v>
+        <v>23.59166496247433</v>
       </c>
       <c r="Z19" t="n">
-        <v>5.99470026276255</v>
+        <v>3.291275955312894</v>
       </c>
       <c r="AA19" t="n">
-        <v>4.640254319201428</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>45.20456627233419</v>
+        <v>16.38454733476462</v>
       </c>
       <c r="AC19" t="n">
-        <v>13.6017082062094</v>
+        <v>3.10576018895118</v>
       </c>
       <c r="AD19" t="n">
-        <v>5.121426890751264</v>
+        <v>6.255027812598519</v>
       </c>
       <c r="AE19" t="n">
-        <v>5.243265078177966</v>
+        <v>1.473710856810269</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.635793147334003</v>
+        <v>4.74040949946352</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.7418870174881662</v>
+        <v>17.60518672837534</v>
       </c>
       <c r="AH19" t="n">
-        <v>29.19925000368206</v>
+        <v>7.627761339930847</v>
       </c>
       <c r="AI19" t="n">
-        <v>2.71293012691495</v>
+        <v>4.812922291667335</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15.74267429795703</v>
+        <v>7.081092418359461</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.5024938186253053</v>
+        <v>9.548876858439145</v>
       </c>
       <c r="AL19" t="n">
-        <v>15.5582933233504</v>
+        <v>5.671649384448167</v>
       </c>
       <c r="AM19" t="n">
-        <v>2.280132440895555</v>
+        <v>18.92577742719421</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.436058428253968</v>
+        <v>10.11490044592495</v>
       </c>
       <c r="AO19" t="n">
-        <v>1.055334614396858</v>
+        <v>73.48556612416297</v>
       </c>
       <c r="AP19" t="n">
-        <v>5.437243828497307</v>
+        <v>7.310280195535484</v>
       </c>
       <c r="AQ19" t="n">
-        <v>3.269304323886802</v>
+        <v>16.50620530626214</v>
       </c>
       <c r="AR19" t="n">
-        <v>1.586254690037132</v>
+        <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>6.331880979695737</v>
+        <v>17.14036132266675</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.732622627971255</v>
+        <v>15.67538815703967</v>
       </c>
       <c r="AU19" t="n">
-        <v>9.808734613634234</v>
+        <v>13.34418730146205</v>
       </c>
       <c r="AV19" t="n">
-        <v>4.031355051374736</v>
+        <v>0</v>
       </c>
       <c r="AW19" t="n">
-        <v>2.956969932653331</v>
+        <v>21.29893877527062</v>
       </c>
       <c r="AX19" t="n">
-        <v>12.22625736342062</v>
+        <v>6.567500341099614</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>32.16611431065682</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>29.38099000741016</v>
+        <v>21.149306271148</v>
       </c>
       <c r="E20" t="n">
-        <v>13.37667154727496</v>
+        <v>14.02669376516319</v>
       </c>
       <c r="F20" t="n">
-        <v>18.38614633851271</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>16.64722859082141</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>26.15650889736761</v>
+        <v>33.16285471152584</v>
       </c>
       <c r="I20" t="n">
-        <v>41.56624005894925</v>
+        <v>2.970341535829853</v>
       </c>
       <c r="J20" t="n">
-        <v>24.06950000219895</v>
+        <v>82.31377350832535</v>
       </c>
       <c r="K20" t="n">
-        <v>13.86196820274912</v>
+        <v>53.13261374504116</v>
       </c>
       <c r="L20" t="n">
-        <v>64.84790708416693</v>
+        <v>184.123524838313</v>
       </c>
       <c r="M20" t="n">
-        <v>52.75354073795954</v>
+        <v>43.33428659454115</v>
       </c>
       <c r="N20" t="n">
-        <v>131.6594239115747</v>
+        <v>22.74461960775339</v>
       </c>
       <c r="O20" t="n">
-        <v>37.69450920332783</v>
+        <v>65.21583922482067</v>
       </c>
       <c r="P20" t="n">
-        <v>21.14134155169828</v>
+        <v>89.66712137263795</v>
       </c>
       <c r="Q20" t="n">
-        <v>24.78308657596708</v>
+        <v>38.38584745225047</v>
       </c>
       <c r="R20" t="n">
-        <v>76.65151045399166</v>
+        <v>64.84877809640486</v>
       </c>
       <c r="S20" t="n">
-        <v>53.7534245384491</v>
+        <v>42.60255410519181</v>
       </c>
       <c r="T20" t="n">
-        <v>33.69901986684437</v>
+        <v>75.20602873334849</v>
       </c>
       <c r="U20" t="n">
-        <v>66.07860293927369</v>
+        <v>26.15639251305807</v>
       </c>
       <c r="V20" t="n">
-        <v>146.5700937217975</v>
+        <v>24.7581600303357</v>
       </c>
       <c r="W20" t="n">
-        <v>78.4310954354661</v>
+        <v>128.5152080012785</v>
       </c>
       <c r="X20" t="n">
-        <v>69.32657133976976</v>
+        <v>37.90922901712718</v>
       </c>
       <c r="Y20" t="n">
-        <v>64.55235111857297</v>
+        <v>42.66687789685716</v>
       </c>
       <c r="Z20" t="n">
-        <v>109.5348887838176</v>
+        <v>35.76798064977991</v>
       </c>
       <c r="AA20" t="n">
-        <v>81.65856369825271</v>
+        <v>106.6191541623703</v>
       </c>
       <c r="AB20" t="n">
-        <v>92.56201773252906</v>
+        <v>94.67153192277277</v>
       </c>
       <c r="AC20" t="n">
-        <v>97.55933351195146</v>
+        <v>102.710942485081</v>
       </c>
       <c r="AD20" t="n">
-        <v>174.2776207116631</v>
+        <v>113.2179695710783</v>
       </c>
       <c r="AE20" t="n">
-        <v>130.5433174741683</v>
+        <v>99.62891186376334</v>
       </c>
       <c r="AF20" t="n">
-        <v>84.9255814464034</v>
+        <v>40.58475155187217</v>
       </c>
       <c r="AG20" t="n">
-        <v>59.05909900299089</v>
+        <v>83.14590505039524</v>
       </c>
       <c r="AH20" t="n">
-        <v>42.55449934634097</v>
+        <v>100.3663939385829</v>
       </c>
       <c r="AI20" t="n">
-        <v>100.7632373220908</v>
+        <v>139.3765785302567</v>
       </c>
       <c r="AJ20" t="n">
-        <v>106.6326137611042</v>
+        <v>65.69363756846263</v>
       </c>
       <c r="AK20" t="n">
-        <v>37.84838386843184</v>
+        <v>43.47837229579312</v>
       </c>
       <c r="AL20" t="n">
-        <v>41.05217706497606</v>
+        <v>31.54052093333065</v>
       </c>
       <c r="AM20" t="n">
-        <v>38.84636802049543</v>
+        <v>67.31477960030678</v>
       </c>
       <c r="AN20" t="n">
-        <v>33.79404173457694</v>
+        <v>43.17302225759525</v>
       </c>
       <c r="AO20" t="n">
-        <v>44.49116167282101</v>
+        <v>30.30889564992842</v>
       </c>
       <c r="AP20" t="n">
-        <v>28.60712582768958</v>
+        <v>20.64226947061326</v>
       </c>
       <c r="AQ20" t="n">
-        <v>27.25107445626237</v>
+        <v>36.7878501145914</v>
       </c>
       <c r="AR20" t="n">
-        <v>19.10394539036437</v>
+        <v>28.4158327012052</v>
       </c>
       <c r="AS20" t="n">
-        <v>20.83951912145567</v>
+        <v>17.56559637940316</v>
       </c>
       <c r="AT20" t="n">
-        <v>31.7187362484935</v>
+        <v>25.72141438572551</v>
       </c>
       <c r="AU20" t="n">
-        <v>13.81801908597374</v>
+        <v>19.09159847115362</v>
       </c>
       <c r="AV20" t="n">
-        <v>19.62664057426623</v>
+        <v>27.57903597919544</v>
       </c>
       <c r="AW20" t="n">
-        <v>26.03694624423158</v>
+        <v>22.179140177696</v>
       </c>
       <c r="AX20" t="n">
-        <v>27.32028979936943</v>
+        <v>20.65394215705905</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>1.364825214778708</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>4.13476581685177</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1.815504036179124</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.140450504752608</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4964117393778106</v>
+        <v>2.269129545303542</v>
       </c>
       <c r="H21" t="n">
-        <v>5.749823084946329</v>
+        <v>2.032626191960576</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8640807104683839</v>
+        <v>2.122491654700109</v>
       </c>
       <c r="J21" t="n">
-        <v>1.925945791063337</v>
+        <v>4.575497287309913</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7988151990962129</v>
+        <v>1.36604107666295</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8305788289979434</v>
+        <v>3.413496649274954</v>
       </c>
       <c r="M21" t="n">
-        <v>2.113760551788285</v>
+        <v>20.99776254684695</v>
       </c>
       <c r="N21" t="n">
-        <v>3.4233614769048</v>
+        <v>6.741048538089275</v>
       </c>
       <c r="O21" t="n">
-        <v>4.173223959774933</v>
+        <v>11.80678157637825</v>
       </c>
       <c r="P21" t="n">
-        <v>12.58072900393793</v>
+        <v>2.768743957432313</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.064921169334632</v>
+        <v>1.995204128018307</v>
       </c>
       <c r="R21" t="n">
-        <v>3.260587812141982</v>
+        <v>5.029429678067054</v>
       </c>
       <c r="S21" t="n">
-        <v>3.788621008321958</v>
+        <v>6.467680317969246</v>
       </c>
       <c r="T21" t="n">
-        <v>7.432764669090909</v>
+        <v>0.7545589047140465</v>
       </c>
       <c r="U21" t="n">
-        <v>2.927138275883685</v>
+        <v>1.949690958653131</v>
       </c>
       <c r="V21" t="n">
-        <v>6.772065212449748</v>
+        <v>0.644520982401833</v>
       </c>
       <c r="W21" t="n">
-        <v>3.598775926010489</v>
+        <v>2.448808168960769</v>
       </c>
       <c r="X21" t="n">
-        <v>7.419860174164274</v>
+        <v>4.711208076113468</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.868654612008366</v>
+        <v>5.841367905316645</v>
       </c>
       <c r="Z21" t="n">
-        <v>8.865734675448842</v>
+        <v>5.292520389999773</v>
       </c>
       <c r="AA21" t="n">
-        <v>3.036155678358994</v>
+        <v>4.292795585008628</v>
       </c>
       <c r="AB21" t="n">
-        <v>3.849027302961318</v>
+        <v>5.102738748066782</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.389705345514739</v>
+        <v>4.588922791841715</v>
       </c>
       <c r="AD21" t="n">
-        <v>4.44976848924412</v>
+        <v>3.235486936361867</v>
       </c>
       <c r="AE21" t="n">
-        <v>3.919613342019497</v>
+        <v>1.978103163691421</v>
       </c>
       <c r="AF21" t="n">
-        <v>8.59417348377835</v>
+        <v>6.590150021301842</v>
       </c>
       <c r="AG21" t="n">
-        <v>3.500241338349111</v>
+        <v>6.556690108003774</v>
       </c>
       <c r="AH21" t="n">
-        <v>11.74623740778943</v>
+        <v>7.206620156879993</v>
       </c>
       <c r="AI21" t="n">
-        <v>6.974581508584392</v>
+        <v>10.22831402101353</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2.961289830456937</v>
+        <v>5.468978645489059</v>
       </c>
       <c r="AK21" t="n">
-        <v>3.194275388442884</v>
+        <v>6.828293420632585</v>
       </c>
       <c r="AL21" t="n">
-        <v>7.254573145636923</v>
+        <v>7.005161788448131</v>
       </c>
       <c r="AM21" t="n">
-        <v>4.592179672160793</v>
+        <v>3.958199032797377</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.272002286071959</v>
+        <v>5.289322512853142</v>
       </c>
       <c r="AO21" t="n">
-        <v>1.706027362159215</v>
+        <v>4.079905207513732</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.498575798763286</v>
+        <v>3.440470037167072</v>
       </c>
       <c r="AQ21" t="n">
-        <v>3.443040878086973</v>
+        <v>2.924577935352522</v>
       </c>
       <c r="AR21" t="n">
-        <v>7.564897470784468</v>
+        <v>1.910088934489466</v>
       </c>
       <c r="AS21" t="n">
-        <v>5.194787748372502</v>
+        <v>5.13625675925363</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.9197039476135603</v>
+        <v>2.179920449811688</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.1652658681454595</v>
+        <v>6.964773518815628</v>
       </c>
       <c r="AV21" t="n">
-        <v>1.763569588296526</v>
+        <v>7.756691805400992</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.3907002996312604</v>
+        <v>11.05625419431029</v>
       </c>
       <c r="AX21" t="n">
-        <v>2.157568646348953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>9.801732785638093</v>
+        <v>12.17101274627753</v>
       </c>
       <c r="D22" t="n">
-        <v>8.878897829081509</v>
+        <v>6.253046314719</v>
       </c>
       <c r="E22" t="n">
-        <v>16.14940586098298</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>18.38869282702137</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.852436656356217</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>26.10662333490468</v>
+        <v>2.460257963438134</v>
       </c>
       <c r="I22" t="n">
-        <v>59.75735033012558</v>
+        <v>144.4195144734096</v>
       </c>
       <c r="J22" t="n">
-        <v>51.95510026711283</v>
+        <v>31.63656963804083</v>
       </c>
       <c r="K22" t="n">
-        <v>13.75759758279077</v>
+        <v>97.13489354254598</v>
       </c>
       <c r="L22" t="n">
-        <v>130.1032803319661</v>
+        <v>31.15839412214231</v>
       </c>
       <c r="M22" t="n">
-        <v>33.00406883438686</v>
+        <v>10.85785081538643</v>
       </c>
       <c r="N22" t="n">
-        <v>171.4747275083899</v>
+        <v>45.74025143001651</v>
       </c>
       <c r="O22" t="n">
-        <v>147.1132182685132</v>
+        <v>26.31642844719158</v>
       </c>
       <c r="P22" t="n">
-        <v>104.383401985335</v>
+        <v>79.08473358181541</v>
       </c>
       <c r="Q22" t="n">
-        <v>21.6486097484787</v>
+        <v>39.33323065595823</v>
       </c>
       <c r="R22" t="n">
-        <v>44.42598153830559</v>
+        <v>44.87525651117316</v>
       </c>
       <c r="S22" t="n">
-        <v>49.39846701045753</v>
+        <v>92.67904826394852</v>
       </c>
       <c r="T22" t="n">
-        <v>45.21836097893549</v>
+        <v>79.56388338511847</v>
       </c>
       <c r="U22" t="n">
-        <v>25.83718912444237</v>
+        <v>48.41040828571258</v>
       </c>
       <c r="V22" t="n">
-        <v>93.01284585916598</v>
+        <v>52.10790516999289</v>
       </c>
       <c r="W22" t="n">
-        <v>29.82663155479608</v>
+        <v>22.22188754120697</v>
       </c>
       <c r="X22" t="n">
-        <v>63.65477494240125</v>
+        <v>29.85604369008065</v>
       </c>
       <c r="Y22" t="n">
-        <v>41.09933477023965</v>
+        <v>53.38104707392596</v>
       </c>
       <c r="Z22" t="n">
-        <v>51.97037849646525</v>
+        <v>45.77899331060828</v>
       </c>
       <c r="AA22" t="n">
-        <v>81.24226774411964</v>
+        <v>51.9590580176308</v>
       </c>
       <c r="AB22" t="n">
-        <v>109.4790605166263</v>
+        <v>32.78603717379912</v>
       </c>
       <c r="AC22" t="n">
-        <v>69.45746867873574</v>
+        <v>114.427087264786</v>
       </c>
       <c r="AD22" t="n">
-        <v>96.40037660526829</v>
+        <v>90.92750625884973</v>
       </c>
       <c r="AE22" t="n">
-        <v>116.9616002780203</v>
+        <v>96.71147000612815</v>
       </c>
       <c r="AF22" t="n">
-        <v>60.48614809146309</v>
+        <v>102.2099694071271</v>
       </c>
       <c r="AG22" t="n">
-        <v>26.23942044099549</v>
+        <v>102.9052701526546</v>
       </c>
       <c r="AH22" t="n">
-        <v>119.9626617109655</v>
+        <v>70.02555211748492</v>
       </c>
       <c r="AI22" t="n">
-        <v>51.42069354173582</v>
+        <v>32.0941375793689</v>
       </c>
       <c r="AJ22" t="n">
-        <v>12.58954804486542</v>
+        <v>67.53265893657758</v>
       </c>
       <c r="AK22" t="n">
-        <v>28.5608067389442</v>
+        <v>76.38448944793907</v>
       </c>
       <c r="AL22" t="n">
-        <v>26.62183185484461</v>
+        <v>36.12196753611607</v>
       </c>
       <c r="AM22" t="n">
-        <v>22.73500170662209</v>
+        <v>8.961043074847977</v>
       </c>
       <c r="AN22" t="n">
-        <v>9.661654963885713</v>
+        <v>13.40052101074713</v>
       </c>
       <c r="AO22" t="n">
-        <v>12.25302291241362</v>
+        <v>14.38612279163437</v>
       </c>
       <c r="AP22" t="n">
-        <v>20.05622240871902</v>
+        <v>22.38273266708498</v>
       </c>
       <c r="AQ22" t="n">
-        <v>32.90464049602124</v>
+        <v>9.366677818769517</v>
       </c>
       <c r="AR22" t="n">
-        <v>21.72278399167147</v>
+        <v>14.89382652347551</v>
       </c>
       <c r="AS22" t="n">
-        <v>23.74860340540146</v>
+        <v>26.35414288013977</v>
       </c>
       <c r="AT22" t="n">
-        <v>15.58031414835031</v>
+        <v>8.231773736933421</v>
       </c>
       <c r="AU22" t="n">
-        <v>16.92871182427027</v>
+        <v>11.3589493938005</v>
       </c>
       <c r="AV22" t="n">
-        <v>5.923365748964918</v>
+        <v>8.306236054019479</v>
       </c>
       <c r="AW22" t="n">
-        <v>13.02631675762181</v>
+        <v>4.152374235405421</v>
       </c>
       <c r="AX22" t="n">
-        <v>10.43668315068178</v>
+        <v>12.33164050781171</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>17.35771353411071</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>9.912621012520667</v>
+        <v>6.261719310327591</v>
       </c>
       <c r="E23" t="n">
-        <v>20.02586681082596</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>15.78757062786682</v>
+        <v>15.06137771326634</v>
       </c>
       <c r="G23" t="n">
-        <v>25.54146458994189</v>
+        <v>10.17479677633592</v>
       </c>
       <c r="H23" t="n">
-        <v>9.528651327488653</v>
+        <v>17.4007117167401</v>
       </c>
       <c r="I23" t="n">
-        <v>16.6804002995998</v>
+        <v>90.24242675895506</v>
       </c>
       <c r="J23" t="n">
-        <v>13.6614974272661</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>56.42455355052287</v>
+        <v>93.99904999754187</v>
       </c>
       <c r="L23" t="n">
-        <v>24.89939272079681</v>
+        <v>117.8974171011013</v>
       </c>
       <c r="M23" t="n">
-        <v>26.11417989231593</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>114.4651215656419</v>
+        <v>37.35616766106698</v>
       </c>
       <c r="O23" t="n">
-        <v>34.38854591823493</v>
+        <v>0.5212880167678797</v>
       </c>
       <c r="P23" t="n">
-        <v>23.14404056533125</v>
+        <v>118.8318460727534</v>
       </c>
       <c r="Q23" t="n">
-        <v>77.72125972298446</v>
+        <v>66.42423640202462</v>
       </c>
       <c r="R23" t="n">
-        <v>14.55713387784821</v>
+        <v>2.415020965328122</v>
       </c>
       <c r="S23" t="n">
-        <v>57.237323965694</v>
+        <v>46.70656412454581</v>
       </c>
       <c r="T23" t="n">
-        <v>120.2331890424818</v>
+        <v>49.09597406179745</v>
       </c>
       <c r="U23" t="n">
-        <v>65.85463035910868</v>
+        <v>37.04572153142901</v>
       </c>
       <c r="V23" t="n">
-        <v>29.2372170917774</v>
+        <v>41.27332282413714</v>
       </c>
       <c r="W23" t="n">
-        <v>59.66123006842508</v>
+        <v>38.79613345881309</v>
       </c>
       <c r="X23" t="n">
-        <v>31.80315919406221</v>
+        <v>54.68659219092195</v>
       </c>
       <c r="Y23" t="n">
-        <v>56.94708123915959</v>
+        <v>51.77152367635459</v>
       </c>
       <c r="Z23" t="n">
-        <v>16.46630160357609</v>
+        <v>36.38511099145997</v>
       </c>
       <c r="AA23" t="n">
-        <v>29.10044108786719</v>
+        <v>39.01453134094369</v>
       </c>
       <c r="AB23" t="n">
-        <v>13.21572128027151</v>
+        <v>65.77899463955387</v>
       </c>
       <c r="AC23" t="n">
-        <v>32.67439945658292</v>
+        <v>93.20810401624499</v>
       </c>
       <c r="AD23" t="n">
-        <v>3.940501910217725</v>
+        <v>47.51483062659899</v>
       </c>
       <c r="AE23" t="n">
-        <v>25.80461636176663</v>
+        <v>34.91453889642707</v>
       </c>
       <c r="AF23" t="n">
-        <v>12.89899324818355</v>
+        <v>51.55448427670554</v>
       </c>
       <c r="AG23" t="n">
-        <v>32.93247358691512</v>
+        <v>36.12326622183732</v>
       </c>
       <c r="AH23" t="n">
-        <v>32.64427043139237</v>
+        <v>11.75040821287838</v>
       </c>
       <c r="AI23" t="n">
-        <v>31.47471702080689</v>
+        <v>37.83497830191421</v>
       </c>
       <c r="AJ23" t="n">
-        <v>40.0196755748389</v>
+        <v>43.15653077935527</v>
       </c>
       <c r="AK23" t="n">
-        <v>32.94025138733873</v>
+        <v>18.64390201170599</v>
       </c>
       <c r="AL23" t="n">
-        <v>54.17682891571501</v>
+        <v>33.72072427291204</v>
       </c>
       <c r="AM23" t="n">
-        <v>29.76862697200906</v>
+        <v>24.36054507747648</v>
       </c>
       <c r="AN23" t="n">
-        <v>31.79711764618073</v>
+        <v>25.15117758450291</v>
       </c>
       <c r="AO23" t="n">
-        <v>16.09625459273258</v>
+        <v>13.21943199740581</v>
       </c>
       <c r="AP23" t="n">
-        <v>33.17972111031172</v>
+        <v>12.49974492366492</v>
       </c>
       <c r="AQ23" t="n">
-        <v>35.0211132587504</v>
+        <v>17.51003142999547</v>
       </c>
       <c r="AR23" t="n">
-        <v>19.66159563030117</v>
+        <v>41.55914769902554</v>
       </c>
       <c r="AS23" t="n">
-        <v>11.47582456702573</v>
+        <v>25.94109478354031</v>
       </c>
       <c r="AT23" t="n">
-        <v>7.483070268561556</v>
+        <v>26.10672043794496</v>
       </c>
       <c r="AU23" t="n">
-        <v>39.91520590018489</v>
+        <v>42.33948282472937</v>
       </c>
       <c r="AV23" t="n">
-        <v>25.6021723846936</v>
+        <v>0</v>
       </c>
       <c r="AW23" t="n">
-        <v>41.62682979433396</v>
+        <v>44.0154817806622</v>
       </c>
       <c r="AX23" t="n">
-        <v>20.96407568445924</v>
+        <v>26.83166963792167</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>6.155321955680733</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>3.099526339341151</v>
+        <v>6.105066181257618</v>
       </c>
       <c r="E24" t="n">
-        <v>4.116285478305777</v>
+        <v>4.830447680035497</v>
       </c>
       <c r="F24" t="n">
-        <v>2.788393724321657</v>
+        <v>4.269900467494311</v>
       </c>
       <c r="G24" t="n">
-        <v>13.74392803897406</v>
+        <v>10.36755731604143</v>
       </c>
       <c r="H24" t="n">
-        <v>29.54008755302367</v>
+        <v>4.940152062656477</v>
       </c>
       <c r="I24" t="n">
-        <v>10.58756653359801</v>
+        <v>13.49615712764598</v>
       </c>
       <c r="J24" t="n">
-        <v>3.318641983106807</v>
+        <v>33.29122512202824</v>
       </c>
       <c r="K24" t="n">
-        <v>10.67678979923163</v>
+        <v>22.43127897218179</v>
       </c>
       <c r="L24" t="n">
-        <v>1.780031973757253</v>
+        <v>14.5272743354618</v>
       </c>
       <c r="M24" t="n">
-        <v>25.87968690958267</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>37.51412543973534</v>
+        <v>61.73644647717504</v>
       </c>
       <c r="O24" t="n">
-        <v>28.22745107350063</v>
+        <v>44.65845673719112</v>
       </c>
       <c r="P24" t="n">
-        <v>20.15035163729372</v>
+        <v>26.21100072654358</v>
       </c>
       <c r="Q24" t="n">
-        <v>17.69663387287417</v>
+        <v>15.3518858841623</v>
       </c>
       <c r="R24" t="n">
-        <v>44.29618709984263</v>
+        <v>12.59467364332217</v>
       </c>
       <c r="S24" t="n">
-        <v>25.78537101505967</v>
+        <v>36.13837949778014</v>
       </c>
       <c r="T24" t="n">
-        <v>13.08618808511183</v>
+        <v>23.13108249052318</v>
       </c>
       <c r="U24" t="n">
-        <v>37.49428369093192</v>
+        <v>27.62842538649099</v>
       </c>
       <c r="V24" t="n">
-        <v>15.56888216300544</v>
+        <v>3.97346546290169</v>
       </c>
       <c r="W24" t="n">
-        <v>37.77067136368671</v>
+        <v>7.762225763323072</v>
       </c>
       <c r="X24" t="n">
-        <v>10.09210632523398</v>
+        <v>29.81506243113675</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.647825028809907</v>
+        <v>18.80441403745025</v>
       </c>
       <c r="Z24" t="n">
-        <v>24.63882008647984</v>
+        <v>8.980888800356631</v>
       </c>
       <c r="AA24" t="n">
-        <v>42.13580819695392</v>
+        <v>16.73354338489411</v>
       </c>
       <c r="AB24" t="n">
-        <v>16.20137408025253</v>
+        <v>11.33118023824226</v>
       </c>
       <c r="AC24" t="n">
-        <v>14.95791930872016</v>
+        <v>13.74191577132167</v>
       </c>
       <c r="AD24" t="n">
-        <v>14.49116631519848</v>
+        <v>3.100180828947866</v>
       </c>
       <c r="AE24" t="n">
-        <v>12.6253780937822</v>
+        <v>16.64347348127359</v>
       </c>
       <c r="AF24" t="n">
-        <v>19.80996963668186</v>
+        <v>21.82747585793626</v>
       </c>
       <c r="AG24" t="n">
-        <v>8.698360385260365</v>
+        <v>18.02825041936051</v>
       </c>
       <c r="AH24" t="n">
-        <v>14.48933706700375</v>
+        <v>5.171062225213072</v>
       </c>
       <c r="AI24" t="n">
-        <v>9.031163747635443</v>
+        <v>7.769645318527645</v>
       </c>
       <c r="AJ24" t="n">
-        <v>11.51248133550622</v>
+        <v>7.749641744548456</v>
       </c>
       <c r="AK24" t="n">
-        <v>10.07248346775651</v>
+        <v>10.33372913361937</v>
       </c>
       <c r="AL24" t="n">
-        <v>9.40401700347477</v>
+        <v>5.294892478264327</v>
       </c>
       <c r="AM24" t="n">
-        <v>1.80251590751899</v>
+        <v>1.95317088130462</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.277158792777436</v>
+        <v>5.953075091429656</v>
       </c>
       <c r="AO24" t="n">
-        <v>2.994031012860229</v>
+        <v>0.8540605034021469</v>
       </c>
       <c r="AP24" t="n">
-        <v>3.267364716155019</v>
+        <v>5.009199564528846</v>
       </c>
       <c r="AQ24" t="n">
-        <v>3.26954774479908</v>
+        <v>2.752771288562147</v>
       </c>
       <c r="AR24" t="n">
-        <v>6.763702761831375</v>
+        <v>3.180688674449829</v>
       </c>
       <c r="AS24" t="n">
-        <v>3.966664994637466</v>
+        <v>3.844897032889293</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.614761334087397</v>
+        <v>1.844746285402152</v>
       </c>
       <c r="AU24" t="n">
-        <v>0.4800119538968552</v>
+        <v>1.88764176845068</v>
       </c>
       <c r="AV24" t="n">
-        <v>6.250905511719984</v>
+        <v>0.7097377861719701</v>
       </c>
       <c r="AW24" t="n">
-        <v>4.175497868710361</v>
+        <v>0.541950860469356</v>
       </c>
       <c r="AX24" t="n">
-        <v>3.233268435253067</v>
+        <v>0.5259842280578871</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>5.765203084164667</v>
+        <v>12.78985437352999</v>
       </c>
       <c r="D25" t="n">
-        <v>3.56329396472339</v>
+        <v>7.030360727291983</v>
       </c>
       <c r="E25" t="n">
-        <v>46.69223547003502</v>
+        <v>1.464724886377799</v>
       </c>
       <c r="F25" t="n">
-        <v>6.29870446241155</v>
+        <v>14.2682958326577</v>
       </c>
       <c r="G25" t="n">
-        <v>1.148644755370976</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>7.957666352383693</v>
+        <v>91.33370881513898</v>
       </c>
       <c r="I25" t="n">
-        <v>3.152369067707858</v>
+        <v>20.86589707215659</v>
       </c>
       <c r="J25" t="n">
-        <v>13.09872036823143</v>
+        <v>20.8508402951939</v>
       </c>
       <c r="K25" t="n">
-        <v>148.7952129663445</v>
+        <v>100.1274646131471</v>
       </c>
       <c r="L25" t="n">
-        <v>12.43382566269402</v>
+        <v>22.75214808967796</v>
       </c>
       <c r="M25" t="n">
-        <v>82.29794817624986</v>
+        <v>63.99390567681514</v>
       </c>
       <c r="N25" t="n">
-        <v>1037.927687975363</v>
+        <v>44.75568405906632</v>
       </c>
       <c r="O25" t="n">
-        <v>30.16940968323416</v>
+        <v>22.20501868852087</v>
       </c>
       <c r="P25" t="n">
-        <v>123.4199887817066</v>
+        <v>59.57724736653301</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.8288904594777</v>
+        <v>12.73373076746131</v>
       </c>
       <c r="R25" t="n">
-        <v>13.67257387898715</v>
+        <v>78.71075777986638</v>
       </c>
       <c r="S25" t="n">
-        <v>22.22458539841827</v>
+        <v>48.38785091675653</v>
       </c>
       <c r="T25" t="n">
-        <v>5.664259028510155</v>
+        <v>19.28445969419467</v>
       </c>
       <c r="U25" t="n">
-        <v>16.4335457575821</v>
+        <v>4.363395436496059</v>
       </c>
       <c r="V25" t="n">
-        <v>37.69068456354429</v>
+        <v>44.85336724691607</v>
       </c>
       <c r="W25" t="n">
-        <v>3.37254429636811</v>
+        <v>9.96892673469317</v>
       </c>
       <c r="X25" t="n">
-        <v>26.80797922696551</v>
+        <v>36.08486834246445</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.260315860167314</v>
+        <v>23.5243890325841</v>
       </c>
       <c r="Z25" t="n">
-        <v>13.30924635906722</v>
+        <v>22.51228994232398</v>
       </c>
       <c r="AA25" t="n">
-        <v>2.909449258355848</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>6.6667439040817</v>
+        <v>17.5134014400286</v>
       </c>
       <c r="AC25" t="n">
-        <v>11.58128068052225</v>
+        <v>1.104144777232675</v>
       </c>
       <c r="AD25" t="n">
-        <v>6.399287607381384</v>
+        <v>15.58282398639542</v>
       </c>
       <c r="AE25" t="n">
-        <v>4.7027038784842</v>
+        <v>10.81826058044509</v>
       </c>
       <c r="AF25" t="n">
-        <v>6.03435606810663</v>
+        <v>0.4403477694231674</v>
       </c>
       <c r="AG25" t="n">
-        <v>6.29480313280299</v>
+        <v>0</v>
       </c>
       <c r="AH25" t="n">
-        <v>9.532075441913404</v>
+        <v>6.911591536365975</v>
       </c>
       <c r="AI25" t="n">
-        <v>9.278701782682159</v>
+        <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>18.74721654803971</v>
+        <v>42.8414353612208</v>
       </c>
       <c r="AK25" t="n">
-        <v>1.388840777582947</v>
+        <v>1.080523444442223</v>
       </c>
       <c r="AL25" t="n">
-        <v>2.007902209205862</v>
+        <v>6.930028121372589</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.7017953141516342</v>
+        <v>5.937387862062625</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.461468944836428</v>
+        <v>4.429002690050734</v>
       </c>
       <c r="AO25" t="n">
-        <v>3.761960218329558</v>
+        <v>13.67035936387921</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.166757733166009</v>
+        <v>10.797866825131</v>
       </c>
       <c r="AQ25" t="n">
-        <v>2.927858112932065</v>
+        <v>15.48406697232565</v>
       </c>
       <c r="AR25" t="n">
-        <v>2.578160662991511</v>
+        <v>17.65689799137767</v>
       </c>
       <c r="AS25" t="n">
-        <v>18.06361162154449</v>
+        <v>0</v>
       </c>
       <c r="AT25" t="n">
-        <v>4.122511716631877</v>
+        <v>4.861436290498576</v>
       </c>
       <c r="AU25" t="n">
-        <v>19.04242774930495</v>
+        <v>0</v>
       </c>
       <c r="AV25" t="n">
-        <v>17.73462193821641</v>
+        <v>21.0834783254744</v>
       </c>
       <c r="AW25" t="n">
-        <v>1.458626866360962</v>
+        <v>9.412687000555334</v>
       </c>
       <c r="AX25" t="n">
-        <v>12.92217434612692</v>
+        <v>22.17829782587866</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>22.9007222747414</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>41.93368502931995</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>21.02562045164995</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>16.4952737028389</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>14.84169020006325</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>71.24569258743296</v>
+        <v>44.1549712552738</v>
       </c>
       <c r="I26" t="n">
-        <v>31.02551101194991</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>16.95415442972015</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>40.38994494470373</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>24.80821365129479</v>
+        <v>70.27244434469632</v>
       </c>
       <c r="M26" t="n">
-        <v>30.38700019115679</v>
+        <v>66.93088521530747</v>
       </c>
       <c r="N26" t="n">
-        <v>28.98761816480156</v>
+        <v>103.5787018397809</v>
       </c>
       <c r="O26" t="n">
-        <v>71.12444842177561</v>
+        <v>84.7096311952631</v>
       </c>
       <c r="P26" t="n">
-        <v>46.13797585667987</v>
+        <v>23.35324551960925</v>
       </c>
       <c r="Q26" t="n">
-        <v>61.47167348600154</v>
+        <v>51.90825090394519</v>
       </c>
       <c r="R26" t="n">
-        <v>115.0787099558427</v>
+        <v>103.8895748972756</v>
       </c>
       <c r="S26" t="n">
-        <v>15.52895475348874</v>
+        <v>48.80473481230301</v>
       </c>
       <c r="T26" t="n">
-        <v>43.46726888484569</v>
+        <v>37.75862061185614</v>
       </c>
       <c r="U26" t="n">
-        <v>43.02347430869433</v>
+        <v>98.55785757536395</v>
       </c>
       <c r="V26" t="n">
-        <v>117.7409035524239</v>
+        <v>48.20214094214028</v>
       </c>
       <c r="W26" t="n">
-        <v>45.64144993472782</v>
+        <v>97.04921648033432</v>
       </c>
       <c r="X26" t="n">
-        <v>155.658625807427</v>
+        <v>106.7847600479288</v>
       </c>
       <c r="Y26" t="n">
-        <v>56.87484012598274</v>
+        <v>52.53201401502699</v>
       </c>
       <c r="Z26" t="n">
-        <v>79.90862962120717</v>
+        <v>61.7118591878607</v>
       </c>
       <c r="AA26" t="n">
-        <v>80.38497133115251</v>
+        <v>122.6615966175629</v>
       </c>
       <c r="AB26" t="n">
-        <v>73.94073021229143</v>
+        <v>114.8974453502635</v>
       </c>
       <c r="AC26" t="n">
-        <v>57.23689463048067</v>
+        <v>52.24768600584723</v>
       </c>
       <c r="AD26" t="n">
-        <v>134.8265746242187</v>
+        <v>102.6493697144526</v>
       </c>
       <c r="AE26" t="n">
-        <v>181.6029640715583</v>
+        <v>147.3843427124628</v>
       </c>
       <c r="AF26" t="n">
-        <v>75.46858326366825</v>
+        <v>145.0545585551181</v>
       </c>
       <c r="AG26" t="n">
-        <v>49.15977768344499</v>
+        <v>59.35752392304413</v>
       </c>
       <c r="AH26" t="n">
-        <v>137.0331571644057</v>
+        <v>91.07962866169231</v>
       </c>
       <c r="AI26" t="n">
-        <v>174.6376507698749</v>
+        <v>115.8331356702788</v>
       </c>
       <c r="AJ26" t="n">
-        <v>69.74541343925202</v>
+        <v>87.51785332165962</v>
       </c>
       <c r="AK26" t="n">
-        <v>58.69457186863144</v>
+        <v>68.34031228735202</v>
       </c>
       <c r="AL26" t="n">
-        <v>50.18653251772908</v>
+        <v>35.76653208143999</v>
       </c>
       <c r="AM26" t="n">
-        <v>58.67744566062726</v>
+        <v>49.80618148199992</v>
       </c>
       <c r="AN26" t="n">
-        <v>44.3871473117872</v>
+        <v>65.65023934545339</v>
       </c>
       <c r="AO26" t="n">
-        <v>23.36183284317002</v>
+        <v>41.59112145929926</v>
       </c>
       <c r="AP26" t="n">
-        <v>40.89373733349273</v>
+        <v>34.58160020343519</v>
       </c>
       <c r="AQ26" t="n">
-        <v>26.19461276209788</v>
+        <v>19.84749254617542</v>
       </c>
       <c r="AR26" t="n">
-        <v>17.984339250323</v>
+        <v>72.53415410702301</v>
       </c>
       <c r="AS26" t="n">
-        <v>22.76010658021947</v>
+        <v>13.40141672944937</v>
       </c>
       <c r="AT26" t="n">
-        <v>25.11345829772185</v>
+        <v>12.96660858035531</v>
       </c>
       <c r="AU26" t="n">
-        <v>22.5504972369284</v>
+        <v>15.21265738863195</v>
       </c>
       <c r="AV26" t="n">
-        <v>26.1651478659934</v>
+        <v>14.87048974408583</v>
       </c>
       <c r="AW26" t="n">
-        <v>15.38964374273423</v>
+        <v>15.47681375206453</v>
       </c>
       <c r="AX26" t="n">
-        <v>36.77605507814052</v>
+        <v>21.1960573572041</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>2.504786289812955</v>
+        <v>4.936588216903674</v>
       </c>
       <c r="D27" t="n">
-        <v>8.670045777807864</v>
+        <v>2.494550815488568</v>
       </c>
       <c r="E27" t="n">
-        <v>2.896959004505763</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5113450287581556</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>3.786228340134104</v>
+        <v>1.561025809131394</v>
       </c>
       <c r="H27" t="n">
-        <v>1.543688062524724</v>
+        <v>7.344291469389014</v>
       </c>
       <c r="I27" t="n">
-        <v>6.587431585709281</v>
+        <v>3.134639084126923</v>
       </c>
       <c r="J27" t="n">
-        <v>3.82664023269129</v>
+        <v>5.456219445423026</v>
       </c>
       <c r="K27" t="n">
-        <v>1.083752894552073</v>
+        <v>0.8333784535074463</v>
       </c>
       <c r="L27" t="n">
-        <v>17.9213786484008</v>
+        <v>4.33029587890812</v>
       </c>
       <c r="M27" t="n">
-        <v>3.996357021639957</v>
+        <v>4.335075227753552</v>
       </c>
       <c r="N27" t="n">
-        <v>3.500148943043218</v>
+        <v>4.436874431409211</v>
       </c>
       <c r="O27" t="n">
-        <v>3.073536739718761</v>
+        <v>6.751677948442177</v>
       </c>
       <c r="P27" t="n">
-        <v>5.488356150354615</v>
+        <v>1.657190765750843</v>
       </c>
       <c r="Q27" t="n">
-        <v>5.791613905958595</v>
+        <v>3.650595740032053</v>
       </c>
       <c r="R27" t="n">
-        <v>1.315767903613304</v>
+        <v>4.337710356414861</v>
       </c>
       <c r="S27" t="n">
-        <v>2.888712417458571</v>
+        <v>6.004193788983683</v>
       </c>
       <c r="T27" t="n">
-        <v>4.14436322483853</v>
+        <v>1.21039438883823</v>
       </c>
       <c r="U27" t="n">
-        <v>3.954249128198092</v>
+        <v>3.292486280443694</v>
       </c>
       <c r="V27" t="n">
-        <v>4.048880270572824</v>
+        <v>4.187219094505958</v>
       </c>
       <c r="W27" t="n">
-        <v>2.005422039603834</v>
+        <v>8.419612983666278</v>
       </c>
       <c r="X27" t="n">
-        <v>1.724000983268921</v>
+        <v>0.5870369572552734</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.508283803226636</v>
+        <v>1.536197536621154</v>
       </c>
       <c r="Z27" t="n">
-        <v>3.19417843997436</v>
+        <v>3.144083203525744</v>
       </c>
       <c r="AA27" t="n">
-        <v>5.051334065739977</v>
+        <v>5.615856361126026</v>
       </c>
       <c r="AB27" t="n">
-        <v>4.042139051269574</v>
+        <v>3.104531595224696</v>
       </c>
       <c r="AC27" t="n">
-        <v>3.524285707611393</v>
+        <v>3.37737702066353</v>
       </c>
       <c r="AD27" t="n">
-        <v>10.54438722703004</v>
+        <v>5.154165720825372</v>
       </c>
       <c r="AE27" t="n">
-        <v>4.923520250573095</v>
+        <v>4.092406817153587</v>
       </c>
       <c r="AF27" t="n">
-        <v>7.70169353595685</v>
+        <v>8.538542064275335</v>
       </c>
       <c r="AG27" t="n">
-        <v>6.037174287604158</v>
+        <v>5.489731942817883</v>
       </c>
       <c r="AH27" t="n">
-        <v>5.936056843354835</v>
+        <v>7.397608937667377</v>
       </c>
       <c r="AI27" t="n">
-        <v>6.826240074271048</v>
+        <v>7.209537058570136</v>
       </c>
       <c r="AJ27" t="n">
-        <v>3.295769336523248</v>
+        <v>4.58538533354921</v>
       </c>
       <c r="AK27" t="n">
-        <v>3.163854658973822</v>
+        <v>5.128358815880571</v>
       </c>
       <c r="AL27" t="n">
-        <v>4.421283594096487</v>
+        <v>7.453928751535546</v>
       </c>
       <c r="AM27" t="n">
-        <v>4.453796168446789</v>
+        <v>7.168342227103869</v>
       </c>
       <c r="AN27" t="n">
-        <v>2.016266466604462</v>
+        <v>6.412691285837262</v>
       </c>
       <c r="AO27" t="n">
-        <v>4.040688330302075</v>
+        <v>2.777922660729299</v>
       </c>
       <c r="AP27" t="n">
-        <v>10.25125273501794</v>
+        <v>2.921780091978803</v>
       </c>
       <c r="AQ27" t="n">
-        <v>4.266175573720889</v>
+        <v>2.953583908000445</v>
       </c>
       <c r="AR27" t="n">
-        <v>3.514482493716685</v>
+        <v>4.294716726148205</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.212123579432029</v>
+        <v>4.004759973889174</v>
       </c>
       <c r="AT27" t="n">
-        <v>9.976008731024589</v>
+        <v>2.891172665462479</v>
       </c>
       <c r="AU27" t="n">
-        <v>2.113520530697118</v>
+        <v>3.223115852278249</v>
       </c>
       <c r="AV27" t="n">
-        <v>5.336470417902251</v>
+        <v>3.433461805367521</v>
       </c>
       <c r="AW27" t="n">
-        <v>8.486439536905074</v>
+        <v>2.472809340183188</v>
       </c>
       <c r="AX27" t="n">
-        <v>9.099046486737913</v>
+        <v>2.134015069167484</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>24.89650817610963</v>
+        <v>14.70780486332498</v>
       </c>
       <c r="D28" t="n">
-        <v>28.72059332781735</v>
+        <v>3.027186431724408</v>
       </c>
       <c r="E28" t="n">
-        <v>6.340669932713595</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>11.39723708824954</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>8.302283282787879</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>13.17027940066692</v>
+        <v>50.75305335459745</v>
       </c>
       <c r="I28" t="n">
-        <v>36.32961458811491</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>56.33133385490829</v>
+        <v>221.3070235654202</v>
       </c>
       <c r="K28" t="n">
-        <v>48.98249683131049</v>
+        <v>60.26909142516919</v>
       </c>
       <c r="L28" t="n">
-        <v>28.93274132538575</v>
+        <v>159.6053608460639</v>
       </c>
       <c r="M28" t="n">
-        <v>66.72838704429955</v>
+        <v>64.0069551267901</v>
       </c>
       <c r="N28" t="n">
-        <v>15.97249845327867</v>
+        <v>41.91104957826598</v>
       </c>
       <c r="O28" t="n">
-        <v>133.1264280426213</v>
+        <v>35.08289491309604</v>
       </c>
       <c r="P28" t="n">
-        <v>181.6782246912943</v>
+        <v>82.02510697526347</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.80509503130835</v>
+        <v>10.47590609348479</v>
       </c>
       <c r="R28" t="n">
-        <v>57.99815484805171</v>
+        <v>56.62459881043014</v>
       </c>
       <c r="S28" t="n">
-        <v>35.70617010501814</v>
+        <v>27.00346393916965</v>
       </c>
       <c r="T28" t="n">
-        <v>23.98973130178849</v>
+        <v>43.37836345706146</v>
       </c>
       <c r="U28" t="n">
-        <v>38.21220294330335</v>
+        <v>31.26380332236334</v>
       </c>
       <c r="V28" t="n">
-        <v>32.71392901085065</v>
+        <v>19.92440864811846</v>
       </c>
       <c r="W28" t="n">
-        <v>81.58642447341272</v>
+        <v>24.59988486261441</v>
       </c>
       <c r="X28" t="n">
-        <v>47.37777055819927</v>
+        <v>32.11523804909257</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.12883431490562</v>
+        <v>59.63543262214368</v>
       </c>
       <c r="Z28" t="n">
-        <v>89.2631075044135</v>
+        <v>58.28125100105573</v>
       </c>
       <c r="AA28" t="n">
-        <v>35.36009605988182</v>
+        <v>79.90248147061381</v>
       </c>
       <c r="AB28" t="n">
-        <v>55.01779129017074</v>
+        <v>81.07312959175553</v>
       </c>
       <c r="AC28" t="n">
-        <v>92.49648534591994</v>
+        <v>134.0265473140553</v>
       </c>
       <c r="AD28" t="n">
-        <v>30.44297633946102</v>
+        <v>22.84699896811719</v>
       </c>
       <c r="AE28" t="n">
-        <v>87.72960154246942</v>
+        <v>39.16076553012958</v>
       </c>
       <c r="AF28" t="n">
-        <v>51.93158871006302</v>
+        <v>100.3093501232595</v>
       </c>
       <c r="AG28" t="n">
-        <v>55.75071729313751</v>
+        <v>39.2014619900293</v>
       </c>
       <c r="AH28" t="n">
-        <v>62.59187865482543</v>
+        <v>42.00907201621788</v>
       </c>
       <c r="AI28" t="n">
-        <v>68.63998945953045</v>
+        <v>22.19468313892176</v>
       </c>
       <c r="AJ28" t="n">
-        <v>24.27875551097353</v>
+        <v>61.81487422755974</v>
       </c>
       <c r="AK28" t="n">
-        <v>22.71421905946434</v>
+        <v>29.04727364187784</v>
       </c>
       <c r="AL28" t="n">
-        <v>15.30907800091867</v>
+        <v>50.73262326433605</v>
       </c>
       <c r="AM28" t="n">
-        <v>60.50943478366878</v>
+        <v>23.77933873790073</v>
       </c>
       <c r="AN28" t="n">
-        <v>21.52560022394172</v>
+        <v>24.0376616224022</v>
       </c>
       <c r="AO28" t="n">
-        <v>15.48857434184742</v>
+        <v>14.64278252948481</v>
       </c>
       <c r="AP28" t="n">
-        <v>11.58325344834205</v>
+        <v>23.26183717396194</v>
       </c>
       <c r="AQ28" t="n">
-        <v>32.28902996497842</v>
+        <v>16.18092362593009</v>
       </c>
       <c r="AR28" t="n">
-        <v>36.27186245565729</v>
+        <v>20.57931264153247</v>
       </c>
       <c r="AS28" t="n">
-        <v>30.45878417159718</v>
+        <v>14.64610298591718</v>
       </c>
       <c r="AT28" t="n">
-        <v>13.67654008321927</v>
+        <v>6.351982774251757</v>
       </c>
       <c r="AU28" t="n">
-        <v>23.3606258035668</v>
+        <v>8.170679931321388</v>
       </c>
       <c r="AV28" t="n">
-        <v>9.787825390456771</v>
+        <v>6.872449337914277</v>
       </c>
       <c r="AW28" t="n">
-        <v>15.62198815693476</v>
+        <v>9.731622254235289</v>
       </c>
       <c r="AX28" t="n">
-        <v>16.29748458087748</v>
+        <v>10.5278163033392</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>31.6516771512972</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>25.15741935144561</v>
+        <v>15.55621936432872</v>
       </c>
       <c r="E29" t="n">
-        <v>10.46861699047322</v>
+        <v>17.23609220256677</v>
       </c>
       <c r="F29" t="n">
-        <v>172.9681652621026</v>
+        <v>2.984426476342301</v>
       </c>
       <c r="G29" t="n">
-        <v>6.834050966879269</v>
+        <v>17.24599160069822</v>
       </c>
       <c r="H29" t="n">
-        <v>9.116677459757417</v>
+        <v>102.3844406739655</v>
       </c>
       <c r="I29" t="n">
-        <v>139.5137242858499</v>
+        <v>8.295726808725657</v>
       </c>
       <c r="J29" t="n">
-        <v>12.90449463788346</v>
+        <v>25.46301038585536</v>
       </c>
       <c r="K29" t="n">
-        <v>20.91846058617908</v>
+        <v>29.09112018317493</v>
       </c>
       <c r="L29" t="n">
-        <v>16.95669944776291</v>
+        <v>119.5238195880569</v>
       </c>
       <c r="M29" t="n">
-        <v>16.94624387402299</v>
+        <v>91.54276181564782</v>
       </c>
       <c r="N29" t="n">
-        <v>27.05305680042356</v>
+        <v>44.27734661081004</v>
       </c>
       <c r="O29" t="n">
-        <v>43.32861426830264</v>
+        <v>61.09904119180741</v>
       </c>
       <c r="P29" t="n">
-        <v>73.61948468291642</v>
+        <v>46.36408573159545</v>
       </c>
       <c r="Q29" t="n">
-        <v>147.2705976004159</v>
+        <v>17.74131249372258</v>
       </c>
       <c r="R29" t="n">
-        <v>21.80303110396232</v>
+        <v>57.23517440887839</v>
       </c>
       <c r="S29" t="n">
-        <v>88.68882929216572</v>
+        <v>45.30632282473609</v>
       </c>
       <c r="T29" t="n">
-        <v>71.49385270838542</v>
+        <v>39.84315835032715</v>
       </c>
       <c r="U29" t="n">
-        <v>40.22212666366029</v>
+        <v>96.2211043886592</v>
       </c>
       <c r="V29" t="n">
-        <v>36.16731447839324</v>
+        <v>89.41895820698569</v>
       </c>
       <c r="W29" t="n">
-        <v>42.55360933503779</v>
+        <v>115.4200433009447</v>
       </c>
       <c r="X29" t="n">
-        <v>28.86490650724268</v>
+        <v>27.4029522861313</v>
       </c>
       <c r="Y29" t="n">
-        <v>20.16948065488765</v>
+        <v>35.56077772820667</v>
       </c>
       <c r="Z29" t="n">
-        <v>28.22761840281978</v>
+        <v>27.89559006028383</v>
       </c>
       <c r="AA29" t="n">
-        <v>35.04302566535014</v>
+        <v>33.6538017522271</v>
       </c>
       <c r="AB29" t="n">
-        <v>26.10370854152281</v>
+        <v>19.77239513789108</v>
       </c>
       <c r="AC29" t="n">
-        <v>36.41242569379892</v>
+        <v>14.98487160736203</v>
       </c>
       <c r="AD29" t="n">
-        <v>53.29658284924989</v>
+        <v>28.10239272134471</v>
       </c>
       <c r="AE29" t="n">
-        <v>62.45404936024588</v>
+        <v>26.15284332030407</v>
       </c>
       <c r="AF29" t="n">
-        <v>194.095358972358</v>
+        <v>68.06942835172785</v>
       </c>
       <c r="AG29" t="n">
-        <v>11.82476884052871</v>
+        <v>29.76719281964398</v>
       </c>
       <c r="AH29" t="n">
-        <v>27.53414295577546</v>
+        <v>7.521951481236529</v>
       </c>
       <c r="AI29" t="n">
-        <v>31.42017770645371</v>
+        <v>11.19519477119389</v>
       </c>
       <c r="AJ29" t="n">
-        <v>35.5981870834294</v>
+        <v>9.350792806675379</v>
       </c>
       <c r="AK29" t="n">
-        <v>9.215264179369607</v>
+        <v>9.237620638397486</v>
       </c>
       <c r="AL29" t="n">
-        <v>31.05444213264122</v>
+        <v>28.20659527535055</v>
       </c>
       <c r="AM29" t="n">
-        <v>43.72309331152822</v>
+        <v>20.58667391399969</v>
       </c>
       <c r="AN29" t="n">
-        <v>36.30731942812537</v>
+        <v>34.60496058744376</v>
       </c>
       <c r="AO29" t="n">
-        <v>9.626152150987314</v>
+        <v>23.14550185454538</v>
       </c>
       <c r="AP29" t="n">
-        <v>18.1197407255825</v>
+        <v>40.46474749315218</v>
       </c>
       <c r="AQ29" t="n">
-        <v>44.5649724912447</v>
+        <v>24.81013060966576</v>
       </c>
       <c r="AR29" t="n">
-        <v>19.33786088689673</v>
+        <v>30.05519056512713</v>
       </c>
       <c r="AS29" t="n">
-        <v>39.15387219072265</v>
+        <v>35.33908180801457</v>
       </c>
       <c r="AT29" t="n">
-        <v>54.23663557287816</v>
+        <v>22.96204783611251</v>
       </c>
       <c r="AU29" t="n">
-        <v>21.76081152444038</v>
+        <v>26.54712064053264</v>
       </c>
       <c r="AV29" t="n">
-        <v>22.88404536120165</v>
+        <v>0</v>
       </c>
       <c r="AW29" t="n">
-        <v>9.035902806586028</v>
+        <v>23.20466865098167</v>
       </c>
       <c r="AX29" t="n">
-        <v>11.18084217517791</v>
+        <v>23.10555243889406</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>2.925516550694415</v>
+        <v>5.080549249605</v>
       </c>
       <c r="D30" t="n">
-        <v>22.53402602711944</v>
+        <v>4.319118595207405</v>
       </c>
       <c r="E30" t="n">
-        <v>8.37549573017046</v>
+        <v>9.587215383620387</v>
       </c>
       <c r="F30" t="n">
-        <v>10.20768301505534</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>17.16596435261806</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>10.16631221763863</v>
+        <v>7.062187236721138</v>
       </c>
       <c r="I30" t="n">
-        <v>4.812822790271285</v>
+        <v>8.653979352928012</v>
       </c>
       <c r="J30" t="n">
-        <v>85.15313449096578</v>
+        <v>11.82188886782771</v>
       </c>
       <c r="K30" t="n">
-        <v>56.31192977500026</v>
+        <v>11.91079658539087</v>
       </c>
       <c r="L30" t="n">
-        <v>71.33346561548974</v>
+        <v>4.250608727305353</v>
       </c>
       <c r="M30" t="n">
-        <v>13.47512329197999</v>
+        <v>25.51804100925271</v>
       </c>
       <c r="N30" t="n">
-        <v>20.92942777617606</v>
+        <v>24.44119995848136</v>
       </c>
       <c r="O30" t="n">
-        <v>38.70717852615215</v>
+        <v>38.47860212636296</v>
       </c>
       <c r="P30" t="n">
-        <v>9.137409533000417</v>
+        <v>12.29859629250464</v>
       </c>
       <c r="Q30" t="n">
-        <v>21.23999915937485</v>
+        <v>7.257542814160461</v>
       </c>
       <c r="R30" t="n">
-        <v>41.03425040156435</v>
+        <v>16.52351861417391</v>
       </c>
       <c r="S30" t="n">
-        <v>40.53285310160407</v>
+        <v>27.85420082381179</v>
       </c>
       <c r="T30" t="n">
-        <v>38.67526425471286</v>
+        <v>29.12978217290622</v>
       </c>
       <c r="U30" t="n">
-        <v>22.72684391685526</v>
+        <v>11.88351667200056</v>
       </c>
       <c r="V30" t="n">
-        <v>19.42783014474656</v>
+        <v>8.278575127003457</v>
       </c>
       <c r="W30" t="n">
-        <v>35.03250494083345</v>
+        <v>17.62461302091388</v>
       </c>
       <c r="X30" t="n">
-        <v>32.79686475046677</v>
+        <v>15.91570730665319</v>
       </c>
       <c r="Y30" t="n">
-        <v>11.20845197222516</v>
+        <v>4.381718809195444</v>
       </c>
       <c r="Z30" t="n">
-        <v>42.27183125734483</v>
+        <v>9.132154644380536</v>
       </c>
       <c r="AA30" t="n">
-        <v>40.6410318504335</v>
+        <v>22.48290399997657</v>
       </c>
       <c r="AB30" t="n">
-        <v>16.16649322861036</v>
+        <v>15.56195307963348</v>
       </c>
       <c r="AC30" t="n">
-        <v>22.66282045942539</v>
+        <v>25.11123963068288</v>
       </c>
       <c r="AD30" t="n">
-        <v>18.8713802658263</v>
+        <v>7.314342663384104</v>
       </c>
       <c r="AE30" t="n">
-        <v>12.18503560714391</v>
+        <v>20.34359618308558</v>
       </c>
       <c r="AF30" t="n">
-        <v>5.971457337670884</v>
+        <v>13.16152927441094</v>
       </c>
       <c r="AG30" t="n">
-        <v>10.07557326245297</v>
+        <v>10.67918132059804</v>
       </c>
       <c r="AH30" t="n">
-        <v>10.62685771402324</v>
+        <v>15.3485818631093</v>
       </c>
       <c r="AI30" t="n">
-        <v>20.41963582256005</v>
+        <v>6.65019141596761</v>
       </c>
       <c r="AJ30" t="n">
-        <v>23.93709034899559</v>
+        <v>18.02226203510982</v>
       </c>
       <c r="AK30" t="n">
-        <v>9.631068064702365</v>
+        <v>6.229680359635081</v>
       </c>
       <c r="AL30" t="n">
-        <v>4.806118876320338</v>
+        <v>7.230318457726156</v>
       </c>
       <c r="AM30" t="n">
-        <v>7.522512529740574</v>
+        <v>2.763446222558855</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.87779780008688</v>
+        <v>5.785952737162057</v>
       </c>
       <c r="AO30" t="n">
-        <v>3.086532948733756</v>
+        <v>6.520997070646741</v>
       </c>
       <c r="AP30" t="n">
-        <v>3.203926145020844</v>
+        <v>2.498532371783846</v>
       </c>
       <c r="AQ30" t="n">
-        <v>6.913735560884158</v>
+        <v>7.673589790245521</v>
       </c>
       <c r="AR30" t="n">
-        <v>2.096666948221899</v>
+        <v>6.296345802438465</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.830302403715433</v>
+        <v>3.966639727505778</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.004076744953857</v>
+        <v>1.596655232535346</v>
       </c>
       <c r="AU30" t="n">
-        <v>2.636554635340833</v>
+        <v>4.197805773257997</v>
       </c>
       <c r="AV30" t="n">
-        <v>7.343508461678823</v>
+        <v>1.089992725864796</v>
       </c>
       <c r="AW30" t="n">
-        <v>3.898941006955979</v>
+        <v>5.54679197652329</v>
       </c>
       <c r="AX30" t="n">
-        <v>1.05586749727836</v>
+        <v>1.084870899661029</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>4.369060120205874</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>53.57044899089641</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.522249820297712</v>
+        <v>9.795199480583697</v>
       </c>
       <c r="F31" t="n">
-        <v>5.475203265598857</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>4.458032433941853</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>3.842443216335611</v>
+        <v>5.927950423016949</v>
       </c>
       <c r="I31" t="n">
-        <v>11.77675854992205</v>
+        <v>10.15182633144768</v>
       </c>
       <c r="J31" t="n">
-        <v>5.681171831814901</v>
+        <v>37.56039907482955</v>
       </c>
       <c r="K31" t="n">
-        <v>45.38059143067783</v>
+        <v>101.2394771443101</v>
       </c>
       <c r="L31" t="n">
-        <v>17.627587282973</v>
+        <v>73.40092893604161</v>
       </c>
       <c r="M31" t="n">
-        <v>6.767771764322714</v>
+        <v>38.90515008075263</v>
       </c>
       <c r="N31" t="n">
-        <v>49.57580936376822</v>
+        <v>69.14193885792768</v>
       </c>
       <c r="O31" t="n">
-        <v>33.0207185066071</v>
+        <v>32.44183405647911</v>
       </c>
       <c r="P31" t="n">
-        <v>38.70119644277025</v>
+        <v>68.19448017526318</v>
       </c>
       <c r="Q31" t="n">
-        <v>63.73728100144325</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>39.94170359966152</v>
+        <v>18.18012760743808</v>
       </c>
       <c r="S31" t="n">
-        <v>15.64019157289115</v>
+        <v>22.74499269844749</v>
       </c>
       <c r="T31" t="n">
-        <v>71.39815104134992</v>
+        <v>11.55527399680272</v>
       </c>
       <c r="U31" t="n">
-        <v>7.009918906921102</v>
+        <v>74.14723779841475</v>
       </c>
       <c r="V31" t="n">
-        <v>22.28204774214859</v>
+        <v>5.201800622770364</v>
       </c>
       <c r="W31" t="n">
-        <v>11.72152758466375</v>
+        <v>15.20912274186239</v>
       </c>
       <c r="X31" t="n">
-        <v>10.83554173719283</v>
+        <v>1.010943112498549</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.149310087877096</v>
+        <v>41.5408753618591</v>
       </c>
       <c r="Z31" t="n">
-        <v>11.12026074725177</v>
+        <v>16.36173177856801</v>
       </c>
       <c r="AA31" t="n">
-        <v>13.63667387895294</v>
+        <v>8.935981731639208</v>
       </c>
       <c r="AB31" t="n">
-        <v>45.6568486403676</v>
+        <v>32.05706108283987</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.25598068906814</v>
+        <v>33.5883262123582</v>
       </c>
       <c r="AD31" t="n">
-        <v>21.67102185956027</v>
+        <v>26.89540081279008</v>
       </c>
       <c r="AE31" t="n">
-        <v>2.109728841554356</v>
+        <v>3.280580681013367</v>
       </c>
       <c r="AF31" t="n">
-        <v>11.48280429433559</v>
+        <v>11.12297826966306</v>
       </c>
       <c r="AG31" t="n">
-        <v>1.2279429470232</v>
+        <v>3.806327894029872</v>
       </c>
       <c r="AH31" t="n">
-        <v>6.15990153764399</v>
+        <v>16.81001233698717</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.9350905173781158</v>
+        <v>10.20575288393695</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0.6289489738156321</v>
+        <v>7.871384516406959</v>
       </c>
       <c r="AK31" t="n">
-        <v>128.3844112571507</v>
+        <v>4.122981022444426</v>
       </c>
       <c r="AL31" t="n">
-        <v>3.210395371019918</v>
+        <v>10.94895883359878</v>
       </c>
       <c r="AM31" t="n">
-        <v>301.1330686702414</v>
+        <v>7.216693659407291</v>
       </c>
       <c r="AN31" t="n">
-        <v>5.501182422239008</v>
+        <v>25.45717724024573</v>
       </c>
       <c r="AO31" t="n">
-        <v>2.561312665328227</v>
+        <v>17.88490469623273</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.237256374955048</v>
+        <v>3.933498688691945</v>
       </c>
       <c r="AQ31" t="n">
-        <v>2.602734933235458</v>
+        <v>5.008957020942963</v>
       </c>
       <c r="AR31" t="n">
-        <v>16.87481887344473</v>
+        <v>5.10859336378794</v>
       </c>
       <c r="AS31" t="n">
-        <v>17.44968193550457</v>
+        <v>0.09918134636911935</v>
       </c>
       <c r="AT31" t="n">
-        <v>3.417034622297427</v>
+        <v>13.29447564984643</v>
       </c>
       <c r="AU31" t="n">
-        <v>34.69376002033055</v>
+        <v>18.4432753638275</v>
       </c>
       <c r="AV31" t="n">
-        <v>15.74403110270445</v>
+        <v>10.04532245373785</v>
       </c>
       <c r="AW31" t="n">
-        <v>5.449985773403475</v>
+        <v>9.912661103252825</v>
       </c>
       <c r="AX31" t="n">
-        <v>4.471602423506615</v>
+        <v>1.545240343794497</v>
       </c>
     </row>
   </sheetData>
